--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L832"/>
+  <dimension ref="A1:M832"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>composition</t>
+          <t>composition_x</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -487,6 +487,11 @@
       <c r="L1" s="1" t="inlineStr">
         <is>
           <t>band gap</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>composition_y</t>
         </is>
       </c>
     </row>
@@ -529,11 +534,16 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>mp-1418444</t>
+          <t>mp-1343327</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.04809999999999981</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Ag-Al-O</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -581,6 +591,11 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Ag-Bi-O</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -621,11 +636,16 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>mp-753992</t>
+          <t>mp-1273356</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Ag-Co-O</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -667,6 +687,7 @@
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -707,6 +728,7 @@
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -753,6 +775,11 @@
       <c r="L7" t="n">
         <v>0</v>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Ag-Fe-O</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -799,6 +826,11 @@
       <c r="L8" t="n">
         <v>0</v>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Ag-Ge-O</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -839,6 +871,7 @@
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -879,6 +912,7 @@
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -925,6 +959,11 @@
       <c r="L11" t="n">
         <v>0</v>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Ag-Mn-O</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -965,6 +1004,7 @@
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1011,6 +1051,11 @@
       <c r="L13" t="n">
         <v>1.3336</v>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Ag-Nb-O</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1057,6 +1102,11 @@
       <c r="L14" t="n">
         <v>1.3336</v>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Ag-Nb-O</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1097,6 +1147,7 @@
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1137,6 +1188,7 @@
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1177,6 +1229,7 @@
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1223,6 +1276,11 @@
       <c r="L18" t="n">
         <v>0</v>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Ag-O-Pd</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1263,6 +1321,7 @@
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1303,6 +1362,7 @@
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1343,6 +1403,7 @@
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1383,6 +1444,7 @@
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1429,6 +1491,11 @@
       <c r="L23" t="n">
         <v>0</v>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Ag-O-Ru</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1475,6 +1542,11 @@
       <c r="L24" t="n">
         <v>0.1332999999999998</v>
       </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Ag-O-Sb</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1521,6 +1593,11 @@
       <c r="L25" t="n">
         <v>0.3612</v>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Ag-O-Sc</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1567,6 +1644,11 @@
       <c r="L26" t="n">
         <v>0</v>
       </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Ag-O-Sn</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1613,6 +1695,11 @@
       <c r="L27" t="n">
         <v>1.7306</v>
       </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Ag-O-Ta</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1653,6 +1740,7 @@
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1699,6 +1787,11 @@
       <c r="L29" t="n">
         <v>1.3614</v>
       </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Ag-O-Te</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1739,6 +1832,7 @@
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1779,6 +1873,7 @@
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1819,11 +1914,16 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>mp-1178815</t>
+          <t>mp-624691</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.9488</v>
+        <v>1.6463</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Ag-O-V</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1865,6 +1965,7 @@
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1905,6 +2006,7 @@
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1951,6 +2053,11 @@
       <c r="L35" t="n">
         <v>5.8392</v>
       </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Al-B-O</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1997,6 +2104,11 @@
       <c r="L36" t="n">
         <v>1.7659</v>
       </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Al-O-Rh</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2037,6 +2149,7 @@
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2083,6 +2196,11 @@
       <c r="L38" t="n">
         <v>0</v>
       </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Al-Ba-O</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2129,6 +2247,11 @@
       <c r="L39" t="n">
         <v>0</v>
       </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Au-Ba-O</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2175,6 +2298,11 @@
       <c r="L40" t="n">
         <v>1.1031</v>
       </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Ba-Bi-O</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2221,6 +2349,11 @@
       <c r="L41" t="n">
         <v>0</v>
       </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Ba-Cd-O</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2261,11 +2394,16 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>mp-5663</t>
+          <t>mp-3316</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.299</v>
+        <v>2.2112</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Ba-Ce-O</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2313,6 +2451,11 @@
       <c r="L43" t="n">
         <v>0</v>
       </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Ba-Co-O</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2359,6 +2502,11 @@
       <c r="L44" t="n">
         <v>0</v>
       </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Ba-Cr-O</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2405,6 +2553,11 @@
       <c r="L45" t="n">
         <v>0</v>
       </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Ba-Cu-O</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2445,11 +2598,16 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>mp-1192651</t>
+          <t>mp-19035</t>
         </is>
       </c>
       <c r="L46" t="n">
         <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Ba-Fe-O</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2491,6 +2649,7 @@
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2537,6 +2696,11 @@
       <c r="L48" t="n">
         <v>3.5519</v>
       </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Ba-Ge-O</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2583,6 +2747,11 @@
       <c r="L49" t="n">
         <v>3.5394</v>
       </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Ba-Hf-O</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2629,6 +2798,11 @@
       <c r="L50" t="n">
         <v>3.5394</v>
       </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Ba-Hf-O</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2669,6 +2843,7 @@
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2715,6 +2890,11 @@
       <c r="L52" t="n">
         <v>0</v>
       </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Ba-In-O</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2761,6 +2941,11 @@
       <c r="L53" t="n">
         <v>0</v>
       </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Ba-Ir-O</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2807,6 +2992,11 @@
       <c r="L54" t="n">
         <v>0</v>
       </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Ba-Ir-O</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2847,11 +3037,16 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>mp-757501</t>
+          <t>mp-675227</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>0.8679000000000001</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Ba-Mn-O</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2899,6 +3094,11 @@
       <c r="L56" t="n">
         <v>0</v>
       </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Ba-Mo-O</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2945,6 +3145,11 @@
       <c r="L57" t="n">
         <v>0</v>
       </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Ba-Nb-O</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2991,6 +3196,11 @@
       <c r="L58" t="n">
         <v>0</v>
       </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Ba-Nb-O</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3037,6 +3247,11 @@
       <c r="L59" t="n">
         <v>0</v>
       </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Ba-Ni-O</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3083,6 +3298,11 @@
       <c r="L60" t="n">
         <v>0</v>
       </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Ba-Np-O</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3129,6 +3349,11 @@
       <c r="L61" t="n">
         <v>0</v>
       </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Ba-O-Os</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3169,11 +3394,16 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>mp-20991</t>
+          <t>mp-561598</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>0.02729999999999988</v>
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Ba-O-Pb</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -3221,6 +3451,11 @@
       <c r="L63" t="n">
         <v>0</v>
       </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Ba-O-Pd</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3267,6 +3502,11 @@
       <c r="L64" t="n">
         <v>0</v>
       </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Ba-O-Pr</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3313,6 +3553,11 @@
       <c r="L65" t="n">
         <v>0.4158999999999997</v>
       </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Ba-O-Pt</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3359,6 +3604,11 @@
       <c r="L66" t="n">
         <v>0</v>
       </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Ba-O-Re</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3405,6 +3655,11 @@
       <c r="L67" t="n">
         <v>0</v>
       </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Ba-O-Rh</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3445,11 +3700,16 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>mp-3597</t>
+          <t>mp-5773</t>
         </is>
       </c>
       <c r="L68" t="n">
         <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Ba-O-Ru</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -3491,6 +3751,7 @@
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3537,6 +3798,11 @@
       <c r="L70" t="n">
         <v>0</v>
       </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Ba-O-Sc</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3577,11 +3843,16 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>mp-1178513</t>
+          <t>mp-3163</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>0.6650999999999998</v>
+        <v>0.3723999999999998</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Ba-O-Sn</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -3623,11 +3894,16 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>mp-1178513</t>
+          <t>mp-3163</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>0.6650999999999998</v>
+        <v>0.3723999999999998</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Ba-O-Sn</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -3675,6 +3951,11 @@
       <c r="L73" t="n">
         <v>0</v>
       </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Ba-O-Ta</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3715,11 +3996,16 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>mp-1182811</t>
+          <t>mp-5735</t>
         </is>
       </c>
       <c r="L74" t="n">
         <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Ba-O-Tb</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -3767,6 +4053,11 @@
       <c r="L75" t="n">
         <v>0</v>
       </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Ba-O-Tc</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3813,6 +4104,11 @@
       <c r="L76" t="n">
         <v>3.0703</v>
       </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Ba-O-Te</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3859,6 +4155,11 @@
       <c r="L77" t="n">
         <v>3.2033</v>
       </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Ba-O-Th</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3899,11 +4200,16 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>mp-504715</t>
+          <t>mp-5777</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>2.293</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Ba-O-Ti</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -3945,11 +4251,16 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>mp-504715</t>
+          <t>mp-5777</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>2.293</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Ba-O-Ti</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -3991,11 +4302,16 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>mp-504715</t>
+          <t>mp-5777</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>2.293</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Ba-O-Ti</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -4043,6 +4359,11 @@
       <c r="L81" t="n">
         <v>0</v>
       </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Ba-O-Tl</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4089,6 +4410,11 @@
       <c r="L82" t="n">
         <v>0</v>
       </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Ba-O-U</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4135,6 +4461,11 @@
       <c r="L83" t="n">
         <v>0</v>
       </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Ba-O-V</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4181,6 +4512,11 @@
       <c r="L84" t="n">
         <v>0</v>
       </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Ba-O-V</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4227,6 +4563,11 @@
       <c r="L85" t="n">
         <v>0</v>
       </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Ba-O-W</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4267,6 +4608,7 @@
       </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4313,6 +4655,11 @@
       <c r="L87" t="n">
         <v>0</v>
       </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Ba-O-Zn</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4359,6 +4706,11 @@
       <c r="L88" t="n">
         <v>3.0377</v>
       </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Ba-O-Zr</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4405,6 +4757,11 @@
       <c r="L89" t="n">
         <v>3.0377</v>
       </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Ba-O-Zr</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4445,6 +4802,7 @@
       </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4485,6 +4843,7 @@
       </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4525,6 +4884,7 @@
       </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4565,6 +4925,7 @@
       </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4605,11 +4966,16 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>mp-1399298</t>
+          <t>mp-1368304</t>
         </is>
       </c>
       <c r="L94" t="n">
         <v>0</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Ca-Co-O</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -4657,6 +5023,11 @@
       <c r="L95" t="n">
         <v>0.4069000000000003</v>
       </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Ca-Cr-O</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4703,6 +5074,11 @@
       <c r="L96" t="n">
         <v>0</v>
       </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Ca-Cu-O</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4743,11 +5119,16 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>mp-1001571</t>
+          <t>mp-1272846</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>0.0607000000000002</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Ca-Fe-O</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -4789,6 +5170,7 @@
       </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4835,6 +5217,11 @@
       <c r="L99" t="n">
         <v>2.0287</v>
       </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Ca-Ge-O</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4881,6 +5268,11 @@
       <c r="L100" t="n">
         <v>3.6612</v>
       </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Ca-Hf-O</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4927,6 +5319,11 @@
       <c r="L101" t="n">
         <v>0</v>
       </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Ca-Ir-O</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4967,11 +5364,16 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>mp-1017467</t>
+          <t>mp-19201</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>0.4685999999999999</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Ca-Mn-O</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -5019,6 +5421,11 @@
       <c r="L103" t="n">
         <v>1.0948</v>
       </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Ca-Mo-O</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5065,6 +5472,11 @@
       <c r="L104" t="n">
         <v>0</v>
       </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Ca-Nb-O</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5111,6 +5523,11 @@
       <c r="L105" t="n">
         <v>1.2293</v>
       </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Ca-Ni-O</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5151,6 +5568,7 @@
       </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -5197,6 +5615,11 @@
       <c r="L107" t="n">
         <v>0</v>
       </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Ca-O-Os</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -5237,6 +5660,7 @@
       </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5283,6 +5707,11 @@
       <c r="L109" t="n">
         <v>1.2953</v>
       </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Ca-O-Pt</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5323,6 +5752,7 @@
       </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5363,6 +5793,7 @@
       </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5403,11 +5834,16 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>mp-1193602</t>
+          <t>mp-1078659</t>
         </is>
       </c>
       <c r="L112" t="n">
         <v>0</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Ca-O-Rh</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -5455,6 +5891,11 @@
       <c r="L113" t="n">
         <v>0</v>
       </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>Ca-O-Ru</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5501,6 +5942,11 @@
       <c r="L114" t="n">
         <v>0</v>
       </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Ca-O-Sc</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5541,11 +5987,16 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>mp-1181886</t>
+          <t>mp-17552</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>3.6218</v>
+        <v>4.7336</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Ca-O-Si</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -5593,6 +6044,11 @@
       <c r="L116" t="n">
         <v>2.9379</v>
       </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Ca-O-Sn</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5633,6 +6089,7 @@
       </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5679,6 +6136,11 @@
       <c r="L118" t="n">
         <v>0</v>
       </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Ca-O-Tc</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5719,11 +6181,16 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>mp-1228456</t>
+          <t>mp-1366217</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>3.1072</v>
+        <v>2.895</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Ca-O-Te</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -5765,11 +6232,16 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>mp-5827</t>
+          <t>mp-3442</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.8285</v>
+        <v>2.2434</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>Ca-O-Ti</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -5811,11 +6283,16 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>mp-5827</t>
+          <t>mp-3442</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.8285</v>
+        <v>2.2434</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Ca-O-Ti</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -5857,6 +6334,7 @@
       </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5903,6 +6381,11 @@
       <c r="L123" t="n">
         <v>0.4339</v>
       </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>Ca-O-V</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5949,6 +6432,11 @@
       <c r="L124" t="n">
         <v>1.978400000000001</v>
       </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>Ca-O-W</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5995,6 +6483,11 @@
       <c r="L125" t="n">
         <v>0</v>
       </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>Ca-O-Y</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -6041,6 +6534,11 @@
       <c r="L126" t="n">
         <v>3.4707</v>
       </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>Ca-O-Zr</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -6087,6 +6585,11 @@
       <c r="L127" t="n">
         <v>0</v>
       </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>Cd-Co-O</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -6127,6 +6630,7 @@
       </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -6173,6 +6677,11 @@
       <c r="L129" t="n">
         <v>0</v>
       </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>Cd-Fe-O</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -6213,11 +6722,16 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>mp-7588</t>
+          <t>mp-1016903</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.301</v>
+        <v>0.1022000000000007</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Cd-Ge-O</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -6265,6 +6779,11 @@
       <c r="L131" t="n">
         <v>2.3244</v>
       </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>Cd-Hf-O</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -6311,6 +6830,11 @@
       <c r="L132" t="n">
         <v>0</v>
       </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Cd-Ir-O</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6357,6 +6881,11 @@
       <c r="L133" t="n">
         <v>0</v>
       </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Cd-Mn-O</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6397,6 +6926,7 @@
       </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6437,6 +6967,7 @@
       </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6477,6 +7008,7 @@
       </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6517,6 +7049,7 @@
       </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6563,6 +7096,11 @@
       <c r="L138" t="n">
         <v>0</v>
       </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Cd-O-Os</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6603,6 +7141,7 @@
       </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6643,6 +7182,7 @@
       </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6683,6 +7223,7 @@
       </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6723,6 +7264,7 @@
       </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6769,6 +7311,11 @@
       <c r="L143" t="n">
         <v>0</v>
       </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>Cd-O-Rh</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6815,6 +7362,11 @@
       <c r="L144" t="n">
         <v>0</v>
       </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Cd-O-Ru</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6861,6 +7413,11 @@
       <c r="L145" t="n">
         <v>0.6903999999999999</v>
       </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Cd-O-Sn</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6901,6 +7458,7 @@
       </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6947,6 +7505,11 @@
       <c r="L147" t="n">
         <v>0</v>
       </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Cd-O-Tc</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6993,6 +7556,11 @@
       <c r="L148" t="n">
         <v>2.9646</v>
       </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Cd-O-Te</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -7033,11 +7601,16 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>mp-1179263</t>
+          <t>mp-13641</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.4505</v>
+        <v>2.9057</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Cd-O-Ti</t>
+        </is>
       </c>
     </row>
     <row r="150">
@@ -7079,6 +7652,7 @@
       </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -7125,6 +7699,11 @@
       <c r="L151" t="n">
         <v>0</v>
       </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>Cd-O-V</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -7165,6 +7744,7 @@
       </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -7211,6 +7791,11 @@
       <c r="L153" t="n">
         <v>0</v>
       </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Cd-O-Zr</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -7257,6 +7842,11 @@
       <c r="L154" t="n">
         <v>0</v>
       </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Al-Ce-O</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -7297,6 +7887,7 @@
       </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -7337,6 +7928,7 @@
       </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -7377,11 +7969,16 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>mp-20530</t>
+          <t>mp-780712</t>
         </is>
       </c>
       <c r="L157" t="n">
         <v>0</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>Ce-Cr-O</t>
+        </is>
       </c>
     </row>
     <row r="158">
@@ -7429,6 +8026,11 @@
       <c r="L158" t="n">
         <v>0</v>
       </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>Ce-Cu-O</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7475,6 +8077,11 @@
       <c r="L159" t="n">
         <v>0</v>
       </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>Ce-Fe-O</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7521,6 +8128,11 @@
       <c r="L160" t="n">
         <v>0</v>
       </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Ce-Ga-O</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7561,6 +8173,7 @@
       </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7601,6 +8214,7 @@
       </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7641,6 +8255,7 @@
       </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7687,6 +8302,11 @@
       <c r="L164" t="n">
         <v>0</v>
       </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>Ce-Mn-O</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7727,6 +8347,7 @@
       </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7767,6 +8388,7 @@
       </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7813,6 +8435,11 @@
       <c r="L167" t="n">
         <v>0.5667</v>
       </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>Ce-Ni-O</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7853,6 +8480,7 @@
       </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7893,6 +8521,7 @@
       </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7933,6 +8562,7 @@
       </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7979,6 +8609,11 @@
       <c r="L171" t="n">
         <v>0</v>
       </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>Ce-O-Pu</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -8025,6 +8660,11 @@
       <c r="L172" t="n">
         <v>0</v>
       </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>Ce-O-Rh</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -8065,6 +8705,7 @@
       </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -8111,6 +8752,11 @@
       <c r="L174" t="n">
         <v>0</v>
       </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>Ce-O-Sb</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -8157,6 +8803,11 @@
       <c r="L175" t="n">
         <v>0</v>
       </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>Ce-O-Sc</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -8203,6 +8854,11 @@
       <c r="L176" t="n">
         <v>0</v>
       </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>Ce-O-Ta</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -8249,6 +8905,11 @@
       <c r="L177" t="n">
         <v>0</v>
       </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>Ce-O-Ti</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -8289,6 +8950,7 @@
       </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -8329,11 +8991,16 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>mp-18769</t>
+          <t>mp-22593</t>
         </is>
       </c>
       <c r="L179" t="n">
         <v>0</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>Ce-O-V</t>
+        </is>
       </c>
     </row>
     <row r="180">
@@ -8375,6 +9042,7 @@
       </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -8415,6 +9083,7 @@
       </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -8455,6 +9124,7 @@
       </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8495,6 +9165,7 @@
       </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8535,11 +9206,16 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>mp-613384</t>
+          <t>mp-28295</t>
         </is>
       </c>
       <c r="L184" t="n">
-        <v>0</v>
+        <v>3.0912</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>Cs-I-O</t>
+        </is>
       </c>
     </row>
     <row r="185">
@@ -8581,11 +9257,16 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>mp-756630</t>
+          <t>mp-984723</t>
         </is>
       </c>
       <c r="L185" t="n">
-        <v>5.723000000000001</v>
+        <v>2.948300000000001</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>Al-Dy-O</t>
+        </is>
       </c>
     </row>
     <row r="186">
@@ -8633,6 +9314,11 @@
       <c r="L186" t="n">
         <v>0</v>
       </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>Bi-Dy-O</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8679,6 +9365,11 @@
       <c r="L187" t="n">
         <v>1.1924</v>
       </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>Co-Dy-O</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8725,6 +9416,11 @@
       <c r="L188" t="n">
         <v>2.218500000000001</v>
       </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>Cr-Dy-O</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8771,6 +9467,11 @@
       <c r="L189" t="n">
         <v>0</v>
       </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>Cu-Dy-O</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8817,6 +9518,11 @@
       <c r="L190" t="n">
         <v>0.9134000000000002</v>
       </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>Dy-Fe-O</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8863,6 +9569,11 @@
       <c r="L191" t="n">
         <v>2.8659</v>
       </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>Dy-Ga-O</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8903,6 +9614,7 @@
       </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8949,6 +9661,11 @@
       <c r="L193" t="n">
         <v>2.623</v>
       </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>Dy-In-O</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8989,6 +9706,7 @@
       </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -9035,6 +9753,11 @@
       <c r="L195" t="n">
         <v>0</v>
       </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>Dy-Mn-O</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -9075,6 +9798,7 @@
       </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -9115,6 +9839,7 @@
       </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -9161,6 +9886,11 @@
       <c r="L198" t="n">
         <v>0</v>
       </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>Dy-Ni-O</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -9201,6 +9931,7 @@
       </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -9241,6 +9972,7 @@
       </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -9281,6 +10013,7 @@
       </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -9321,6 +10054,7 @@
       </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -9361,6 +10095,7 @@
       </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -9401,6 +10136,7 @@
       </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -9447,6 +10183,11 @@
       <c r="L205" t="n">
         <v>0.8883000000000001</v>
       </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>Dy-O-Rh</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -9487,6 +10228,7 @@
       </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -9533,6 +10275,11 @@
       <c r="L207" t="n">
         <v>0</v>
       </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>Dy-O-Sb</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -9579,6 +10326,11 @@
       <c r="L208" t="n">
         <v>4.4598</v>
       </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>Dy-O-Sc</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -9625,6 +10377,11 @@
       <c r="L209" t="n">
         <v>0</v>
       </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>Dy-O-Sn</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -9665,6 +10422,7 @@
       </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -9705,6 +10463,7 @@
       </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -9745,6 +10504,7 @@
       </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -9791,6 +10551,11 @@
       <c r="L213" t="n">
         <v>0</v>
       </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>Dy-O-Ti</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9831,6 +10596,7 @@
       </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9877,6 +10643,11 @@
       <c r="L215" t="n">
         <v>1.3773</v>
       </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>Dy-O-V</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9917,6 +10688,7 @@
       </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9957,6 +10729,7 @@
       </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9997,11 +10770,16 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>mp-756458</t>
+          <t>mp-754184</t>
         </is>
       </c>
       <c r="L218" t="n">
-        <v>5.803000000000001</v>
+        <v>3.5604</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>Al-Er-O</t>
+        </is>
       </c>
     </row>
     <row r="219">
@@ -10049,6 +10827,11 @@
       <c r="L219" t="n">
         <v>3.1136</v>
       </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>Bi-Er-O</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -10095,6 +10878,11 @@
       <c r="L220" t="n">
         <v>1.4471</v>
       </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>Co-Er-O</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -10141,6 +10929,11 @@
       <c r="L221" t="n">
         <v>0.2571000000000003</v>
       </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>Cr-Er-O</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -10187,6 +10980,11 @@
       <c r="L222" t="n">
         <v>0</v>
       </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>Cu-Er-O</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -10233,6 +11031,11 @@
       <c r="L223" t="n">
         <v>1.3727</v>
       </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>Er-Fe-O</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -10273,11 +11076,16 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>mp-1213082</t>
+          <t>mp-1213088</t>
         </is>
       </c>
       <c r="L224" t="n">
-        <v>3.6631</v>
+        <v>2.9001</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>Er-Ga-O</t>
+        </is>
       </c>
     </row>
     <row r="225">
@@ -10319,11 +11127,16 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>mp-772217</t>
+          <t>mp-754208</t>
         </is>
       </c>
       <c r="L225" t="n">
-        <v>1.956</v>
+        <v>2.5532</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>Er-In-O</t>
+        </is>
       </c>
     </row>
     <row r="226">
@@ -10371,6 +11184,11 @@
       <c r="L226" t="n">
         <v>0</v>
       </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>Er-Ir-O</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -10417,6 +11235,11 @@
       <c r="L227" t="n">
         <v>0.2410999999999999</v>
       </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>Er-Mn-O</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -10457,6 +11280,7 @@
       </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -10497,6 +11321,7 @@
       </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -10543,6 +11368,11 @@
       <c r="L230" t="n">
         <v>0.3404000000000003</v>
       </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>Er-Ni-O</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -10583,6 +11413,7 @@
       </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -10623,6 +11454,7 @@
       </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -10663,6 +11495,7 @@
       </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -10709,6 +11542,11 @@
       <c r="L234" t="n">
         <v>0.9641999999999999</v>
       </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>Er-O-Rh</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -10749,6 +11587,7 @@
       </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -10789,6 +11628,7 @@
       </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -10835,6 +11675,11 @@
       <c r="L237" t="n">
         <v>4.4171</v>
       </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>Er-O-Sc</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -10881,6 +11726,11 @@
       <c r="L238" t="n">
         <v>0</v>
       </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>Er-O-Ta</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -10927,6 +11777,11 @@
       <c r="L239" t="n">
         <v>0</v>
       </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>Er-O-Ti</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10967,6 +11822,7 @@
       </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -11013,6 +11869,11 @@
       <c r="L241" t="n">
         <v>1.5838</v>
       </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>Er-O-V</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -11059,6 +11920,11 @@
       <c r="L242" t="n">
         <v>0</v>
       </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>Al-Eu-O</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -11099,6 +11965,7 @@
       </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -11139,11 +12006,16 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>mp-1212757</t>
+          <t>mp-1075975</t>
         </is>
       </c>
       <c r="L244" t="n">
         <v>0</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>Co-Eu-O</t>
+        </is>
       </c>
     </row>
     <row r="245">
@@ -11191,6 +12063,11 @@
       <c r="L245" t="n">
         <v>0</v>
       </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>Cr-Eu-O</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -11237,6 +12114,11 @@
       <c r="L246" t="n">
         <v>0</v>
       </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>Cu-Eu-O</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -11283,6 +12165,11 @@
       <c r="L247" t="n">
         <v>0</v>
       </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>Eu-Fe-O</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -11329,6 +12216,11 @@
       <c r="L248" t="n">
         <v>0</v>
       </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>Eu-Ge-O</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -11369,11 +12261,16 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>mp-1184304</t>
+          <t>mp-1212980</t>
         </is>
       </c>
       <c r="L249" t="n">
         <v>0</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>Eu-In-O</t>
+        </is>
       </c>
     </row>
     <row r="250">
@@ -11421,6 +12318,11 @@
       <c r="L250" t="n">
         <v>0</v>
       </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>Eu-Ir-O</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -11467,6 +12369,11 @@
       <c r="L251" t="n">
         <v>0</v>
       </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>Eu-Mn-O</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -11513,6 +12420,11 @@
       <c r="L252" t="n">
         <v>0</v>
       </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>Eu-Mo-O</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -11553,11 +12465,16 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>mp-755572</t>
+          <t>mp-1078341</t>
         </is>
       </c>
       <c r="L253" t="n">
         <v>0</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>Eu-Nb-O</t>
+        </is>
       </c>
     </row>
     <row r="254">
@@ -11605,6 +12522,11 @@
       <c r="L254" t="n">
         <v>0</v>
       </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>Eu-Ni-O</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -11651,6 +12573,11 @@
       <c r="L255" t="n">
         <v>0</v>
       </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>Eu-Np-O</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -11697,6 +12624,11 @@
       <c r="L256" t="n">
         <v>0</v>
       </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>Eu-O-Os</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -11743,6 +12675,11 @@
       <c r="L257" t="n">
         <v>0</v>
       </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>Eu-O-Pd</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -11789,6 +12726,11 @@
       <c r="L258" t="n">
         <v>0</v>
       </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>Eu-O-Pt</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -11829,6 +12771,7 @@
       </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -11875,6 +12818,11 @@
       <c r="L260" t="n">
         <v>0</v>
       </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>Eu-O-Re</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -11921,6 +12869,11 @@
       <c r="L261" t="n">
         <v>0</v>
       </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>Eu-O-Rh</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -11967,6 +12920,11 @@
       <c r="L262" t="n">
         <v>0</v>
       </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>Eu-O-Ru</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -12013,6 +12971,11 @@
       <c r="L263" t="n">
         <v>0</v>
       </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>Eu-O-Sb</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -12059,6 +13022,11 @@
       <c r="L264" t="n">
         <v>0</v>
       </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>Eu-O-Sc</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -12105,6 +13073,11 @@
       <c r="L265" t="n">
         <v>0</v>
       </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>Eu-O-Sn</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -12145,6 +13118,7 @@
       </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -12191,6 +13165,11 @@
       <c r="L267" t="n">
         <v>0</v>
       </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>Eu-O-Tc</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -12231,6 +13210,7 @@
       </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -12271,11 +13251,16 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>mp-1079111</t>
+          <t>mp-22246</t>
         </is>
       </c>
       <c r="L269" t="n">
         <v>0</v>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>Eu-O-Ti</t>
+        </is>
       </c>
     </row>
     <row r="270">
@@ -12323,6 +13308,11 @@
       <c r="L270" t="n">
         <v>0</v>
       </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>Eu-O-U</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -12369,6 +13359,11 @@
       <c r="L271" t="n">
         <v>0</v>
       </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>Eu-O-V</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -12415,6 +13410,11 @@
       <c r="L272" t="n">
         <v>0</v>
       </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>Eu-O-W</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -12455,11 +13455,16 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>mp-771055</t>
+          <t>mp-1178354</t>
         </is>
       </c>
       <c r="L273" t="n">
-        <v>0.3877000000000006</v>
+        <v>0.4662999999999995</v>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>Eu-O-Zr</t>
+        </is>
       </c>
     </row>
     <row r="274">
@@ -12501,6 +13506,7 @@
       </c>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -12547,6 +13553,11 @@
       <c r="L275" t="n">
         <v>1.8885</v>
       </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>Al-Gd-O</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -12587,6 +13598,7 @@
       </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -12633,6 +13645,11 @@
       <c r="L277" t="n">
         <v>0</v>
       </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>Co-Gd-O</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -12679,6 +13696,11 @@
       <c r="L278" t="n">
         <v>0.8250000000000002</v>
       </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>Cr-Gd-O</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -12725,6 +13747,11 @@
       <c r="L279" t="n">
         <v>0</v>
       </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>Cu-Gd-O</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -12771,6 +13798,11 @@
       <c r="L280" t="n">
         <v>0</v>
       </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>Fe-Gd-O</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -12817,6 +13849,11 @@
       <c r="L281" t="n">
         <v>3.3962</v>
       </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>Ga-Gd-O</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -12863,6 +13900,11 @@
       <c r="L282" t="n">
         <v>2.586</v>
       </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>Gd-In-O</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -12903,6 +13945,7 @@
       </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -12949,6 +13992,11 @@
       <c r="L284" t="n">
         <v>0.4040999999999997</v>
       </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>Gd-Mn-O</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -12989,6 +14037,7 @@
       </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr"/>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -13029,6 +14078,7 @@
       </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr"/>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -13075,6 +14125,11 @@
       <c r="L287" t="n">
         <v>0</v>
       </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>Gd-Ni-O</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -13115,6 +14170,7 @@
       </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr"/>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -13155,6 +14211,7 @@
       </c>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr"/>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -13195,6 +14252,7 @@
       </c>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr"/>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -13241,6 +14299,11 @@
       <c r="L291" t="n">
         <v>0</v>
       </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>Gd-O-Rh</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -13281,6 +14344,7 @@
       </c>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr"/>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -13321,6 +14385,7 @@
       </c>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -13367,6 +14432,11 @@
       <c r="L294" t="n">
         <v>3.1418</v>
       </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>Gd-O-Sc</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -13407,6 +14477,7 @@
       </c>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr"/>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -13453,6 +14524,11 @@
       <c r="L296" t="n">
         <v>0</v>
       </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>Gd-O-Ti</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -13493,6 +14569,7 @@
       </c>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -13539,6 +14616,11 @@
       <c r="L298" t="n">
         <v>0</v>
       </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>Gd-O-V</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -13585,6 +14667,11 @@
       <c r="L299" t="n">
         <v>2.4865</v>
       </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>Co-Hf-O</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -13631,6 +14718,11 @@
       <c r="L300" t="n">
         <v>1.5871</v>
       </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>Cr-Hf-O</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -13671,6 +14763,7 @@
       </c>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr"/>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -13717,6 +14810,11 @@
       <c r="L302" t="n">
         <v>2.9099</v>
       </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>Fe-Hf-O</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -13757,6 +14855,7 @@
       </c>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr"/>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -13803,6 +14902,11 @@
       <c r="L304" t="n">
         <v>1.2772</v>
       </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>Hf-Mg-O</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -13849,6 +14953,11 @@
       <c r="L305" t="n">
         <v>2.6129</v>
       </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>Hf-Mn-O</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -13895,6 +15004,11 @@
       <c r="L306" t="n">
         <v>2.7983</v>
       </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>Hf-Ni-O</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -13941,6 +15055,11 @@
       <c r="L307" t="n">
         <v>0</v>
       </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>Hf-Np-O</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -13981,6 +15100,7 @@
       </c>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr"/>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -14021,6 +15141,7 @@
       </c>
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr"/>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -14061,6 +15182,7 @@
       </c>
       <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr"/>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -14101,6 +15223,7 @@
       </c>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr"/>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -14147,6 +15270,11 @@
       <c r="L312" t="n">
         <v>0</v>
       </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>Hf-O-Zn</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -14193,6 +15321,11 @@
       <c r="L313" t="n">
         <v>5.8359</v>
       </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>Al-Ho-O</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -14233,11 +15366,16 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>mp-770830</t>
+          <t>mp-1178162</t>
         </is>
       </c>
       <c r="L314" t="n">
-        <v>2.7472</v>
+        <v>3.1343</v>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>Bi-Ho-O</t>
+        </is>
       </c>
     </row>
     <row r="315">
@@ -14285,6 +15423,11 @@
       <c r="L315" t="n">
         <v>0</v>
       </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>Co-Ho-O</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -14331,6 +15474,11 @@
       <c r="L316" t="n">
         <v>2.2162</v>
       </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>Cr-Ho-O</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -14377,6 +15525,11 @@
       <c r="L317" t="n">
         <v>0</v>
       </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>Cu-Ho-O</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -14423,6 +15576,11 @@
       <c r="L318" t="n">
         <v>1.5675</v>
       </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>Fe-Ho-O</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -14469,6 +15627,11 @@
       <c r="L319" t="n">
         <v>2.8722</v>
       </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>Ga-Ho-O</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -14515,6 +15678,11 @@
       <c r="L320" t="n">
         <v>2.5765</v>
       </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>Ho-In-O</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -14555,6 +15723,7 @@
       </c>
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr"/>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -14595,11 +15764,16 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>mp-1193069</t>
+          <t>mp-22081</t>
         </is>
       </c>
       <c r="L322" t="n">
-        <v>0.4942000000000002</v>
+        <v>0.4351000000000003</v>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>Ho-Mn-O</t>
+        </is>
       </c>
     </row>
     <row r="323">
@@ -14641,6 +15815,7 @@
       </c>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr"/>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -14681,6 +15856,7 @@
       </c>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr"/>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -14727,6 +15903,11 @@
       <c r="L325" t="n">
         <v>0</v>
       </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>Ho-Ni-O</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -14767,6 +15948,7 @@
       </c>
       <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr"/>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -14807,6 +15989,7 @@
       </c>
       <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr"/>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -14847,6 +16030,7 @@
       </c>
       <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr"/>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -14893,6 +16077,11 @@
       <c r="L329" t="n">
         <v>0</v>
       </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>Ho-O-Rh</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -14933,6 +16122,7 @@
       </c>
       <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr"/>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -14979,6 +16169,11 @@
       <c r="L331" t="n">
         <v>0</v>
       </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>Ho-O-Sb</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -15025,6 +16220,11 @@
       <c r="L332" t="n">
         <v>4.476</v>
       </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>Ho-O-Sc</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -15065,6 +16265,7 @@
       </c>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr"/>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -15111,6 +16312,11 @@
       <c r="L334" t="n">
         <v>0</v>
       </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>Ho-O-Ti</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -15151,6 +16357,7 @@
       </c>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr"/>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -15197,6 +16404,11 @@
       <c r="L336" t="n">
         <v>1.1971</v>
       </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>Ho-O-V</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -15237,6 +16449,7 @@
       </c>
       <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr"/>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -15277,6 +16490,7 @@
       </c>
       <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr"/>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -15323,6 +16537,11 @@
       <c r="L339" t="n">
         <v>0</v>
       </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>In-O-Ta</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -15363,6 +16582,7 @@
       </c>
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr"/>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -15403,6 +16623,7 @@
       </c>
       <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr"/>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -15443,6 +16664,7 @@
       </c>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr"/>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -15483,6 +16705,7 @@
       </c>
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr"/>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -15523,11 +16746,16 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>mp-982040</t>
+          <t>mp-29799</t>
         </is>
       </c>
       <c r="L344" t="n">
-        <v>0</v>
+        <v>0.4914000000000001</v>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>Bi-K-O</t>
+        </is>
       </c>
     </row>
     <row r="345">
@@ -15575,6 +16803,11 @@
       <c r="L345" t="n">
         <v>0</v>
       </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>Cr-K-O</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -15621,6 +16854,11 @@
       <c r="L346" t="n">
         <v>0</v>
       </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>Hf-K-O</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -15667,6 +16905,11 @@
       <c r="L347" t="n">
         <v>0</v>
       </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>Ir-K-O</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -15713,6 +16956,11 @@
       <c r="L348" t="n">
         <v>0</v>
       </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>K-Mn-O</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -15759,6 +17007,11 @@
       <c r="L349" t="n">
         <v>0</v>
       </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>K-Mo-O</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -15799,11 +17052,16 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>mp-5246</t>
+          <t>mp-4342</t>
         </is>
       </c>
       <c r="L350" t="n">
-        <v>2.0585</v>
+        <v>1.476</v>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>K-Nb-O</t>
+        </is>
       </c>
     </row>
     <row r="351">
@@ -15851,6 +17109,11 @@
       <c r="L351" t="n">
         <v>0</v>
       </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>K-Np-O</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -15897,6 +17160,11 @@
       <c r="L352" t="n">
         <v>0</v>
       </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>K-O-Os</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -15943,6 +17211,11 @@
       <c r="L353" t="n">
         <v>3.0477</v>
       </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>K-O-Pa</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -15989,6 +17262,11 @@
       <c r="L354" t="n">
         <v>0</v>
       </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>K-O-Pb</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -16035,6 +17313,11 @@
       <c r="L355" t="n">
         <v>0</v>
       </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>K-O-Pt</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -16081,6 +17364,11 @@
       <c r="L356" t="n">
         <v>0</v>
       </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>K-O-Pu</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -16127,6 +17415,11 @@
       <c r="L357" t="n">
         <v>0</v>
       </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>K-O-Re</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -16173,6 +17466,11 @@
       <c r="L358" t="n">
         <v>0</v>
       </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>K-O-Rh</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -16219,6 +17517,11 @@
       <c r="L359" t="n">
         <v>0</v>
       </c>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>K-O-Ru</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -16265,6 +17568,11 @@
       <c r="L360" t="n">
         <v>2.6808</v>
       </c>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>K-O-Sb</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -16305,6 +17613,7 @@
       </c>
       <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr"/>
+      <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -16351,6 +17660,11 @@
       <c r="L362" t="n">
         <v>2.0995</v>
       </c>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>K-O-Ta</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -16397,6 +17711,11 @@
       <c r="L363" t="n">
         <v>2.0995</v>
       </c>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>K-O-Ta</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -16443,6 +17762,11 @@
       <c r="L364" t="n">
         <v>0</v>
       </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>K-O-Tc</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -16483,11 +17807,16 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>mp-1180658</t>
+          <t>mp-760376</t>
         </is>
       </c>
       <c r="L365" t="n">
         <v>0</v>
+      </c>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>K-O-Ti</t>
+        </is>
       </c>
     </row>
     <row r="366">
@@ -16535,6 +17864,11 @@
       <c r="L366" t="n">
         <v>0.4454000000000002</v>
       </c>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>K-O-U</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -16575,11 +17909,16 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>mp-1076633</t>
+          <t>mp-18815</t>
         </is>
       </c>
       <c r="L367" t="n">
-        <v>0.2186000000000003</v>
+        <v>3.046</v>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>K-O-V</t>
+        </is>
       </c>
     </row>
     <row r="368">
@@ -16627,6 +17966,11 @@
       <c r="L368" t="n">
         <v>0</v>
       </c>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>K-O-W</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -16673,6 +18017,11 @@
       <c r="L369" t="n">
         <v>0</v>
       </c>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t>K-O-Zr</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -16713,11 +18062,16 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>mp-5304</t>
+          <t>mp-780422</t>
         </is>
       </c>
       <c r="L370" t="n">
-        <v>3.4924</v>
+        <v>4.403700000000001</v>
+      </c>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>Al-La-O</t>
+        </is>
       </c>
     </row>
     <row r="371">
@@ -16759,11 +18113,16 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>mp-5304</t>
+          <t>mp-780422</t>
         </is>
       </c>
       <c r="L371" t="n">
-        <v>3.4924</v>
+        <v>4.403700000000001</v>
+      </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>Al-La-O</t>
+        </is>
       </c>
     </row>
     <row r="372">
@@ -16811,6 +18170,11 @@
       <c r="L372" t="n">
         <v>2.400399999999999</v>
       </c>
+      <c r="M372" t="inlineStr">
+        <is>
+          <t>Bi-La-O</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -16851,11 +18215,16 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>mp-1504268</t>
+          <t>mp-1181307</t>
         </is>
       </c>
       <c r="L373" t="n">
-        <v>0.9398</v>
+        <v>0</v>
+      </c>
+      <c r="M373" t="inlineStr">
+        <is>
+          <t>Co-La-O</t>
+        </is>
       </c>
     </row>
     <row r="374">
@@ -16897,11 +18266,16 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>mp-19357</t>
+          <t>mp-19281</t>
         </is>
       </c>
       <c r="L374" t="n">
-        <v>0</v>
+        <v>1.913800000000001</v>
+      </c>
+      <c r="M374" t="inlineStr">
+        <is>
+          <t>Cr-La-O</t>
+        </is>
       </c>
     </row>
     <row r="375">
@@ -16949,6 +18323,11 @@
       <c r="L375" t="n">
         <v>0</v>
       </c>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>Cu-La-O</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -16989,11 +18368,16 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>mp-605340</t>
+          <t>mp-1181002</t>
         </is>
       </c>
       <c r="L376" t="n">
-        <v>1.4672</v>
+        <v>1.2424</v>
+      </c>
+      <c r="M376" t="inlineStr">
+        <is>
+          <t>Fe-La-O</t>
+        </is>
       </c>
     </row>
     <row r="377">
@@ -17041,6 +18425,11 @@
       <c r="L377" t="n">
         <v>3.365900000000001</v>
       </c>
+      <c r="M377" t="inlineStr">
+        <is>
+          <t>Ga-La-O</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -17087,6 +18476,11 @@
       <c r="L378" t="n">
         <v>3.365900000000001</v>
       </c>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t>Ga-La-O</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -17127,6 +18521,7 @@
       </c>
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr"/>
+      <c r="M379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -17173,6 +18568,11 @@
       <c r="L380" t="n">
         <v>2.7507</v>
       </c>
+      <c r="M380" t="inlineStr">
+        <is>
+          <t>In-La-O</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -17213,6 +18613,7 @@
       </c>
       <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr"/>
+      <c r="M381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -17259,6 +18660,11 @@
       <c r="L382" t="n">
         <v>0</v>
       </c>
+      <c r="M382" t="inlineStr">
+        <is>
+          <t>La-Mg-O</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -17299,11 +18705,16 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>mp-1205375</t>
+          <t>mp-1272373</t>
         </is>
       </c>
       <c r="L383" t="n">
-        <v>0</v>
+        <v>0.5803000000000003</v>
+      </c>
+      <c r="M383" t="inlineStr">
+        <is>
+          <t>La-Mn-O</t>
+        </is>
       </c>
     </row>
     <row r="384">
@@ -17345,6 +18756,7 @@
       </c>
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr"/>
+      <c r="M384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -17385,6 +18797,7 @@
       </c>
       <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr"/>
+      <c r="M385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -17425,11 +18838,16 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>mp-1284950</t>
+          <t>mp-19339</t>
         </is>
       </c>
       <c r="L386" t="n">
-        <v>0.3559999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="M386" t="inlineStr">
+        <is>
+          <t>La-Ni-O</t>
+        </is>
       </c>
     </row>
     <row r="387">
@@ -17471,11 +18889,16 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>mp-1284950</t>
+          <t>mp-19339</t>
         </is>
       </c>
       <c r="L387" t="n">
-        <v>0.3559999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="M387" t="inlineStr">
+        <is>
+          <t>La-Ni-O</t>
+        </is>
       </c>
     </row>
     <row r="388">
@@ -17517,6 +18940,7 @@
       </c>
       <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr"/>
+      <c r="M388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -17563,6 +18987,11 @@
       <c r="L389" t="n">
         <v>0</v>
       </c>
+      <c r="M389" t="inlineStr">
+        <is>
+          <t>La-O-Pd</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -17609,6 +19038,11 @@
       <c r="L390" t="n">
         <v>0</v>
       </c>
+      <c r="M390" t="inlineStr">
+        <is>
+          <t>La-O-Pt</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -17649,6 +19083,7 @@
       </c>
       <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr"/>
+      <c r="M391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -17695,6 +19130,11 @@
       <c r="L392" t="n">
         <v>0.5939999999999994</v>
       </c>
+      <c r="M392" t="inlineStr">
+        <is>
+          <t>La-O-Rh</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -17741,6 +19181,11 @@
       <c r="L393" t="n">
         <v>0</v>
       </c>
+      <c r="M393" t="inlineStr">
+        <is>
+          <t>La-O-Ru</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -17781,6 +19226,7 @@
       </c>
       <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr"/>
+      <c r="M394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -17827,6 +19273,11 @@
       <c r="L395" t="n">
         <v>2.8177</v>
       </c>
+      <c r="M395" t="inlineStr">
+        <is>
+          <t>La-O-Sc</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -17873,6 +19324,11 @@
       <c r="L396" t="n">
         <v>2.8177</v>
       </c>
+      <c r="M396" t="inlineStr">
+        <is>
+          <t>La-O-Sc</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -17919,6 +19375,11 @@
       <c r="L397" t="n">
         <v>0</v>
       </c>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t>La-O-Ta</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -17965,6 +19426,11 @@
       <c r="L398" t="n">
         <v>0</v>
       </c>
+      <c r="M398" t="inlineStr">
+        <is>
+          <t>La-O-Ti</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -18011,6 +19477,11 @@
       <c r="L399" t="n">
         <v>0</v>
       </c>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t>La-O-Ti</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -18051,6 +19522,7 @@
       </c>
       <c r="K400" t="inlineStr"/>
       <c r="L400" t="inlineStr"/>
+      <c r="M400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -18091,11 +19563,16 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>mp-19350</t>
+          <t>mp-19053</t>
         </is>
       </c>
       <c r="L401" t="n">
         <v>0</v>
+      </c>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>La-O-V</t>
+        </is>
       </c>
     </row>
     <row r="402">
@@ -18143,6 +19620,11 @@
       <c r="L402" t="n">
         <v>0</v>
       </c>
+      <c r="M402" t="inlineStr">
+        <is>
+          <t>La-O-Zn</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -18183,6 +19665,7 @@
       </c>
       <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr"/>
+      <c r="M403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -18229,6 +19712,11 @@
       <c r="L404" t="n">
         <v>0</v>
       </c>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>Li-O-Si</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -18269,6 +19757,7 @@
       </c>
       <c r="K405" t="inlineStr"/>
       <c r="L405" t="inlineStr"/>
+      <c r="M405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -18309,6 +19798,7 @@
       </c>
       <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr"/>
+      <c r="M406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -18349,6 +19839,7 @@
       </c>
       <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr"/>
+      <c r="M407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -18395,6 +19886,11 @@
       <c r="L408" t="n">
         <v>3.6479</v>
       </c>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t>Al-Lu-O</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -18441,6 +19937,11 @@
       <c r="L409" t="n">
         <v>3.1586</v>
       </c>
+      <c r="M409" t="inlineStr">
+        <is>
+          <t>Bi-Lu-O</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -18487,6 +19988,11 @@
       <c r="L410" t="n">
         <v>0</v>
       </c>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>Co-Lu-O</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -18533,6 +20039,11 @@
       <c r="L411" t="n">
         <v>2.2649</v>
       </c>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>Cr-Lu-O</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -18573,6 +20084,7 @@
       </c>
       <c r="K412" t="inlineStr"/>
       <c r="L412" t="inlineStr"/>
+      <c r="M412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -18619,6 +20131,11 @@
       <c r="L413" t="n">
         <v>0</v>
       </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>Fe-Lu-O</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -18659,11 +20176,16 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>mp-768505</t>
+          <t>mp-755792</t>
         </is>
       </c>
       <c r="L414" t="n">
-        <v>2.8828</v>
+        <v>3.6376</v>
+      </c>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>Ga-Lu-O</t>
+        </is>
       </c>
     </row>
     <row r="415">
@@ -18705,6 +20227,7 @@
       </c>
       <c r="K415" t="inlineStr"/>
       <c r="L415" t="inlineStr"/>
+      <c r="M415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -18745,6 +20268,7 @@
       </c>
       <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr"/>
+      <c r="M416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -18791,6 +20315,11 @@
       <c r="L417" t="n">
         <v>0</v>
       </c>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t>Lu-Mn-O</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -18831,6 +20360,7 @@
       </c>
       <c r="K418" t="inlineStr"/>
       <c r="L418" t="inlineStr"/>
+      <c r="M418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -18871,6 +20401,7 @@
       </c>
       <c r="K419" t="inlineStr"/>
       <c r="L419" t="inlineStr"/>
+      <c r="M419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -18917,6 +20448,11 @@
       <c r="L420" t="n">
         <v>0</v>
       </c>
+      <c r="M420" t="inlineStr">
+        <is>
+          <t>Lu-Ni-O</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -18963,6 +20499,11 @@
       <c r="L421" t="n">
         <v>0.04929999999999968</v>
       </c>
+      <c r="M421" t="inlineStr">
+        <is>
+          <t>Lu-Np-O</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -19009,6 +20550,11 @@
       <c r="L422" t="n">
         <v>0</v>
       </c>
+      <c r="M422" t="inlineStr">
+        <is>
+          <t>Lu-O-Pd</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -19049,6 +20595,7 @@
       </c>
       <c r="K423" t="inlineStr"/>
       <c r="L423" t="inlineStr"/>
+      <c r="M423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -19095,6 +20642,11 @@
       <c r="L424" t="n">
         <v>0</v>
       </c>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>Lu-O-Rh</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -19135,6 +20687,7 @@
       </c>
       <c r="K425" t="inlineStr"/>
       <c r="L425" t="inlineStr"/>
+      <c r="M425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -19175,6 +20728,7 @@
       </c>
       <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr"/>
+      <c r="M426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -19221,6 +20775,11 @@
       <c r="L427" t="n">
         <v>4.5878</v>
       </c>
+      <c r="M427" t="inlineStr">
+        <is>
+          <t>Lu-O-Sc</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -19261,6 +20820,7 @@
       </c>
       <c r="K428" t="inlineStr"/>
       <c r="L428" t="inlineStr"/>
+      <c r="M428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -19307,6 +20867,11 @@
       <c r="L429" t="n">
         <v>0</v>
       </c>
+      <c r="M429" t="inlineStr">
+        <is>
+          <t>Lu-O-Ti</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -19353,6 +20918,11 @@
       <c r="L430" t="n">
         <v>0</v>
       </c>
+      <c r="M430" t="inlineStr">
+        <is>
+          <t>Lu-O-U</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -19399,6 +20969,11 @@
       <c r="L431" t="n">
         <v>1.5725</v>
       </c>
+      <c r="M431" t="inlineStr">
+        <is>
+          <t>Lu-O-V</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -19445,6 +21020,11 @@
       <c r="L432" t="n">
         <v>0</v>
       </c>
+      <c r="M432" t="inlineStr">
+        <is>
+          <t>Al-Mg-O</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -19485,6 +21065,7 @@
       </c>
       <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr"/>
+      <c r="M433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -19525,6 +21106,7 @@
       </c>
       <c r="K434" t="inlineStr"/>
       <c r="L434" t="inlineStr"/>
+      <c r="M434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -19565,6 +21147,7 @@
       </c>
       <c r="K435" t="inlineStr"/>
       <c r="L435" t="inlineStr"/>
+      <c r="M435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -19605,6 +21188,7 @@
       </c>
       <c r="K436" t="inlineStr"/>
       <c r="L436" t="inlineStr"/>
+      <c r="M436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -19645,6 +21229,7 @@
       </c>
       <c r="K437" t="inlineStr"/>
       <c r="L437" t="inlineStr"/>
+      <c r="M437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -19685,6 +21270,7 @@
       </c>
       <c r="K438" t="inlineStr"/>
       <c r="L438" t="inlineStr"/>
+      <c r="M438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -19731,6 +21317,11 @@
       <c r="L439" t="n">
         <v>1.0964</v>
       </c>
+      <c r="M439" t="inlineStr">
+        <is>
+          <t>Bi-Na-O</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -19777,6 +21368,11 @@
       <c r="L440" t="n">
         <v>0</v>
       </c>
+      <c r="M440" t="inlineStr">
+        <is>
+          <t>Cr-Na-O</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -19817,6 +21413,7 @@
       </c>
       <c r="K441" t="inlineStr"/>
       <c r="L441" t="inlineStr"/>
+      <c r="M441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -19863,6 +21460,11 @@
       <c r="L442" t="n">
         <v>0</v>
       </c>
+      <c r="M442" t="inlineStr">
+        <is>
+          <t>Ir-Na-O</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -19903,6 +21505,7 @@
       </c>
       <c r="K443" t="inlineStr"/>
       <c r="L443" t="inlineStr"/>
+      <c r="M443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -19943,11 +21546,16 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>mp-998627</t>
+          <t>mp-1040471</t>
         </is>
       </c>
       <c r="L444" t="n">
         <v>0</v>
+      </c>
+      <c r="M444" t="inlineStr">
+        <is>
+          <t>Mo-Na-O</t>
+        </is>
       </c>
     </row>
     <row r="445">
@@ -19989,11 +21597,16 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>mp-558920</t>
+          <t>mp-4748</t>
         </is>
       </c>
       <c r="L445" t="n">
-        <v>2.4364</v>
+        <v>1.8238</v>
+      </c>
+      <c r="M445" t="inlineStr">
+        <is>
+          <t>Na-Nb-O</t>
+        </is>
       </c>
     </row>
     <row r="446">
@@ -20035,6 +21648,7 @@
       </c>
       <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr"/>
+      <c r="M446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -20081,6 +21695,11 @@
       <c r="L447" t="n">
         <v>0</v>
       </c>
+      <c r="M447" t="inlineStr">
+        <is>
+          <t>Na-O-Os</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -20121,6 +21740,7 @@
       </c>
       <c r="K448" t="inlineStr"/>
       <c r="L448" t="inlineStr"/>
+      <c r="M448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -20167,6 +21787,11 @@
       <c r="L449" t="n">
         <v>0</v>
       </c>
+      <c r="M449" t="inlineStr">
+        <is>
+          <t>Na-O-Pu</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -20213,6 +21838,11 @@
       <c r="L450" t="n">
         <v>0</v>
       </c>
+      <c r="M450" t="inlineStr">
+        <is>
+          <t>Na-O-Re</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -20253,6 +21883,7 @@
       </c>
       <c r="K451" t="inlineStr"/>
       <c r="L451" t="inlineStr"/>
+      <c r="M451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -20299,6 +21930,11 @@
       <c r="L452" t="n">
         <v>0</v>
       </c>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>Na-O-Ru</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -20339,11 +21975,16 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>mp-752755</t>
+          <t>mp-20011</t>
         </is>
       </c>
       <c r="L453" t="n">
-        <v>1.7037</v>
+        <v>1.4696</v>
+      </c>
+      <c r="M453" t="inlineStr">
+        <is>
+          <t>Na-O-Sb</t>
+        </is>
       </c>
     </row>
     <row r="454">
@@ -20385,6 +22026,7 @@
       </c>
       <c r="K454" t="inlineStr"/>
       <c r="L454" t="inlineStr"/>
+      <c r="M454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -20425,11 +22067,16 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>mp-4699</t>
+          <t>mp-754818</t>
         </is>
       </c>
       <c r="L455" t="n">
-        <v>2.5313</v>
+        <v>2.7139</v>
+      </c>
+      <c r="M455" t="inlineStr">
+        <is>
+          <t>Na-O-Ta</t>
+        </is>
       </c>
     </row>
     <row r="456">
@@ -20477,6 +22124,11 @@
       <c r="L456" t="n">
         <v>0</v>
       </c>
+      <c r="M456" t="inlineStr">
+        <is>
+          <t>Na-O-Tc</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -20523,6 +22175,11 @@
       <c r="L457" t="n">
         <v>0</v>
       </c>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t>Na-O-Ti</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -20569,6 +22226,11 @@
       <c r="L458" t="n">
         <v>0.3701999999999996</v>
       </c>
+      <c r="M458" t="inlineStr">
+        <is>
+          <t>Na-O-U</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -20609,11 +22271,16 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>mp-763901</t>
+          <t>mp-555665</t>
         </is>
       </c>
       <c r="L459" t="n">
-        <v>2.9798</v>
+        <v>3.0358</v>
+      </c>
+      <c r="M459" t="inlineStr">
+        <is>
+          <t>Na-O-V</t>
+        </is>
       </c>
     </row>
     <row r="460">
@@ -20661,6 +22328,11 @@
       <c r="L460" t="n">
         <v>0</v>
       </c>
+      <c r="M460" t="inlineStr">
+        <is>
+          <t>Na-O-W</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -20701,6 +22373,7 @@
       </c>
       <c r="K461" t="inlineStr"/>
       <c r="L461" t="inlineStr"/>
+      <c r="M461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -20741,11 +22414,16 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>mp-5899</t>
+          <t>mp-14254</t>
         </is>
       </c>
       <c r="L462" t="n">
-        <v>4.353999999999999</v>
+        <v>2.863600000000001</v>
+      </c>
+      <c r="M462" t="inlineStr">
+        <is>
+          <t>Al-Nd-O</t>
+        </is>
       </c>
     </row>
     <row r="463">
@@ -20793,6 +22471,11 @@
       <c r="L463" t="n">
         <v>0</v>
       </c>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>Bi-Nd-O</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -20839,6 +22522,11 @@
       <c r="L464" t="n">
         <v>0.7914000000000003</v>
       </c>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>Co-Nd-O</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -20885,6 +22573,11 @@
       <c r="L465" t="n">
         <v>1.904</v>
       </c>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>Cr-Nd-O</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -20931,6 +22624,11 @@
       <c r="L466" t="n">
         <v>0.1229999999999998</v>
       </c>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>Cu-Nd-O</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -20977,6 +22675,11 @@
       <c r="L467" t="n">
         <v>1.0842</v>
       </c>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t>Fe-Nd-O</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -21023,6 +22726,11 @@
       <c r="L468" t="n">
         <v>0</v>
       </c>
+      <c r="M468" t="inlineStr">
+        <is>
+          <t>Ga-Nd-O</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -21069,6 +22777,11 @@
       <c r="L469" t="n">
         <v>0</v>
       </c>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>Ge-Nd-O</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -21109,11 +22822,16 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>mp-1186316</t>
+          <t>mp-755138</t>
         </is>
       </c>
       <c r="L470" t="n">
-        <v>1.6468</v>
+        <v>2.6533</v>
+      </c>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t>In-Nd-O</t>
+        </is>
       </c>
     </row>
     <row r="471">
@@ -21155,6 +22873,7 @@
       </c>
       <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr"/>
+      <c r="M471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -21195,11 +22914,16 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>mp-1182197</t>
+          <t>mp-20852</t>
         </is>
       </c>
       <c r="L472" t="n">
-        <v>0</v>
+        <v>1.898</v>
+      </c>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t>Mn-Nd-O</t>
+        </is>
       </c>
     </row>
     <row r="473">
@@ -21241,6 +22965,7 @@
       </c>
       <c r="K473" t="inlineStr"/>
       <c r="L473" t="inlineStr"/>
+      <c r="M473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -21281,6 +23006,7 @@
       </c>
       <c r="K474" t="inlineStr"/>
       <c r="L474" t="inlineStr"/>
+      <c r="M474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -21327,6 +23053,11 @@
       <c r="L475" t="n">
         <v>0</v>
       </c>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>Nd-Ni-O</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -21373,6 +23104,11 @@
       <c r="L476" t="n">
         <v>0</v>
       </c>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t>Nd-Np-O</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -21413,6 +23149,7 @@
       </c>
       <c r="K477" t="inlineStr"/>
       <c r="L477" t="inlineStr"/>
+      <c r="M477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -21453,6 +23190,7 @@
       </c>
       <c r="K478" t="inlineStr"/>
       <c r="L478" t="inlineStr"/>
+      <c r="M478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -21493,6 +23231,7 @@
       </c>
       <c r="K479" t="inlineStr"/>
       <c r="L479" t="inlineStr"/>
+      <c r="M479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -21533,6 +23272,7 @@
       </c>
       <c r="K480" t="inlineStr"/>
       <c r="L480" t="inlineStr"/>
+      <c r="M480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -21579,6 +23319,11 @@
       <c r="L481" t="n">
         <v>0</v>
       </c>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>Nd-O-Re</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -21625,6 +23370,11 @@
       <c r="L482" t="n">
         <v>0.6487000000000007</v>
       </c>
+      <c r="M482" t="inlineStr">
+        <is>
+          <t>Nd-O-Rh</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -21665,6 +23415,7 @@
       </c>
       <c r="K483" t="inlineStr"/>
       <c r="L483" t="inlineStr"/>
+      <c r="M483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -21711,6 +23462,11 @@
       <c r="L484" t="n">
         <v>0</v>
       </c>
+      <c r="M484" t="inlineStr">
+        <is>
+          <t>Nd-O-Sb</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -21757,6 +23513,11 @@
       <c r="L485" t="n">
         <v>4.3025</v>
       </c>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t>Nd-O-Sc</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -21797,6 +23558,7 @@
       </c>
       <c r="K486" t="inlineStr"/>
       <c r="L486" t="inlineStr"/>
+      <c r="M486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -21843,6 +23605,11 @@
       <c r="L487" t="n">
         <v>0</v>
       </c>
+      <c r="M487" t="inlineStr">
+        <is>
+          <t>Nd-O-Ta</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -21883,6 +23650,7 @@
       </c>
       <c r="K488" t="inlineStr"/>
       <c r="L488" t="inlineStr"/>
+      <c r="M488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -21923,6 +23691,7 @@
       </c>
       <c r="K489" t="inlineStr"/>
       <c r="L489" t="inlineStr"/>
+      <c r="M489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -21969,6 +23738,11 @@
       <c r="L490" t="n">
         <v>0</v>
       </c>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>Nd-O-Ti</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -22009,6 +23783,7 @@
       </c>
       <c r="K491" t="inlineStr"/>
       <c r="L491" t="inlineStr"/>
+      <c r="M491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -22055,6 +23830,11 @@
       <c r="L492" t="n">
         <v>0</v>
       </c>
+      <c r="M492" t="inlineStr">
+        <is>
+          <t>Nd-O-V</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -22095,6 +23875,7 @@
       </c>
       <c r="K493" t="inlineStr"/>
       <c r="L493" t="inlineStr"/>
+      <c r="M493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -22141,6 +23922,11 @@
       <c r="L494" t="n">
         <v>0</v>
       </c>
+      <c r="M494" t="inlineStr">
+        <is>
+          <t>Nd-O-Zr</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -22181,11 +23967,16 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>mp-755569</t>
+          <t>mp-1178420</t>
         </is>
       </c>
       <c r="L495" t="n">
         <v>0</v>
+      </c>
+      <c r="M495" t="inlineStr">
+        <is>
+          <t>Co-O-Pb</t>
+        </is>
       </c>
     </row>
     <row r="496">
@@ -22233,6 +24024,11 @@
       <c r="L496" t="n">
         <v>0</v>
       </c>
+      <c r="M496" t="inlineStr">
+        <is>
+          <t>Cr-O-Pb</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -22279,6 +24075,11 @@
       <c r="L497" t="n">
         <v>0</v>
       </c>
+      <c r="M497" t="inlineStr">
+        <is>
+          <t>Cu-O-Pb</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -22325,6 +24126,11 @@
       <c r="L498" t="n">
         <v>0</v>
       </c>
+      <c r="M498" t="inlineStr">
+        <is>
+          <t>Fe-O-Pb</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -22371,6 +24177,11 @@
       <c r="L499" t="n">
         <v>0</v>
       </c>
+      <c r="M499" t="inlineStr">
+        <is>
+          <t>Ge-O-Pb</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -22411,6 +24222,7 @@
       </c>
       <c r="K500" t="inlineStr"/>
       <c r="L500" t="inlineStr"/>
+      <c r="M500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -22457,6 +24269,11 @@
       <c r="L501" t="n">
         <v>0</v>
       </c>
+      <c r="M501" t="inlineStr">
+        <is>
+          <t>Mg-O-Pb</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -22503,6 +24320,11 @@
       <c r="L502" t="n">
         <v>0</v>
       </c>
+      <c r="M502" t="inlineStr">
+        <is>
+          <t>Mn-O-Pb</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -22549,6 +24371,11 @@
       <c r="L503" t="n">
         <v>0</v>
       </c>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>Mo-O-Pb</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -22589,6 +24416,7 @@
       </c>
       <c r="K504" t="inlineStr"/>
       <c r="L504" t="inlineStr"/>
+      <c r="M504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -22629,11 +24457,16 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>mp-1078668</t>
+          <t>mp-974108</t>
         </is>
       </c>
       <c r="L505" t="n">
         <v>0</v>
+      </c>
+      <c r="M505" t="inlineStr">
+        <is>
+          <t>Ni-O-Pb</t>
+        </is>
       </c>
     </row>
     <row r="506">
@@ -22675,6 +24508,7 @@
       </c>
       <c r="K506" t="inlineStr"/>
       <c r="L506" t="inlineStr"/>
+      <c r="M506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -22721,6 +24555,11 @@
       <c r="L507" t="n">
         <v>0</v>
       </c>
+      <c r="M507" t="inlineStr">
+        <is>
+          <t>O-Os-Pb</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -22761,6 +24600,7 @@
       </c>
       <c r="K508" t="inlineStr"/>
       <c r="L508" t="inlineStr"/>
+      <c r="M508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -22801,6 +24641,7 @@
       </c>
       <c r="K509" t="inlineStr"/>
       <c r="L509" t="inlineStr"/>
+      <c r="M509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -22847,6 +24688,11 @@
       <c r="L510" t="n">
         <v>0</v>
       </c>
+      <c r="M510" t="inlineStr">
+        <is>
+          <t>O-Pb-Pu</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -22887,6 +24733,7 @@
       </c>
       <c r="K511" t="inlineStr"/>
       <c r="L511" t="inlineStr"/>
+      <c r="M511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -22927,6 +24774,7 @@
       </c>
       <c r="K512" t="inlineStr"/>
       <c r="L512" t="inlineStr"/>
+      <c r="M512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -22973,6 +24821,11 @@
       <c r="L513" t="n">
         <v>0</v>
       </c>
+      <c r="M513" t="inlineStr">
+        <is>
+          <t>O-Pb-Ru</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -23019,6 +24872,11 @@
       <c r="L514" t="n">
         <v>0</v>
       </c>
+      <c r="M514" t="inlineStr">
+        <is>
+          <t>O-Pb-Sn</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -23059,6 +24917,7 @@
       </c>
       <c r="K515" t="inlineStr"/>
       <c r="L515" t="inlineStr"/>
+      <c r="M515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -23105,6 +24964,11 @@
       <c r="L516" t="n">
         <v>0</v>
       </c>
+      <c r="M516" t="inlineStr">
+        <is>
+          <t>O-Pb-Tc</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -23151,6 +25015,11 @@
       <c r="L517" t="n">
         <v>2.9418</v>
       </c>
+      <c r="M517" t="inlineStr">
+        <is>
+          <t>O-Pb-Te</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -23191,11 +25060,16 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>mp-1106215</t>
+          <t>mp-20459</t>
         </is>
       </c>
       <c r="L518" t="n">
-        <v>2.316</v>
+        <v>1.813</v>
+      </c>
+      <c r="M518" t="inlineStr">
+        <is>
+          <t>O-Pb-Ti</t>
+        </is>
       </c>
     </row>
     <row r="519">
@@ -23237,6 +25111,7 @@
       </c>
       <c r="K519" t="inlineStr"/>
       <c r="L519" t="inlineStr"/>
+      <c r="M519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
@@ -23283,6 +25158,11 @@
       <c r="L520" t="n">
         <v>0</v>
       </c>
+      <c r="M520" t="inlineStr">
+        <is>
+          <t>O-Pb-V</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
@@ -23323,6 +25203,7 @@
       </c>
       <c r="K521" t="inlineStr"/>
       <c r="L521" t="inlineStr"/>
+      <c r="M521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
@@ -23369,6 +25250,11 @@
       <c r="L522" t="n">
         <v>0</v>
       </c>
+      <c r="M522" t="inlineStr">
+        <is>
+          <t>O-Pb-Zn</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -23415,6 +25301,11 @@
       <c r="L523" t="n">
         <v>2.6727</v>
       </c>
+      <c r="M523" t="inlineStr">
+        <is>
+          <t>O-Pb-Zr</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -23455,6 +25346,7 @@
       </c>
       <c r="K524" t="inlineStr"/>
       <c r="L524" t="inlineStr"/>
+      <c r="M524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -23495,6 +25387,7 @@
       </c>
       <c r="K525" t="inlineStr"/>
       <c r="L525" t="inlineStr"/>
+      <c r="M525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -23535,6 +25428,7 @@
       </c>
       <c r="K526" t="inlineStr"/>
       <c r="L526" t="inlineStr"/>
+      <c r="M526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
@@ -23575,6 +25469,7 @@
       </c>
       <c r="K527" t="inlineStr"/>
       <c r="L527" t="inlineStr"/>
+      <c r="M527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
@@ -23615,6 +25510,7 @@
       </c>
       <c r="K528" t="inlineStr"/>
       <c r="L528" t="inlineStr"/>
+      <c r="M528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
@@ -23655,6 +25551,7 @@
       </c>
       <c r="K529" t="inlineStr"/>
       <c r="L529" t="inlineStr"/>
+      <c r="M529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
@@ -23695,6 +25592,7 @@
       </c>
       <c r="K530" t="inlineStr"/>
       <c r="L530" t="inlineStr"/>
+      <c r="M530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -23741,6 +25639,11 @@
       <c r="L531" t="n">
         <v>4.1325</v>
       </c>
+      <c r="M531" t="inlineStr">
+        <is>
+          <t>Al-O-Pr</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
@@ -23787,6 +25690,11 @@
       <c r="L532" t="n">
         <v>0</v>
       </c>
+      <c r="M532" t="inlineStr">
+        <is>
+          <t>Bi-O-Pr</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -23833,6 +25741,11 @@
       <c r="L533" t="n">
         <v>0</v>
       </c>
+      <c r="M533" t="inlineStr">
+        <is>
+          <t>Co-O-Pr</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -23879,6 +25792,11 @@
       <c r="L534" t="n">
         <v>1.847</v>
       </c>
+      <c r="M534" t="inlineStr">
+        <is>
+          <t>Cr-O-Pr</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -23925,6 +25843,11 @@
       <c r="L535" t="n">
         <v>0</v>
       </c>
+      <c r="M535" t="inlineStr">
+        <is>
+          <t>Cu-O-Pr</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
@@ -23971,6 +25894,11 @@
       <c r="L536" t="n">
         <v>1.0793</v>
       </c>
+      <c r="M536" t="inlineStr">
+        <is>
+          <t>Fe-O-Pr</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -24017,6 +25945,11 @@
       <c r="L537" t="n">
         <v>0</v>
       </c>
+      <c r="M537" t="inlineStr">
+        <is>
+          <t>Ga-O-Pr</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
@@ -24063,6 +25996,11 @@
       <c r="L538" t="n">
         <v>0</v>
       </c>
+      <c r="M538" t="inlineStr">
+        <is>
+          <t>Ga-O-Pr</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
@@ -24103,6 +26041,7 @@
       </c>
       <c r="K539" t="inlineStr"/>
       <c r="L539" t="inlineStr"/>
+      <c r="M539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
@@ -24149,6 +26088,11 @@
       <c r="L540" t="n">
         <v>2.633599999999999</v>
       </c>
+      <c r="M540" t="inlineStr">
+        <is>
+          <t>In-O-Pr</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
@@ -24189,6 +26133,7 @@
       </c>
       <c r="K541" t="inlineStr"/>
       <c r="L541" t="inlineStr"/>
+      <c r="M541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
@@ -24229,6 +26174,7 @@
       </c>
       <c r="K542" t="inlineStr"/>
       <c r="L542" t="inlineStr"/>
+      <c r="M542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
@@ -24275,6 +26221,11 @@
       <c r="L543" t="n">
         <v>0</v>
       </c>
+      <c r="M543" t="inlineStr">
+        <is>
+          <t>Mn-O-Pr</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
@@ -24315,6 +26266,7 @@
       </c>
       <c r="K544" t="inlineStr"/>
       <c r="L544" t="inlineStr"/>
+      <c r="M544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
@@ -24361,6 +26313,11 @@
       <c r="L545" t="n">
         <v>0</v>
       </c>
+      <c r="M545" t="inlineStr">
+        <is>
+          <t>Nb-O-Pr</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
@@ -24407,6 +26364,11 @@
       <c r="L546" t="n">
         <v>0</v>
       </c>
+      <c r="M546" t="inlineStr">
+        <is>
+          <t>Ni-O-Pr</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
@@ -24447,6 +26409,7 @@
       </c>
       <c r="K547" t="inlineStr"/>
       <c r="L547" t="inlineStr"/>
+      <c r="M547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
@@ -24487,6 +26450,7 @@
       </c>
       <c r="K548" t="inlineStr"/>
       <c r="L548" t="inlineStr"/>
+      <c r="M548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
@@ -24527,6 +26491,7 @@
       </c>
       <c r="K549" t="inlineStr"/>
       <c r="L549" t="inlineStr"/>
+      <c r="M549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
@@ -24567,6 +26532,7 @@
       </c>
       <c r="K550" t="inlineStr"/>
       <c r="L550" t="inlineStr"/>
+      <c r="M550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -24613,6 +26579,11 @@
       <c r="L551" t="n">
         <v>0.6013000000000002</v>
       </c>
+      <c r="M551" t="inlineStr">
+        <is>
+          <t>O-Pr-Rh</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
@@ -24659,6 +26630,11 @@
       <c r="L552" t="n">
         <v>0</v>
       </c>
+      <c r="M552" t="inlineStr">
+        <is>
+          <t>O-Pr-Ru</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
@@ -24699,6 +26675,7 @@
       </c>
       <c r="K553" t="inlineStr"/>
       <c r="L553" t="inlineStr"/>
+      <c r="M553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
@@ -24745,6 +26722,11 @@
       <c r="L554" t="n">
         <v>4.2605</v>
       </c>
+      <c r="M554" t="inlineStr">
+        <is>
+          <t>O-Pr-Sc</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -24785,6 +26767,7 @@
       </c>
       <c r="K555" t="inlineStr"/>
       <c r="L555" t="inlineStr"/>
+      <c r="M555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -24831,6 +26814,11 @@
       <c r="L556" t="n">
         <v>0</v>
       </c>
+      <c r="M556" t="inlineStr">
+        <is>
+          <t>O-Pr-Ti</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
@@ -24871,6 +26859,7 @@
       </c>
       <c r="K557" t="inlineStr"/>
       <c r="L557" t="inlineStr"/>
+      <c r="M557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
@@ -24917,6 +26906,11 @@
       <c r="L558" t="n">
         <v>0</v>
       </c>
+      <c r="M558" t="inlineStr">
+        <is>
+          <t>O-Pr-V</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
@@ -24957,6 +26951,7 @@
       </c>
       <c r="K559" t="inlineStr"/>
       <c r="L559" t="inlineStr"/>
+      <c r="M559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
@@ -25003,6 +26998,11 @@
       <c r="L560" t="n">
         <v>0</v>
       </c>
+      <c r="M560" t="inlineStr">
+        <is>
+          <t>Bi-O-Rb</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
@@ -25049,6 +27049,11 @@
       <c r="L561" t="n">
         <v>0</v>
       </c>
+      <c r="M561" t="inlineStr">
+        <is>
+          <t>Cr-O-Rb</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
@@ -25095,6 +27100,11 @@
       <c r="L562" t="n">
         <v>0</v>
       </c>
+      <c r="M562" t="inlineStr">
+        <is>
+          <t>Ir-O-Rb</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
@@ -25141,6 +27151,11 @@
       <c r="L563" t="n">
         <v>0</v>
       </c>
+      <c r="M563" t="inlineStr">
+        <is>
+          <t>Mn-O-Rb</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
@@ -25187,6 +27202,11 @@
       <c r="L564" t="n">
         <v>0</v>
       </c>
+      <c r="M564" t="inlineStr">
+        <is>
+          <t>Mo-O-Rb</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
@@ -25233,6 +27253,11 @@
       <c r="L565" t="n">
         <v>2.8197</v>
       </c>
+      <c r="M565" t="inlineStr">
+        <is>
+          <t>Nb-O-Rb</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
@@ -25279,6 +27304,11 @@
       <c r="L566" t="n">
         <v>0</v>
       </c>
+      <c r="M566" t="inlineStr">
+        <is>
+          <t>Np-O-Rb</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
@@ -25325,6 +27355,11 @@
       <c r="L567" t="n">
         <v>0</v>
       </c>
+      <c r="M567" t="inlineStr">
+        <is>
+          <t>O-Os-Rb</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
@@ -25371,6 +27406,11 @@
       <c r="L568" t="n">
         <v>3.000999999999999</v>
       </c>
+      <c r="M568" t="inlineStr">
+        <is>
+          <t>O-Pa-Rb</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
@@ -25417,6 +27457,11 @@
       <c r="L569" t="n">
         <v>0</v>
       </c>
+      <c r="M569" t="inlineStr">
+        <is>
+          <t>O-Pt-Rb</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
@@ -25463,6 +27508,11 @@
       <c r="L570" t="n">
         <v>0</v>
       </c>
+      <c r="M570" t="inlineStr">
+        <is>
+          <t>O-Pu-Rb</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
@@ -25509,6 +27559,11 @@
       <c r="L571" t="n">
         <v>0</v>
       </c>
+      <c r="M571" t="inlineStr">
+        <is>
+          <t>O-Rb-Re</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
@@ -25555,6 +27610,11 @@
       <c r="L572" t="n">
         <v>0</v>
       </c>
+      <c r="M572" t="inlineStr">
+        <is>
+          <t>O-Rb-Rh</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -25601,6 +27661,11 @@
       <c r="L573" t="n">
         <v>0</v>
       </c>
+      <c r="M573" t="inlineStr">
+        <is>
+          <t>O-Rb-Ru</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
@@ -25647,6 +27712,11 @@
       <c r="L574" t="n">
         <v>0</v>
       </c>
+      <c r="M574" t="inlineStr">
+        <is>
+          <t>O-Rb-Sb</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
@@ -25687,11 +27757,16 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>mp-1076534</t>
+          <t>mp-3033</t>
         </is>
       </c>
       <c r="L575" t="n">
-        <v>2.0024</v>
+        <v>3.5412</v>
+      </c>
+      <c r="M575" t="inlineStr">
+        <is>
+          <t>O-Rb-Ta</t>
+        </is>
       </c>
     </row>
     <row r="576">
@@ -25733,6 +27808,7 @@
       </c>
       <c r="K576" t="inlineStr"/>
       <c r="L576" t="inlineStr"/>
+      <c r="M576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
@@ -25779,6 +27855,11 @@
       <c r="L577" t="n">
         <v>0.4542000000000002</v>
       </c>
+      <c r="M577" t="inlineStr">
+        <is>
+          <t>O-Rb-U</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
@@ -25825,6 +27906,11 @@
       <c r="L578" t="n">
         <v>0.2498</v>
       </c>
+      <c r="M578" t="inlineStr">
+        <is>
+          <t>O-Rb-V</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
@@ -25871,6 +27957,11 @@
       <c r="L579" t="n">
         <v>0</v>
       </c>
+      <c r="M579" t="inlineStr">
+        <is>
+          <t>O-Rb-W</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
@@ -25911,6 +28002,7 @@
       </c>
       <c r="K580" t="inlineStr"/>
       <c r="L580" t="inlineStr"/>
+      <c r="M580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
@@ -25951,6 +28043,7 @@
       </c>
       <c r="K581" t="inlineStr"/>
       <c r="L581" t="inlineStr"/>
+      <c r="M581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
@@ -25991,6 +28084,7 @@
       </c>
       <c r="K582" t="inlineStr"/>
       <c r="L582" t="inlineStr"/>
+      <c r="M582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
@@ -26031,6 +28125,7 @@
       </c>
       <c r="K583" t="inlineStr"/>
       <c r="L583" t="inlineStr"/>
+      <c r="M583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
@@ -26071,6 +28166,7 @@
       </c>
       <c r="K584" t="inlineStr"/>
       <c r="L584" t="inlineStr"/>
+      <c r="M584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
@@ -26111,6 +28207,7 @@
       </c>
       <c r="K585" t="inlineStr"/>
       <c r="L585" t="inlineStr"/>
+      <c r="M585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
@@ -26151,6 +28248,7 @@
       </c>
       <c r="K586" t="inlineStr"/>
       <c r="L586" t="inlineStr"/>
+      <c r="M586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
@@ -26197,6 +28295,11 @@
       <c r="L587" t="n">
         <v>4.591900000000001</v>
       </c>
+      <c r="M587" t="inlineStr">
+        <is>
+          <t>Al-O-Sc</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
@@ -26237,6 +28340,7 @@
       </c>
       <c r="K588" t="inlineStr"/>
       <c r="L588" t="inlineStr"/>
+      <c r="M588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
@@ -26283,6 +28387,11 @@
       <c r="L589" t="n">
         <v>0</v>
       </c>
+      <c r="M589" t="inlineStr">
+        <is>
+          <t>O-Sc-Si</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
@@ -26323,11 +28432,16 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>mp-1187025</t>
+          <t>mp-7405</t>
         </is>
       </c>
       <c r="L590" t="n">
-        <v>4.0771</v>
+        <v>4.861399999999999</v>
+      </c>
+      <c r="M590" t="inlineStr">
+        <is>
+          <t>Al-O-Sm</t>
+        </is>
       </c>
     </row>
     <row r="591">
@@ -26369,6 +28483,7 @@
       </c>
       <c r="K591" t="inlineStr"/>
       <c r="L591" t="inlineStr"/>
+      <c r="M591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
@@ -26415,6 +28530,11 @@
       <c r="L592" t="n">
         <v>0.8039000000000005</v>
       </c>
+      <c r="M592" t="inlineStr">
+        <is>
+          <t>Co-O-Sm</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
@@ -26461,6 +28581,11 @@
       <c r="L593" t="n">
         <v>2.4802</v>
       </c>
+      <c r="M593" t="inlineStr">
+        <is>
+          <t>Cr-O-Sm</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
@@ -26507,6 +28632,11 @@
       <c r="L594" t="n">
         <v>0</v>
       </c>
+      <c r="M594" t="inlineStr">
+        <is>
+          <t>Cu-O-Sm</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
@@ -26547,11 +28677,16 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>mp-1099588</t>
+          <t>mp-20243</t>
         </is>
       </c>
       <c r="L595" t="n">
-        <v>0.7234999999999996</v>
+        <v>1.0882</v>
+      </c>
+      <c r="M595" t="inlineStr">
+        <is>
+          <t>Fe-O-Sm</t>
+        </is>
       </c>
     </row>
     <row r="596">
@@ -26599,6 +28734,11 @@
       <c r="L596" t="n">
         <v>0</v>
       </c>
+      <c r="M596" t="inlineStr">
+        <is>
+          <t>Ge-O-Sm</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
@@ -26645,6 +28785,11 @@
       <c r="L597" t="n">
         <v>2.639699999999999</v>
       </c>
+      <c r="M597" t="inlineStr">
+        <is>
+          <t>In-O-Sm</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
@@ -26685,6 +28830,7 @@
       </c>
       <c r="K598" t="inlineStr"/>
       <c r="L598" t="inlineStr"/>
+      <c r="M598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
@@ -26725,11 +28871,16 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>mp-1075973</t>
+          <t>mp-22203</t>
         </is>
       </c>
       <c r="L599" t="n">
         <v>0</v>
+      </c>
+      <c r="M599" t="inlineStr">
+        <is>
+          <t>Mn-O-Sm</t>
+        </is>
       </c>
     </row>
     <row r="600">
@@ -26771,6 +28922,7 @@
       </c>
       <c r="K600" t="inlineStr"/>
       <c r="L600" t="inlineStr"/>
+      <c r="M600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
@@ -26811,6 +28963,7 @@
       </c>
       <c r="K601" t="inlineStr"/>
       <c r="L601" t="inlineStr"/>
+      <c r="M601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
@@ -26857,6 +29010,11 @@
       <c r="L602" t="n">
         <v>0</v>
       </c>
+      <c r="M602" t="inlineStr">
+        <is>
+          <t>Ni-O-Sm</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
@@ -26897,6 +29055,7 @@
       </c>
       <c r="K603" t="inlineStr"/>
       <c r="L603" t="inlineStr"/>
+      <c r="M603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
@@ -26937,6 +29096,7 @@
       </c>
       <c r="K604" t="inlineStr"/>
       <c r="L604" t="inlineStr"/>
+      <c r="M604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
@@ -26977,6 +29137,7 @@
       </c>
       <c r="K605" t="inlineStr"/>
       <c r="L605" t="inlineStr"/>
+      <c r="M605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
@@ -27017,6 +29178,7 @@
       </c>
       <c r="K606" t="inlineStr"/>
       <c r="L606" t="inlineStr"/>
+      <c r="M606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
@@ -27063,6 +29225,11 @@
       <c r="L607" t="n">
         <v>0</v>
       </c>
+      <c r="M607" t="inlineStr">
+        <is>
+          <t>O-Pu-Sm</t>
+        </is>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
@@ -27103,6 +29270,7 @@
       </c>
       <c r="K608" t="inlineStr"/>
       <c r="L608" t="inlineStr"/>
+      <c r="M608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
@@ -27149,6 +29317,11 @@
       <c r="L609" t="n">
         <v>0.7331000000000003</v>
       </c>
+      <c r="M609" t="inlineStr">
+        <is>
+          <t>O-Rh-Sm</t>
+        </is>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
@@ -27189,6 +29362,7 @@
       </c>
       <c r="K610" t="inlineStr"/>
       <c r="L610" t="inlineStr"/>
+      <c r="M610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
@@ -27235,6 +29409,11 @@
       <c r="L611" t="n">
         <v>0</v>
       </c>
+      <c r="M611" t="inlineStr">
+        <is>
+          <t>O-Sb-Sm</t>
+        </is>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
@@ -27281,6 +29460,11 @@
       <c r="L612" t="n">
         <v>4.366899999999999</v>
       </c>
+      <c r="M612" t="inlineStr">
+        <is>
+          <t>O-Sc-Sm</t>
+        </is>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
@@ -27321,6 +29505,7 @@
       </c>
       <c r="K613" t="inlineStr"/>
       <c r="L613" t="inlineStr"/>
+      <c r="M613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
@@ -27361,6 +29546,7 @@
       </c>
       <c r="K614" t="inlineStr"/>
       <c r="L614" t="inlineStr"/>
+      <c r="M614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
@@ -27401,6 +29587,7 @@
       </c>
       <c r="K615" t="inlineStr"/>
       <c r="L615" t="inlineStr"/>
+      <c r="M615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
@@ -27441,6 +29628,7 @@
       </c>
       <c r="K616" t="inlineStr"/>
       <c r="L616" t="inlineStr"/>
+      <c r="M616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
@@ -27487,6 +29675,11 @@
       <c r="L617" t="n">
         <v>0</v>
       </c>
+      <c r="M617" t="inlineStr">
+        <is>
+          <t>O-Sm-Ti</t>
+        </is>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
@@ -27527,6 +29720,7 @@
       </c>
       <c r="K618" t="inlineStr"/>
       <c r="L618" t="inlineStr"/>
+      <c r="M618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
@@ -27573,6 +29767,11 @@
       <c r="L619" t="n">
         <v>1.5136</v>
       </c>
+      <c r="M619" t="inlineStr">
+        <is>
+          <t>O-Sm-V</t>
+        </is>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
@@ -27613,6 +29812,7 @@
       </c>
       <c r="K620" t="inlineStr"/>
       <c r="L620" t="inlineStr"/>
+      <c r="M620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
@@ -27653,6 +29853,7 @@
       </c>
       <c r="K621" t="inlineStr"/>
       <c r="L621" t="inlineStr"/>
+      <c r="M621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
@@ -27699,6 +29900,11 @@
       <c r="L622" t="n">
         <v>0</v>
       </c>
+      <c r="M622" t="inlineStr">
+        <is>
+          <t>O-Sn-Ta</t>
+        </is>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
@@ -27745,6 +29951,11 @@
       <c r="L623" t="n">
         <v>0</v>
       </c>
+      <c r="M623" t="inlineStr">
+        <is>
+          <t>Ag-O-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
@@ -27791,6 +30002,11 @@
       <c r="L624" t="n">
         <v>0</v>
       </c>
+      <c r="M624" t="inlineStr">
+        <is>
+          <t>Al-O-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
@@ -27837,6 +30053,11 @@
       <c r="L625" t="n">
         <v>0</v>
       </c>
+      <c r="M625" t="inlineStr">
+        <is>
+          <t>Au-O-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
@@ -27883,6 +30104,11 @@
       <c r="L626" t="n">
         <v>0.3106</v>
       </c>
+      <c r="M626" t="inlineStr">
+        <is>
+          <t>Bi-O-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
@@ -27923,6 +30149,7 @@
       </c>
       <c r="K627" t="inlineStr"/>
       <c r="L627" t="inlineStr"/>
+      <c r="M627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
@@ -27963,11 +30190,16 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>mp-550781</t>
+          <t>mp-1272815</t>
         </is>
       </c>
       <c r="L628" t="n">
         <v>0</v>
+      </c>
+      <c r="M628" t="inlineStr">
+        <is>
+          <t>Co-O-Sr</t>
+        </is>
       </c>
     </row>
     <row r="629">
@@ -28009,11 +30241,16 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>mp-769855</t>
+          <t>mp-1372100</t>
         </is>
       </c>
       <c r="L629" t="n">
-        <v>0.6795</v>
+        <v>0</v>
+      </c>
+      <c r="M629" t="inlineStr">
+        <is>
+          <t>Cr-O-Sr</t>
+        </is>
       </c>
     </row>
     <row r="630">
@@ -28061,6 +30298,11 @@
       <c r="L630" t="n">
         <v>0</v>
       </c>
+      <c r="M630" t="inlineStr">
+        <is>
+          <t>Fe-O-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
@@ -28101,6 +30343,7 @@
       </c>
       <c r="K631" t="inlineStr"/>
       <c r="L631" t="inlineStr"/>
+      <c r="M631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
@@ -28147,6 +30390,11 @@
       <c r="L632" t="n">
         <v>3.5578</v>
       </c>
+      <c r="M632" t="inlineStr">
+        <is>
+          <t>Ge-O-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
@@ -28193,6 +30441,11 @@
       <c r="L633" t="n">
         <v>3.5578</v>
       </c>
+      <c r="M633" t="inlineStr">
+        <is>
+          <t>Ge-O-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
@@ -28239,6 +30492,11 @@
       <c r="L634" t="n">
         <v>4.0897</v>
       </c>
+      <c r="M634" t="inlineStr">
+        <is>
+          <t>Hf-O-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
@@ -28285,6 +30543,11 @@
       <c r="L635" t="n">
         <v>4.0897</v>
       </c>
+      <c r="M635" t="inlineStr">
+        <is>
+          <t>Hf-O-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
@@ -28331,6 +30594,11 @@
       <c r="L636" t="n">
         <v>0</v>
       </c>
+      <c r="M636" t="inlineStr">
+        <is>
+          <t>Hg-O-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
@@ -28377,6 +30645,11 @@
       <c r="L637" t="n">
         <v>0</v>
       </c>
+      <c r="M637" t="inlineStr">
+        <is>
+          <t>In-O-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
@@ -28417,11 +30690,16 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>mp-17097</t>
+          <t>mp-1016848</t>
         </is>
       </c>
       <c r="L638" t="n">
         <v>0</v>
+      </c>
+      <c r="M638" t="inlineStr">
+        <is>
+          <t>Ir-O-Sr</t>
+        </is>
       </c>
     </row>
     <row r="639">
@@ -28469,6 +30747,11 @@
       <c r="L639" t="n">
         <v>0.9515000000000002</v>
       </c>
+      <c r="M639" t="inlineStr">
+        <is>
+          <t>Mn-O-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
@@ -28515,6 +30798,11 @@
       <c r="L640" t="n">
         <v>0</v>
       </c>
+      <c r="M640" t="inlineStr">
+        <is>
+          <t>Mo-O-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
@@ -28561,6 +30849,11 @@
       <c r="L641" t="n">
         <v>0</v>
       </c>
+      <c r="M641" t="inlineStr">
+        <is>
+          <t>Mo-O-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
@@ -28607,6 +30900,11 @@
       <c r="L642" t="n">
         <v>0</v>
       </c>
+      <c r="M642" t="inlineStr">
+        <is>
+          <t>Nb-O-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
@@ -28653,6 +30951,11 @@
       <c r="L643" t="n">
         <v>0</v>
       </c>
+      <c r="M643" t="inlineStr">
+        <is>
+          <t>Nb-O-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
@@ -28693,11 +30996,16 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>mp-762506</t>
+          <t>mp-1101421</t>
         </is>
       </c>
       <c r="L644" t="n">
         <v>0</v>
+      </c>
+      <c r="M644" t="inlineStr">
+        <is>
+          <t>Ni-O-Sr</t>
+        </is>
       </c>
     </row>
     <row r="645">
@@ -28739,6 +31047,7 @@
       </c>
       <c r="K645" t="inlineStr"/>
       <c r="L645" t="inlineStr"/>
+      <c r="M645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
@@ -28785,6 +31094,11 @@
       <c r="L646" t="n">
         <v>0</v>
       </c>
+      <c r="M646" t="inlineStr">
+        <is>
+          <t>O-Os-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
@@ -28831,6 +31145,11 @@
       <c r="L647" t="n">
         <v>0.7941000000000003</v>
       </c>
+      <c r="M647" t="inlineStr">
+        <is>
+          <t>O-Pb-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
@@ -28877,6 +31196,11 @@
       <c r="L648" t="n">
         <v>0</v>
       </c>
+      <c r="M648" t="inlineStr">
+        <is>
+          <t>O-Pd-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
@@ -28923,6 +31247,11 @@
       <c r="L649" t="n">
         <v>0</v>
       </c>
+      <c r="M649" t="inlineStr">
+        <is>
+          <t>O-Pt-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
@@ -28969,6 +31298,11 @@
       <c r="L650" t="n">
         <v>0</v>
       </c>
+      <c r="M650" t="inlineStr">
+        <is>
+          <t>O-Pu-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
@@ -29015,6 +31349,11 @@
       <c r="L651" t="n">
         <v>0</v>
       </c>
+      <c r="M651" t="inlineStr">
+        <is>
+          <t>O-Re-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
@@ -29061,6 +31400,11 @@
       <c r="L652" t="n">
         <v>0</v>
       </c>
+      <c r="M652" t="inlineStr">
+        <is>
+          <t>O-Rh-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
@@ -29101,11 +31445,16 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>mp-22534</t>
+          <t>mp-1179112</t>
         </is>
       </c>
       <c r="L653" t="n">
         <v>0</v>
+      </c>
+      <c r="M653" t="inlineStr">
+        <is>
+          <t>O-Ru-Sr</t>
+        </is>
       </c>
     </row>
     <row r="654">
@@ -29153,6 +31502,11 @@
       <c r="L654" t="n">
         <v>0</v>
       </c>
+      <c r="M654" t="inlineStr">
+        <is>
+          <t>O-Sb-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
@@ -29199,6 +31553,11 @@
       <c r="L655" t="n">
         <v>0</v>
       </c>
+      <c r="M655" t="inlineStr">
+        <is>
+          <t>O-Sc-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
@@ -29245,6 +31604,11 @@
       <c r="L656" t="n">
         <v>4.6258</v>
       </c>
+      <c r="M656" t="inlineStr">
+        <is>
+          <t>O-Si-Sr</t>
+        </is>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
@@ -29285,11 +31649,16 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>mp-12867</t>
+          <t>mp-546973</t>
         </is>
       </c>
       <c r="L657" t="n">
-        <v>1.5555</v>
+        <v>0.9698000000000002</v>
+      </c>
+      <c r="M657" t="inlineStr">
+        <is>
+          <t>O-Sn-Sr</t>
+        </is>
       </c>
     </row>
     <row r="658">
@@ -29331,11 +31700,16 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>mp-12867</t>
+          <t>mp-546973</t>
         </is>
       </c>
       <c r="L658" t="n">
-        <v>1.5555</v>
+        <v>0.9698000000000002</v>
+      </c>
+      <c r="M658" t="inlineStr">
+        <is>
+          <t>O-Sn-Sr</t>
+        </is>
       </c>
     </row>
     <row r="659">
@@ -29383,6 +31757,11 @@
       <c r="L659" t="n">
         <v>0</v>
       </c>
+      <c r="M659" t="inlineStr">
+        <is>
+          <t>O-Sr-Ta</t>
+        </is>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
@@ -29429,6 +31808,11 @@
       <c r="L660" t="n">
         <v>0</v>
       </c>
+      <c r="M660" t="inlineStr">
+        <is>
+          <t>O-Sr-Tc</t>
+        </is>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
@@ -29469,11 +31853,16 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>mp-647158</t>
+          <t>mp-1179320</t>
         </is>
       </c>
       <c r="L661" t="n">
-        <v>3.3579</v>
+        <v>3.3726</v>
+      </c>
+      <c r="M661" t="inlineStr">
+        <is>
+          <t>O-Sr-Te</t>
+        </is>
       </c>
     </row>
     <row r="662">
@@ -29515,11 +31904,16 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>mp-551830</t>
+          <t>mp-776018</t>
         </is>
       </c>
       <c r="L662" t="n">
-        <v>1.786999999999999</v>
+        <v>1.7362</v>
+      </c>
+      <c r="M662" t="inlineStr">
+        <is>
+          <t>O-Sr-Ti</t>
+        </is>
       </c>
     </row>
     <row r="663">
@@ -29561,11 +31955,16 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>mp-551830</t>
+          <t>mp-776018</t>
         </is>
       </c>
       <c r="L663" t="n">
-        <v>1.786999999999999</v>
+        <v>1.7362</v>
+      </c>
+      <c r="M663" t="inlineStr">
+        <is>
+          <t>O-Sr-Ti</t>
+        </is>
       </c>
     </row>
     <row r="664">
@@ -29613,6 +32012,11 @@
       <c r="L664" t="n">
         <v>0</v>
       </c>
+      <c r="M664" t="inlineStr">
+        <is>
+          <t>O-Sr-Tl</t>
+        </is>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
@@ -29653,6 +32057,7 @@
       </c>
       <c r="K665" t="inlineStr"/>
       <c r="L665" t="inlineStr"/>
+      <c r="M665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
@@ -29699,6 +32104,11 @@
       <c r="L666" t="n">
         <v>0</v>
       </c>
+      <c r="M666" t="inlineStr">
+        <is>
+          <t>O-Sr-V</t>
+        </is>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
@@ -29745,6 +32155,11 @@
       <c r="L667" t="n">
         <v>0</v>
       </c>
+      <c r="M667" t="inlineStr">
+        <is>
+          <t>O-Sr-V</t>
+        </is>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
@@ -29791,6 +32206,11 @@
       <c r="L668" t="n">
         <v>0</v>
       </c>
+      <c r="M668" t="inlineStr">
+        <is>
+          <t>O-Sr-W</t>
+        </is>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
@@ -29831,6 +32251,7 @@
       </c>
       <c r="K669" t="inlineStr"/>
       <c r="L669" t="inlineStr"/>
+      <c r="M669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
@@ -29877,6 +32298,11 @@
       <c r="L670" t="n">
         <v>0</v>
       </c>
+      <c r="M670" t="inlineStr">
+        <is>
+          <t>O-Sr-Zn</t>
+        </is>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
@@ -29917,11 +32343,16 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>mp-613402</t>
+          <t>mp-3323</t>
         </is>
       </c>
       <c r="L671" t="n">
-        <v>0</v>
+        <v>3.214399999999999</v>
+      </c>
+      <c r="M671" t="inlineStr">
+        <is>
+          <t>O-Sr-Zr</t>
+        </is>
       </c>
     </row>
     <row r="672">
@@ -29963,11 +32394,16 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>mp-613402</t>
+          <t>mp-3323</t>
         </is>
       </c>
       <c r="L672" t="n">
-        <v>0</v>
+        <v>3.214399999999999</v>
+      </c>
+      <c r="M672" t="inlineStr">
+        <is>
+          <t>O-Sr-Zr</t>
+        </is>
       </c>
     </row>
     <row r="673">
@@ -30015,6 +32451,11 @@
       <c r="L673" t="n">
         <v>5.598200000000001</v>
       </c>
+      <c r="M673" t="inlineStr">
+        <is>
+          <t>Al-O-Tb</t>
+        </is>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
@@ -30055,6 +32496,7 @@
       </c>
       <c r="K674" t="inlineStr"/>
       <c r="L674" t="inlineStr"/>
+      <c r="M674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
@@ -30101,6 +32543,11 @@
       <c r="L675" t="n">
         <v>1.4209</v>
       </c>
+      <c r="M675" t="inlineStr">
+        <is>
+          <t>Co-O-Tb</t>
+        </is>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
@@ -30147,6 +32594,11 @@
       <c r="L676" t="n">
         <v>2.4854</v>
       </c>
+      <c r="M676" t="inlineStr">
+        <is>
+          <t>Cr-O-Tb</t>
+        </is>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
@@ -30193,6 +32645,11 @@
       <c r="L677" t="n">
         <v>0</v>
       </c>
+      <c r="M677" t="inlineStr">
+        <is>
+          <t>Cu-O-Tb</t>
+        </is>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
@@ -30239,6 +32696,11 @@
       <c r="L678" t="n">
         <v>1.3449</v>
       </c>
+      <c r="M678" t="inlineStr">
+        <is>
+          <t>Fe-O-Tb</t>
+        </is>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
@@ -30285,6 +32747,11 @@
       <c r="L679" t="n">
         <v>3.443</v>
       </c>
+      <c r="M679" t="inlineStr">
+        <is>
+          <t>Ga-O-Tb</t>
+        </is>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
@@ -30331,6 +32798,11 @@
       <c r="L680" t="n">
         <v>0</v>
       </c>
+      <c r="M680" t="inlineStr">
+        <is>
+          <t>Ge-O-Tb</t>
+        </is>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
@@ -30377,6 +32849,11 @@
       <c r="L681" t="n">
         <v>2.5935</v>
       </c>
+      <c r="M681" t="inlineStr">
+        <is>
+          <t>In-O-Tb</t>
+        </is>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
@@ -30417,6 +32894,7 @@
       </c>
       <c r="K682" t="inlineStr"/>
       <c r="L682" t="inlineStr"/>
+      <c r="M682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
@@ -30463,6 +32941,11 @@
       <c r="L683" t="n">
         <v>0</v>
       </c>
+      <c r="M683" t="inlineStr">
+        <is>
+          <t>Mg-O-Tb</t>
+        </is>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
@@ -30509,6 +32992,11 @@
       <c r="L684" t="n">
         <v>0.9344999999999999</v>
       </c>
+      <c r="M684" t="inlineStr">
+        <is>
+          <t>Mn-O-Tb</t>
+        </is>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
@@ -30549,6 +33037,7 @@
       </c>
       <c r="K685" t="inlineStr"/>
       <c r="L685" t="inlineStr"/>
+      <c r="M685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
@@ -30589,6 +33078,7 @@
       </c>
       <c r="K686" t="inlineStr"/>
       <c r="L686" t="inlineStr"/>
+      <c r="M686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
@@ -30635,6 +33125,11 @@
       <c r="L687" t="n">
         <v>0</v>
       </c>
+      <c r="M687" t="inlineStr">
+        <is>
+          <t>Ni-O-Tb</t>
+        </is>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
@@ -30675,6 +33170,7 @@
       </c>
       <c r="K688" t="inlineStr"/>
       <c r="L688" t="inlineStr"/>
+      <c r="M688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
@@ -30715,6 +33211,7 @@
       </c>
       <c r="K689" t="inlineStr"/>
       <c r="L689" t="inlineStr"/>
+      <c r="M689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
@@ -30755,6 +33252,7 @@
       </c>
       <c r="K690" t="inlineStr"/>
       <c r="L690" t="inlineStr"/>
+      <c r="M690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
@@ -30795,6 +33293,7 @@
       </c>
       <c r="K691" t="inlineStr"/>
       <c r="L691" t="inlineStr"/>
+      <c r="M691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
@@ -30841,6 +33340,11 @@
       <c r="L692" t="n">
         <v>0.7745999999999995</v>
       </c>
+      <c r="M692" t="inlineStr">
+        <is>
+          <t>O-Rh-Tb</t>
+        </is>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
@@ -30881,6 +33385,7 @@
       </c>
       <c r="K693" t="inlineStr"/>
       <c r="L693" t="inlineStr"/>
+      <c r="M693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
@@ -30921,6 +33426,7 @@
       </c>
       <c r="K694" t="inlineStr"/>
       <c r="L694" t="inlineStr"/>
+      <c r="M694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
@@ -30967,6 +33473,11 @@
       <c r="L695" t="n">
         <v>4.4378</v>
       </c>
+      <c r="M695" t="inlineStr">
+        <is>
+          <t>O-Sc-Tb</t>
+        </is>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
@@ -31007,6 +33518,7 @@
       </c>
       <c r="K696" t="inlineStr"/>
       <c r="L696" t="inlineStr"/>
+      <c r="M696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
@@ -31053,6 +33565,11 @@
       <c r="L697" t="n">
         <v>0</v>
       </c>
+      <c r="M697" t="inlineStr">
+        <is>
+          <t>O-Tb-Ti</t>
+        </is>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
@@ -31093,6 +33610,7 @@
       </c>
       <c r="K698" t="inlineStr"/>
       <c r="L698" t="inlineStr"/>
+      <c r="M698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
@@ -31133,11 +33651,16 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>mp-554811</t>
+          <t>mp-1187389</t>
         </is>
       </c>
       <c r="L699" t="n">
-        <v>1.4396</v>
+        <v>0</v>
+      </c>
+      <c r="M699" t="inlineStr">
+        <is>
+          <t>O-Tb-V</t>
+        </is>
       </c>
     </row>
     <row r="700">
@@ -31179,6 +33702,7 @@
       </c>
       <c r="K700" t="inlineStr"/>
       <c r="L700" t="inlineStr"/>
+      <c r="M700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
@@ -31219,6 +33743,7 @@
       </c>
       <c r="K701" t="inlineStr"/>
       <c r="L701" t="inlineStr"/>
+      <c r="M701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
@@ -31259,6 +33784,7 @@
       </c>
       <c r="K702" t="inlineStr"/>
       <c r="L702" t="inlineStr"/>
+      <c r="M702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
@@ -31305,6 +33831,11 @@
       <c r="L703" t="n">
         <v>0</v>
       </c>
+      <c r="M703" t="inlineStr">
+        <is>
+          <t>Cu-O-Th</t>
+        </is>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
@@ -31345,6 +33876,7 @@
       </c>
       <c r="K704" t="inlineStr"/>
       <c r="L704" t="inlineStr"/>
+      <c r="M704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
@@ -31385,6 +33917,7 @@
       </c>
       <c r="K705" t="inlineStr"/>
       <c r="L705" t="inlineStr"/>
+      <c r="M705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
@@ -31425,6 +33958,7 @@
       </c>
       <c r="K706" t="inlineStr"/>
       <c r="L706" t="inlineStr"/>
+      <c r="M706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
@@ -31465,6 +33999,7 @@
       </c>
       <c r="K707" t="inlineStr"/>
       <c r="L707" t="inlineStr"/>
+      <c r="M707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
@@ -31505,6 +34040,7 @@
       </c>
       <c r="K708" t="inlineStr"/>
       <c r="L708" t="inlineStr"/>
+      <c r="M708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
@@ -31545,6 +34081,7 @@
       </c>
       <c r="K709" t="inlineStr"/>
       <c r="L709" t="inlineStr"/>
+      <c r="M709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
@@ -31591,6 +34128,11 @@
       <c r="L710" t="n">
         <v>0</v>
       </c>
+      <c r="M710" t="inlineStr">
+        <is>
+          <t>O-Pd-Th</t>
+        </is>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
@@ -31631,6 +34173,7 @@
       </c>
       <c r="K711" t="inlineStr"/>
       <c r="L711" t="inlineStr"/>
+      <c r="M711" t="inlineStr"/>
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
@@ -31671,6 +34214,7 @@
       </c>
       <c r="K712" t="inlineStr"/>
       <c r="L712" t="inlineStr"/>
+      <c r="M712" t="inlineStr"/>
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
@@ -31711,6 +34255,7 @@
       </c>
       <c r="K713" t="inlineStr"/>
       <c r="L713" t="inlineStr"/>
+      <c r="M713" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
@@ -31751,6 +34296,7 @@
       </c>
       <c r="K714" t="inlineStr"/>
       <c r="L714" t="inlineStr"/>
+      <c r="M714" t="inlineStr"/>
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
@@ -31797,6 +34343,11 @@
       <c r="L715" t="n">
         <v>0.7376999999999994</v>
       </c>
+      <c r="M715" t="inlineStr">
+        <is>
+          <t>Al-O-Tl</t>
+        </is>
+      </c>
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
@@ -31837,6 +34388,7 @@
       </c>
       <c r="K716" t="inlineStr"/>
       <c r="L716" t="inlineStr"/>
+      <c r="M716" t="inlineStr"/>
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
@@ -31877,11 +34429,16 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>mp-770614</t>
+          <t>mp-756464</t>
         </is>
       </c>
       <c r="L717" t="n">
-        <v>0.1429999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="M717" t="inlineStr">
+        <is>
+          <t>Co-O-Tl</t>
+        </is>
       </c>
     </row>
     <row r="718">
@@ -31929,6 +34486,11 @@
       <c r="L718" t="n">
         <v>0.4346000000000005</v>
       </c>
+      <c r="M718" t="inlineStr">
+        <is>
+          <t>Cr-O-Tl</t>
+        </is>
+      </c>
     </row>
     <row r="719">
       <c r="A719" s="1" t="n">
@@ -31975,6 +34537,11 @@
       <c r="L719" t="n">
         <v>0</v>
       </c>
+      <c r="M719" t="inlineStr">
+        <is>
+          <t>Cu-O-Tl</t>
+        </is>
+      </c>
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
@@ -32021,6 +34588,11 @@
       <c r="L720" t="n">
         <v>0.2865000000000002</v>
       </c>
+      <c r="M720" t="inlineStr">
+        <is>
+          <t>Fe-O-Tl</t>
+        </is>
+      </c>
     </row>
     <row r="721">
       <c r="A721" s="1" t="n">
@@ -32067,6 +34639,11 @@
       <c r="L721" t="n">
         <v>0.2334000000000005</v>
       </c>
+      <c r="M721" t="inlineStr">
+        <is>
+          <t>Ga-O-Tl</t>
+        </is>
+      </c>
     </row>
     <row r="722">
       <c r="A722" s="1" t="n">
@@ -32107,6 +34684,7 @@
       </c>
       <c r="K722" t="inlineStr"/>
       <c r="L722" t="inlineStr"/>
+      <c r="M722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" s="1" t="n">
@@ -32147,6 +34725,7 @@
       </c>
       <c r="K723" t="inlineStr"/>
       <c r="L723" t="inlineStr"/>
+      <c r="M723" t="inlineStr"/>
     </row>
     <row r="724">
       <c r="A724" s="1" t="n">
@@ -32193,6 +34772,11 @@
       <c r="L724" t="n">
         <v>0</v>
       </c>
+      <c r="M724" t="inlineStr">
+        <is>
+          <t>Mn-O-Tl</t>
+        </is>
+      </c>
     </row>
     <row r="725">
       <c r="A725" s="1" t="n">
@@ -32233,6 +34817,7 @@
       </c>
       <c r="K725" t="inlineStr"/>
       <c r="L725" t="inlineStr"/>
+      <c r="M725" t="inlineStr"/>
     </row>
     <row r="726">
       <c r="A726" s="1" t="n">
@@ -32273,11 +34858,16 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>mp-1101462</t>
+          <t>mp-977408</t>
         </is>
       </c>
       <c r="L726" t="n">
-        <v>0.9465000000000003</v>
+        <v>0.1116000000000001</v>
+      </c>
+      <c r="M726" t="inlineStr">
+        <is>
+          <t>Nb-O-Tl</t>
+        </is>
       </c>
     </row>
     <row r="727">
@@ -32319,11 +34909,16 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>mp-18001</t>
+          <t>mp-998845</t>
         </is>
       </c>
       <c r="L727" t="n">
         <v>0</v>
+      </c>
+      <c r="M727" t="inlineStr">
+        <is>
+          <t>Ni-O-Tl</t>
+        </is>
       </c>
     </row>
     <row r="728">
@@ -32365,6 +34960,7 @@
       </c>
       <c r="K728" t="inlineStr"/>
       <c r="L728" t="inlineStr"/>
+      <c r="M728" t="inlineStr"/>
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
@@ -32405,6 +35001,7 @@
       </c>
       <c r="K729" t="inlineStr"/>
       <c r="L729" t="inlineStr"/>
+      <c r="M729" t="inlineStr"/>
     </row>
     <row r="730">
       <c r="A730" s="1" t="n">
@@ -32445,6 +35042,7 @@
       </c>
       <c r="K730" t="inlineStr"/>
       <c r="L730" t="inlineStr"/>
+      <c r="M730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" s="1" t="n">
@@ -32485,6 +35083,7 @@
       </c>
       <c r="K731" t="inlineStr"/>
       <c r="L731" t="inlineStr"/>
+      <c r="M731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" s="1" t="n">
@@ -32531,6 +35130,11 @@
       <c r="L732" t="n">
         <v>0</v>
       </c>
+      <c r="M732" t="inlineStr">
+        <is>
+          <t>O-Pu-Tl</t>
+        </is>
+      </c>
     </row>
     <row r="733">
       <c r="A733" s="1" t="n">
@@ -32571,6 +35175,7 @@
       </c>
       <c r="K733" t="inlineStr"/>
       <c r="L733" t="inlineStr"/>
+      <c r="M733" t="inlineStr"/>
     </row>
     <row r="734">
       <c r="A734" s="1" t="n">
@@ -32611,6 +35216,7 @@
       </c>
       <c r="K734" t="inlineStr"/>
       <c r="L734" t="inlineStr"/>
+      <c r="M734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" s="1" t="n">
@@ -32651,6 +35257,7 @@
       </c>
       <c r="K735" t="inlineStr"/>
       <c r="L735" t="inlineStr"/>
+      <c r="M735" t="inlineStr"/>
     </row>
     <row r="736">
       <c r="A736" s="1" t="n">
@@ -32697,6 +35304,11 @@
       <c r="L736" t="n">
         <v>2.4362</v>
       </c>
+      <c r="M736" t="inlineStr">
+        <is>
+          <t>O-Sb-Tl</t>
+        </is>
+      </c>
     </row>
     <row r="737">
       <c r="A737" s="1" t="n">
@@ -32743,6 +35355,11 @@
       <c r="L737" t="n">
         <v>0.9279999999999995</v>
       </c>
+      <c r="M737" t="inlineStr">
+        <is>
+          <t>O-Sc-Tl</t>
+        </is>
+      </c>
     </row>
     <row r="738">
       <c r="A738" s="1" t="n">
@@ -32789,6 +35406,11 @@
       <c r="L738" t="n">
         <v>0.8725999999999998</v>
       </c>
+      <c r="M738" t="inlineStr">
+        <is>
+          <t>O-Ta-Tl</t>
+        </is>
+      </c>
     </row>
     <row r="739">
       <c r="A739" s="1" t="n">
@@ -32835,6 +35457,11 @@
       <c r="L739" t="n">
         <v>0</v>
       </c>
+      <c r="M739" t="inlineStr">
+        <is>
+          <t>O-Tc-Tl</t>
+        </is>
+      </c>
     </row>
     <row r="740">
       <c r="A740" s="1" t="n">
@@ -32875,6 +35502,7 @@
       </c>
       <c r="K740" t="inlineStr"/>
       <c r="L740" t="inlineStr"/>
+      <c r="M740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" s="1" t="n">
@@ -32921,6 +35549,11 @@
       <c r="L741" t="n">
         <v>0.2736000000000001</v>
       </c>
+      <c r="M741" t="inlineStr">
+        <is>
+          <t>O-Tl-U</t>
+        </is>
+      </c>
     </row>
     <row r="742">
       <c r="A742" s="1" t="n">
@@ -32967,6 +35600,11 @@
       <c r="L742" t="n">
         <v>2.7792</v>
       </c>
+      <c r="M742" t="inlineStr">
+        <is>
+          <t>O-Tl-V</t>
+        </is>
+      </c>
     </row>
     <row r="743">
       <c r="A743" s="1" t="n">
@@ -33013,6 +35651,11 @@
       <c r="L743" t="n">
         <v>0</v>
       </c>
+      <c r="M743" t="inlineStr">
+        <is>
+          <t>O-Tl-W</t>
+        </is>
+      </c>
     </row>
     <row r="744">
       <c r="A744" s="1" t="n">
@@ -33053,11 +35696,16 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>mp-756281</t>
+          <t>mp-1101265</t>
         </is>
       </c>
       <c r="L744" t="n">
-        <v>5.7744</v>
+        <v>3.5534</v>
+      </c>
+      <c r="M744" t="inlineStr">
+        <is>
+          <t>Al-O-Tm</t>
+        </is>
       </c>
     </row>
     <row r="745">
@@ -33105,6 +35753,11 @@
       <c r="L745" t="n">
         <v>2.4418</v>
       </c>
+      <c r="M745" t="inlineStr">
+        <is>
+          <t>Bi-O-Tm</t>
+        </is>
+      </c>
     </row>
     <row r="746">
       <c r="A746" s="1" t="n">
@@ -33151,6 +35804,11 @@
       <c r="L746" t="n">
         <v>1.1886</v>
       </c>
+      <c r="M746" t="inlineStr">
+        <is>
+          <t>Co-O-Tm</t>
+        </is>
+      </c>
     </row>
     <row r="747">
       <c r="A747" s="1" t="n">
@@ -33191,11 +35849,16 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>mp-1187577</t>
+          <t>mp-777295</t>
         </is>
       </c>
       <c r="L747" t="n">
-        <v>1.9289</v>
+        <v>2.4448</v>
+      </c>
+      <c r="M747" t="inlineStr">
+        <is>
+          <t>Cr-O-Tm</t>
+        </is>
       </c>
     </row>
     <row r="748">
@@ -33237,6 +35900,7 @@
       </c>
       <c r="K748" t="inlineStr"/>
       <c r="L748" t="inlineStr"/>
+      <c r="M748" t="inlineStr"/>
     </row>
     <row r="749">
       <c r="A749" s="1" t="n">
@@ -33283,6 +35947,11 @@
       <c r="L749" t="n">
         <v>1.37</v>
       </c>
+      <c r="M749" t="inlineStr">
+        <is>
+          <t>Fe-O-Tm</t>
+        </is>
+      </c>
     </row>
     <row r="750">
       <c r="A750" s="1" t="n">
@@ -33329,6 +35998,11 @@
       <c r="L750" t="n">
         <v>0</v>
       </c>
+      <c r="M750" t="inlineStr">
+        <is>
+          <t>Ge-O-Tm</t>
+        </is>
+      </c>
     </row>
     <row r="751">
       <c r="A751" s="1" t="n">
@@ -33375,6 +36049,11 @@
       <c r="L751" t="n">
         <v>2.5259</v>
       </c>
+      <c r="M751" t="inlineStr">
+        <is>
+          <t>In-O-Tm</t>
+        </is>
+      </c>
     </row>
     <row r="752">
       <c r="A752" s="1" t="n">
@@ -33415,6 +36094,7 @@
       </c>
       <c r="K752" t="inlineStr"/>
       <c r="L752" t="inlineStr"/>
+      <c r="M752" t="inlineStr"/>
     </row>
     <row r="753">
       <c r="A753" s="1" t="n">
@@ -33455,11 +36135,16 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
-          <t>mp-554211</t>
+          <t>mp-554270</t>
         </is>
       </c>
       <c r="L753" t="n">
-        <v>0</v>
+        <v>0.3708</v>
+      </c>
+      <c r="M753" t="inlineStr">
+        <is>
+          <t>Mn-O-Tm</t>
+        </is>
       </c>
     </row>
     <row r="754">
@@ -33501,6 +36186,7 @@
       </c>
       <c r="K754" t="inlineStr"/>
       <c r="L754" t="inlineStr"/>
+      <c r="M754" t="inlineStr"/>
     </row>
     <row r="755">
       <c r="A755" s="1" t="n">
@@ -33541,6 +36227,7 @@
       </c>
       <c r="K755" t="inlineStr"/>
       <c r="L755" t="inlineStr"/>
+      <c r="M755" t="inlineStr"/>
     </row>
     <row r="756">
       <c r="A756" s="1" t="n">
@@ -33587,6 +36274,11 @@
       <c r="L756" t="n">
         <v>0</v>
       </c>
+      <c r="M756" t="inlineStr">
+        <is>
+          <t>Ni-O-Tm</t>
+        </is>
+      </c>
     </row>
     <row r="757">
       <c r="A757" s="1" t="n">
@@ -33627,6 +36319,7 @@
       </c>
       <c r="K757" t="inlineStr"/>
       <c r="L757" t="inlineStr"/>
+      <c r="M757" t="inlineStr"/>
     </row>
     <row r="758">
       <c r="A758" s="1" t="n">
@@ -33667,6 +36360,7 @@
       </c>
       <c r="K758" t="inlineStr"/>
       <c r="L758" t="inlineStr"/>
+      <c r="M758" t="inlineStr"/>
     </row>
     <row r="759">
       <c r="A759" s="1" t="n">
@@ -33707,6 +36401,7 @@
       </c>
       <c r="K759" t="inlineStr"/>
       <c r="L759" t="inlineStr"/>
+      <c r="M759" t="inlineStr"/>
     </row>
     <row r="760">
       <c r="A760" s="1" t="n">
@@ -33747,6 +36442,7 @@
       </c>
       <c r="K760" t="inlineStr"/>
       <c r="L760" t="inlineStr"/>
+      <c r="M760" t="inlineStr"/>
     </row>
     <row r="761">
       <c r="A761" s="1" t="n">
@@ -33787,6 +36483,7 @@
       </c>
       <c r="K761" t="inlineStr"/>
       <c r="L761" t="inlineStr"/>
+      <c r="M761" t="inlineStr"/>
     </row>
     <row r="762">
       <c r="A762" s="1" t="n">
@@ -33827,6 +36524,7 @@
       </c>
       <c r="K762" t="inlineStr"/>
       <c r="L762" t="inlineStr"/>
+      <c r="M762" t="inlineStr"/>
     </row>
     <row r="763">
       <c r="A763" s="1" t="n">
@@ -33873,6 +36571,11 @@
       <c r="L763" t="n">
         <v>0.9564999999999992</v>
       </c>
+      <c r="M763" t="inlineStr">
+        <is>
+          <t>O-Rh-Tm</t>
+        </is>
+      </c>
     </row>
     <row r="764">
       <c r="A764" s="1" t="n">
@@ -33913,6 +36616,7 @@
       </c>
       <c r="K764" t="inlineStr"/>
       <c r="L764" t="inlineStr"/>
+      <c r="M764" t="inlineStr"/>
     </row>
     <row r="765">
       <c r="A765" s="1" t="n">
@@ -33953,6 +36657,7 @@
       </c>
       <c r="K765" t="inlineStr"/>
       <c r="L765" t="inlineStr"/>
+      <c r="M765" t="inlineStr"/>
     </row>
     <row r="766">
       <c r="A766" s="1" t="n">
@@ -33999,6 +36704,11 @@
       <c r="L766" t="n">
         <v>4.4531</v>
       </c>
+      <c r="M766" t="inlineStr">
+        <is>
+          <t>O-Sc-Tm</t>
+        </is>
+      </c>
     </row>
     <row r="767">
       <c r="A767" s="1" t="n">
@@ -34039,6 +36749,7 @@
       </c>
       <c r="K767" t="inlineStr"/>
       <c r="L767" t="inlineStr"/>
+      <c r="M767" t="inlineStr"/>
     </row>
     <row r="768">
       <c r="A768" s="1" t="n">
@@ -34079,6 +36790,7 @@
       </c>
       <c r="K768" t="inlineStr"/>
       <c r="L768" t="inlineStr"/>
+      <c r="M768" t="inlineStr"/>
     </row>
     <row r="769">
       <c r="A769" s="1" t="n">
@@ -34119,6 +36831,7 @@
       </c>
       <c r="K769" t="inlineStr"/>
       <c r="L769" t="inlineStr"/>
+      <c r="M769" t="inlineStr"/>
     </row>
     <row r="770">
       <c r="A770" s="1" t="n">
@@ -34159,6 +36872,7 @@
       </c>
       <c r="K770" t="inlineStr"/>
       <c r="L770" t="inlineStr"/>
+      <c r="M770" t="inlineStr"/>
     </row>
     <row r="771">
       <c r="A771" s="1" t="n">
@@ -34205,6 +36919,11 @@
       <c r="L771" t="n">
         <v>0</v>
       </c>
+      <c r="M771" t="inlineStr">
+        <is>
+          <t>O-Ti-Tm</t>
+        </is>
+      </c>
     </row>
     <row r="772">
       <c r="A772" s="1" t="n">
@@ -34245,6 +36964,7 @@
       </c>
       <c r="K772" t="inlineStr"/>
       <c r="L772" t="inlineStr"/>
+      <c r="M772" t="inlineStr"/>
     </row>
     <row r="773">
       <c r="A773" s="1" t="n">
@@ -34291,6 +37011,11 @@
       <c r="L773" t="n">
         <v>0</v>
       </c>
+      <c r="M773" t="inlineStr">
+        <is>
+          <t>O-Tm-V</t>
+        </is>
+      </c>
     </row>
     <row r="774">
       <c r="A774" s="1" t="n">
@@ -34331,6 +37056,7 @@
       </c>
       <c r="K774" t="inlineStr"/>
       <c r="L774" t="inlineStr"/>
+      <c r="M774" t="inlineStr"/>
     </row>
     <row r="775">
       <c r="A775" s="1" t="n">
@@ -34371,11 +37097,16 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>mp-7964</t>
+          <t>mp-756214</t>
         </is>
       </c>
       <c r="L775" t="n">
-        <v>3.4965</v>
+        <v>4.958600000000001</v>
+      </c>
+      <c r="M775" t="inlineStr">
+        <is>
+          <t>Al-O-Y</t>
+        </is>
       </c>
     </row>
     <row r="776">
@@ -34417,11 +37148,16 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>mp-7964</t>
+          <t>mp-756214</t>
         </is>
       </c>
       <c r="L776" t="n">
-        <v>3.4965</v>
+        <v>4.958600000000001</v>
+      </c>
+      <c r="M776" t="inlineStr">
+        <is>
+          <t>Al-O-Y</t>
+        </is>
       </c>
     </row>
     <row r="777">
@@ -34463,11 +37199,16 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>mp-758371</t>
+          <t>mp-1188667</t>
         </is>
       </c>
       <c r="L777" t="n">
         <v>0</v>
+      </c>
+      <c r="M777" t="inlineStr">
+        <is>
+          <t>Al-O-Yb</t>
+        </is>
       </c>
     </row>
     <row r="778">
@@ -34509,11 +37250,16 @@
       </c>
       <c r="K778" t="inlineStr">
         <is>
-          <t>mp-676312</t>
+          <t>mp-937870</t>
         </is>
       </c>
       <c r="L778" t="n">
-        <v>0.3571</v>
+        <v>0</v>
+      </c>
+      <c r="M778" t="inlineStr">
+        <is>
+          <t>Bi-O-Yb</t>
+        </is>
       </c>
     </row>
     <row r="779">
@@ -34561,6 +37307,11 @@
       <c r="L779" t="n">
         <v>0</v>
       </c>
+      <c r="M779" t="inlineStr">
+        <is>
+          <t>Co-O-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="780">
       <c r="A780" s="1" t="n">
@@ -34607,6 +37358,11 @@
       <c r="L780" t="n">
         <v>0</v>
       </c>
+      <c r="M780" t="inlineStr">
+        <is>
+          <t>Cr-O-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="781">
       <c r="A781" s="1" t="n">
@@ -34653,6 +37409,11 @@
       <c r="L781" t="n">
         <v>0</v>
       </c>
+      <c r="M781" t="inlineStr">
+        <is>
+          <t>Cu-O-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="782">
       <c r="A782" s="1" t="n">
@@ -34699,6 +37460,11 @@
       <c r="L782" t="n">
         <v>0</v>
       </c>
+      <c r="M782" t="inlineStr">
+        <is>
+          <t>Fe-O-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="783">
       <c r="A783" s="1" t="n">
@@ -34745,6 +37511,11 @@
       <c r="L783" t="n">
         <v>1.0157</v>
       </c>
+      <c r="M783" t="inlineStr">
+        <is>
+          <t>Ge-O-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="784">
       <c r="A784" s="1" t="n">
@@ -34791,6 +37562,11 @@
       <c r="L784" t="n">
         <v>0</v>
       </c>
+      <c r="M784" t="inlineStr">
+        <is>
+          <t>In-O-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="785">
       <c r="A785" s="1" t="n">
@@ -34837,6 +37613,11 @@
       <c r="L785" t="n">
         <v>0</v>
       </c>
+      <c r="M785" t="inlineStr">
+        <is>
+          <t>Bi-O-Y</t>
+        </is>
+      </c>
     </row>
     <row r="786">
       <c r="A786" s="1" t="n">
@@ -34877,6 +37658,7 @@
       </c>
       <c r="K786" t="inlineStr"/>
       <c r="L786" t="inlineStr"/>
+      <c r="M786" t="inlineStr"/>
     </row>
     <row r="787">
       <c r="A787" s="1" t="n">
@@ -34923,6 +37705,11 @@
       <c r="L787" t="n">
         <v>0</v>
       </c>
+      <c r="M787" t="inlineStr">
+        <is>
+          <t>Mn-O-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="788">
       <c r="A788" s="1" t="n">
@@ -34963,6 +37750,7 @@
       </c>
       <c r="K788" t="inlineStr"/>
       <c r="L788" t="inlineStr"/>
+      <c r="M788" t="inlineStr"/>
     </row>
     <row r="789">
       <c r="A789" s="1" t="n">
@@ -35009,6 +37797,11 @@
       <c r="L789" t="n">
         <v>0</v>
       </c>
+      <c r="M789" t="inlineStr">
+        <is>
+          <t>Nb-O-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="790">
       <c r="A790" s="1" t="n">
@@ -35055,6 +37848,11 @@
       <c r="L790" t="n">
         <v>0</v>
       </c>
+      <c r="M790" t="inlineStr">
+        <is>
+          <t>Ni-O-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="791">
       <c r="A791" s="1" t="n">
@@ -35095,6 +37893,7 @@
       </c>
       <c r="K791" t="inlineStr"/>
       <c r="L791" t="inlineStr"/>
+      <c r="M791" t="inlineStr"/>
     </row>
     <row r="792">
       <c r="A792" s="1" t="n">
@@ -35135,6 +37934,7 @@
       </c>
       <c r="K792" t="inlineStr"/>
       <c r="L792" t="inlineStr"/>
+      <c r="M792" t="inlineStr"/>
     </row>
     <row r="793">
       <c r="A793" s="1" t="n">
@@ -35181,6 +37981,11 @@
       <c r="L793" t="n">
         <v>0</v>
       </c>
+      <c r="M793" t="inlineStr">
+        <is>
+          <t>O-Pd-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="794">
       <c r="A794" s="1" t="n">
@@ -35227,6 +38032,11 @@
       <c r="L794" t="n">
         <v>0</v>
       </c>
+      <c r="M794" t="inlineStr">
+        <is>
+          <t>O-Pt-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="795">
       <c r="A795" s="1" t="n">
@@ -35273,6 +38083,11 @@
       <c r="L795" t="n">
         <v>0</v>
       </c>
+      <c r="M795" t="inlineStr">
+        <is>
+          <t>O-Pu-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="796">
       <c r="A796" s="1" t="n">
@@ -35319,6 +38134,11 @@
       <c r="L796" t="n">
         <v>0</v>
       </c>
+      <c r="M796" t="inlineStr">
+        <is>
+          <t>O-Re-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="797">
       <c r="A797" s="1" t="n">
@@ -35365,6 +38185,11 @@
       <c r="L797" t="n">
         <v>0</v>
       </c>
+      <c r="M797" t="inlineStr">
+        <is>
+          <t>O-Rh-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="798">
       <c r="A798" s="1" t="n">
@@ -35405,6 +38230,7 @@
       </c>
       <c r="K798" t="inlineStr"/>
       <c r="L798" t="inlineStr"/>
+      <c r="M798" t="inlineStr"/>
     </row>
     <row r="799">
       <c r="A799" s="1" t="n">
@@ -35445,6 +38271,7 @@
       </c>
       <c r="K799" t="inlineStr"/>
       <c r="L799" t="inlineStr"/>
+      <c r="M799" t="inlineStr"/>
     </row>
     <row r="800">
       <c r="A800" s="1" t="n">
@@ -35491,6 +38318,11 @@
       <c r="L800" t="n">
         <v>0</v>
       </c>
+      <c r="M800" t="inlineStr">
+        <is>
+          <t>O-Sc-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="801">
       <c r="A801" s="1" t="n">
@@ -35537,6 +38369,11 @@
       <c r="L801" t="n">
         <v>1.7075</v>
       </c>
+      <c r="M801" t="inlineStr">
+        <is>
+          <t>O-Sn-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="802">
       <c r="A802" s="1" t="n">
@@ -35583,6 +38420,11 @@
       <c r="L802" t="n">
         <v>0</v>
       </c>
+      <c r="M802" t="inlineStr">
+        <is>
+          <t>O-Ta-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="803">
       <c r="A803" s="1" t="n">
@@ -35629,6 +38471,11 @@
       <c r="L803" t="n">
         <v>0</v>
       </c>
+      <c r="M803" t="inlineStr">
+        <is>
+          <t>O-Tc-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="804">
       <c r="A804" s="1" t="n">
@@ -35669,6 +38516,7 @@
       </c>
       <c r="K804" t="inlineStr"/>
       <c r="L804" t="inlineStr"/>
+      <c r="M804" t="inlineStr"/>
     </row>
     <row r="805">
       <c r="A805" s="1" t="n">
@@ -35715,6 +38563,11 @@
       <c r="L805" t="n">
         <v>1.8975</v>
       </c>
+      <c r="M805" t="inlineStr">
+        <is>
+          <t>O-Ti-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="806">
       <c r="A806" s="1" t="n">
@@ -35755,6 +38608,7 @@
       </c>
       <c r="K806" t="inlineStr"/>
       <c r="L806" t="inlineStr"/>
+      <c r="M806" t="inlineStr"/>
     </row>
     <row r="807">
       <c r="A807" s="1" t="n">
@@ -35801,6 +38655,11 @@
       <c r="L807" t="n">
         <v>0.448</v>
       </c>
+      <c r="M807" t="inlineStr">
+        <is>
+          <t>O-V-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="808">
       <c r="A808" s="1" t="n">
@@ -35847,6 +38706,11 @@
       <c r="L808" t="n">
         <v>0</v>
       </c>
+      <c r="M808" t="inlineStr">
+        <is>
+          <t>O-W-Yb</t>
+        </is>
+      </c>
     </row>
     <row r="809">
       <c r="A809" s="1" t="n">
@@ -35887,6 +38751,7 @@
       </c>
       <c r="K809" t="inlineStr"/>
       <c r="L809" t="inlineStr"/>
+      <c r="M809" t="inlineStr"/>
     </row>
     <row r="810">
       <c r="A810" s="1" t="n">
@@ -35927,11 +38792,16 @@
       </c>
       <c r="K810" t="inlineStr">
         <is>
-          <t>mp-1330514</t>
+          <t>mp-22668</t>
         </is>
       </c>
       <c r="L810" t="n">
-        <v>0.007299999999999862</v>
+        <v>0</v>
+      </c>
+      <c r="M810" t="inlineStr">
+        <is>
+          <t>Co-O-Y</t>
+        </is>
       </c>
     </row>
     <row r="811">
@@ -35979,6 +38849,11 @@
       <c r="L811" t="n">
         <v>1.3989</v>
       </c>
+      <c r="M811" t="inlineStr">
+        <is>
+          <t>Cr-O-Y</t>
+        </is>
+      </c>
     </row>
     <row r="812">
       <c r="A812" s="1" t="n">
@@ -36019,11 +38894,16 @@
       </c>
       <c r="K812" t="inlineStr">
         <is>
-          <t>mp-1333124</t>
+          <t>mp-1340758</t>
         </is>
       </c>
       <c r="L812" t="n">
-        <v>0.005599999999999827</v>
+        <v>0</v>
+      </c>
+      <c r="M812" t="inlineStr">
+        <is>
+          <t>Cu-O-Y</t>
+        </is>
       </c>
     </row>
     <row r="813">
@@ -36065,11 +38945,16 @@
       </c>
       <c r="K813" t="inlineStr">
         <is>
-          <t>mp-1275986</t>
+          <t>mp-1376289</t>
         </is>
       </c>
       <c r="L813" t="n">
-        <v>0</v>
+        <v>1.3141</v>
+      </c>
+      <c r="M813" t="inlineStr">
+        <is>
+          <t>Fe-O-Y</t>
+        </is>
       </c>
     </row>
     <row r="814">
@@ -36117,6 +39002,11 @@
       <c r="L814" t="n">
         <v>2.9043</v>
       </c>
+      <c r="M814" t="inlineStr">
+        <is>
+          <t>Ga-O-Y</t>
+        </is>
+      </c>
     </row>
     <row r="815">
       <c r="A815" s="1" t="n">
@@ -36163,6 +39053,11 @@
       <c r="L815" t="n">
         <v>2.051699999999999</v>
       </c>
+      <c r="M815" t="inlineStr">
+        <is>
+          <t>In-O-Y</t>
+        </is>
+      </c>
     </row>
     <row r="816">
       <c r="A816" s="1" t="n">
@@ -36203,6 +39098,7 @@
       </c>
       <c r="K816" t="inlineStr"/>
       <c r="L816" t="inlineStr"/>
+      <c r="M816" t="inlineStr"/>
     </row>
     <row r="817">
       <c r="A817" s="1" t="n">
@@ -36249,6 +39145,11 @@
       <c r="L817" t="n">
         <v>0</v>
       </c>
+      <c r="M817" t="inlineStr">
+        <is>
+          <t>Mn-O-Y</t>
+        </is>
+      </c>
     </row>
     <row r="818">
       <c r="A818" s="1" t="n">
@@ -36295,6 +39196,11 @@
       <c r="L818" t="n">
         <v>0</v>
       </c>
+      <c r="M818" t="inlineStr">
+        <is>
+          <t>Mo-O-Y</t>
+        </is>
+      </c>
     </row>
     <row r="819">
       <c r="A819" s="1" t="n">
@@ -36335,6 +39241,7 @@
       </c>
       <c r="K819" t="inlineStr"/>
       <c r="L819" t="inlineStr"/>
+      <c r="M819" t="inlineStr"/>
     </row>
     <row r="820">
       <c r="A820" s="1" t="n">
@@ -36381,6 +39288,11 @@
       <c r="L820" t="n">
         <v>0</v>
       </c>
+      <c r="M820" t="inlineStr">
+        <is>
+          <t>Ni-O-Y</t>
+        </is>
+      </c>
     </row>
     <row r="821">
       <c r="A821" s="1" t="n">
@@ -36421,6 +39333,7 @@
       </c>
       <c r="K821" t="inlineStr"/>
       <c r="L821" t="inlineStr"/>
+      <c r="M821" t="inlineStr"/>
     </row>
     <row r="822">
       <c r="A822" s="1" t="n">
@@ -36461,6 +39374,7 @@
       </c>
       <c r="K822" t="inlineStr"/>
       <c r="L822" t="inlineStr"/>
+      <c r="M822" t="inlineStr"/>
     </row>
     <row r="823">
       <c r="A823" s="1" t="n">
@@ -36501,6 +39415,7 @@
       </c>
       <c r="K823" t="inlineStr"/>
       <c r="L823" t="inlineStr"/>
+      <c r="M823" t="inlineStr"/>
     </row>
     <row r="824">
       <c r="A824" s="1" t="n">
@@ -36547,6 +39462,11 @@
       <c r="L824" t="n">
         <v>0.8142000000000005</v>
       </c>
+      <c r="M824" t="inlineStr">
+        <is>
+          <t>O-Rh-Y</t>
+        </is>
+      </c>
     </row>
     <row r="825">
       <c r="A825" s="1" t="n">
@@ -36587,6 +39507,7 @@
       </c>
       <c r="K825" t="inlineStr"/>
       <c r="L825" t="inlineStr"/>
+      <c r="M825" t="inlineStr"/>
     </row>
     <row r="826">
       <c r="A826" s="1" t="n">
@@ -36633,6 +39554,11 @@
       <c r="L826" t="n">
         <v>1.4299</v>
       </c>
+      <c r="M826" t="inlineStr">
+        <is>
+          <t>O-Sb-Y</t>
+        </is>
+      </c>
     </row>
     <row r="827">
       <c r="A827" s="1" t="n">
@@ -36679,6 +39605,11 @@
       <c r="L827" t="n">
         <v>2.8464</v>
       </c>
+      <c r="M827" t="inlineStr">
+        <is>
+          <t>O-Sc-Y</t>
+        </is>
+      </c>
     </row>
     <row r="828">
       <c r="A828" s="1" t="n">
@@ -36719,6 +39650,7 @@
       </c>
       <c r="K828" t="inlineStr"/>
       <c r="L828" t="inlineStr"/>
+      <c r="M828" t="inlineStr"/>
     </row>
     <row r="829">
       <c r="A829" s="1" t="n">
@@ -36765,6 +39697,11 @@
       <c r="L829" t="n">
         <v>0</v>
       </c>
+      <c r="M829" t="inlineStr">
+        <is>
+          <t>O-Ti-Y</t>
+        </is>
+      </c>
     </row>
     <row r="830">
       <c r="A830" s="1" t="n">
@@ -36805,6 +39742,7 @@
       </c>
       <c r="K830" t="inlineStr"/>
       <c r="L830" t="inlineStr"/>
+      <c r="M830" t="inlineStr"/>
     </row>
     <row r="831">
       <c r="A831" s="1" t="n">
@@ -36851,6 +39789,11 @@
       <c r="L831" t="n">
         <v>1.1014</v>
       </c>
+      <c r="M831" t="inlineStr">
+        <is>
+          <t>O-V-Y</t>
+        </is>
+      </c>
     </row>
     <row r="832">
       <c r="A832" s="1" t="n">
@@ -36891,6 +39834,7 @@
       </c>
       <c r="K832" t="inlineStr"/>
       <c r="L832" t="inlineStr"/>
+      <c r="M832" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -534,16 +534,14 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>mp-1343327</t>
+          <t>mp-1418444</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.04809999999999981</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Ag-Al-O</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.2536764345833333</v>
       </c>
     </row>
     <row r="3">
@@ -591,10 +589,8 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Ag-Bi-O</t>
-        </is>
+      <c r="M3" t="n">
+        <v>-1.015759758583334</v>
       </c>
     </row>
     <row r="4">
@@ -636,16 +632,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>mp-1273356</t>
+          <t>mp-753992</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Ag-Co-O</t>
-        </is>
+      <c r="M4" t="n">
+        <v>-0.7389644645833329</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +769,8 @@
       <c r="L7" t="n">
         <v>0</v>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Ag-Fe-O</t>
-        </is>
+      <c r="M7" t="n">
+        <v>-0.6978621085833332</v>
       </c>
     </row>
     <row r="8">
@@ -826,10 +818,8 @@
       <c r="L8" t="n">
         <v>0</v>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Ag-Ge-O</t>
-        </is>
+      <c r="M8" t="n">
+        <v>-1.338699884583333</v>
       </c>
     </row>
     <row r="9">
@@ -959,10 +949,8 @@
       <c r="L11" t="n">
         <v>0</v>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Ag-Mn-O</t>
-        </is>
+      <c r="M11" t="n">
+        <v>-1.191274094169541</v>
       </c>
     </row>
     <row r="12">
@@ -1051,10 +1039,8 @@
       <c r="L13" t="n">
         <v>1.3336</v>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Ag-Nb-O</t>
-        </is>
+      <c r="M13" t="n">
+        <v>-2.150619638583333</v>
       </c>
     </row>
     <row r="14">
@@ -1102,10 +1088,8 @@
       <c r="L14" t="n">
         <v>1.3336</v>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Ag-Nb-O</t>
-        </is>
+      <c r="M14" t="n">
+        <v>-2.150619638583333</v>
       </c>
     </row>
     <row r="15">
@@ -1276,10 +1260,8 @@
       <c r="L18" t="n">
         <v>0</v>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Ag-O-Pd</t>
-        </is>
+      <c r="M18" t="n">
+        <v>-0.1771124145833333</v>
       </c>
     </row>
     <row r="19">
@@ -1491,10 +1473,8 @@
       <c r="L23" t="n">
         <v>0</v>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Ag-O-Ru</t>
-        </is>
+      <c r="M23" t="n">
+        <v>-0.9966882935833332</v>
       </c>
     </row>
     <row r="24">
@@ -1542,10 +1522,8 @@
       <c r="L24" t="n">
         <v>0.1332999999999998</v>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Ag-O-Sb</t>
-        </is>
+      <c r="M24" t="n">
+        <v>-1.430551221583334</v>
       </c>
     </row>
     <row r="25">
@@ -1593,10 +1571,8 @@
       <c r="L25" t="n">
         <v>0.3612</v>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Ag-O-Sc</t>
-        </is>
+      <c r="M25" t="n">
+        <v>-2.113820559583334</v>
       </c>
     </row>
     <row r="26">
@@ -1644,10 +1620,8 @@
       <c r="L26" t="n">
         <v>0</v>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Ag-O-Sn</t>
-        </is>
+      <c r="M26" t="n">
+        <v>-1.352687644583333</v>
       </c>
     </row>
     <row r="27">
@@ -1695,10 +1669,8 @@
       <c r="L27" t="n">
         <v>1.7306</v>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Ag-O-Ta</t>
-        </is>
+      <c r="M27" t="n">
+        <v>-2.396953650583333</v>
       </c>
     </row>
     <row r="28">
@@ -1787,10 +1759,8 @@
       <c r="L29" t="n">
         <v>1.3614</v>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Ag-O-Te</t>
-        </is>
+      <c r="M29" t="n">
+        <v>-1.149264978416667</v>
       </c>
     </row>
     <row r="30">
@@ -1914,16 +1884,14 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>mp-624691</t>
+          <t>mp-1178815</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.6463</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Ag-O-V</t>
-        </is>
+        <v>1.9488</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-1.746094415083333</v>
       </c>
     </row>
     <row r="33">
@@ -2053,10 +2021,8 @@
       <c r="L35" t="n">
         <v>5.8392</v>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Al-B-O</t>
-        </is>
+      <c r="M35" t="n">
+        <v>-3.119121233083334</v>
       </c>
     </row>
     <row r="36">
@@ -2104,10 +2070,8 @@
       <c r="L36" t="n">
         <v>1.7659</v>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>Al-O-Rh</t>
-        </is>
+      <c r="M36" t="n">
+        <v>-2.22377191225</v>
       </c>
     </row>
     <row r="37">
@@ -2196,10 +2160,8 @@
       <c r="L38" t="n">
         <v>0</v>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Al-Ba-O</t>
-        </is>
+      <c r="M38" t="n">
+        <v>-2.896165627250001</v>
       </c>
     </row>
     <row r="39">
@@ -2247,10 +2209,8 @@
       <c r="L39" t="n">
         <v>0</v>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Au-Ba-O</t>
-        </is>
+      <c r="M39" t="n">
+        <v>-1.465447327250001</v>
       </c>
     </row>
     <row r="40">
@@ -2298,10 +2258,8 @@
       <c r="L40" t="n">
         <v>1.1031</v>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Ba-Bi-O</t>
-        </is>
+      <c r="M40" t="n">
+        <v>-1.60090061025</v>
       </c>
     </row>
     <row r="41">
@@ -2349,10 +2307,8 @@
       <c r="L41" t="n">
         <v>0</v>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Ba-Cd-O</t>
-        </is>
+      <c r="M41" t="n">
+        <v>-1.64588256125</v>
       </c>
     </row>
     <row r="42">
@@ -2394,16 +2350,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>mp-3316</t>
+          <t>mp-5663</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.2112</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Ba-Ce-O</t>
-        </is>
+        <v>2.299</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-3.551038376250001</v>
       </c>
     </row>
     <row r="43">
@@ -2451,10 +2405,8 @@
       <c r="L43" t="n">
         <v>0</v>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Ba-Co-O</t>
-        </is>
+      <c r="M43" t="n">
+        <v>-1.83141590425</v>
       </c>
     </row>
     <row r="44">
@@ -2502,10 +2454,8 @@
       <c r="L44" t="n">
         <v>0</v>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Ba-Cr-O</t>
-        </is>
+      <c r="M44" t="n">
+        <v>-2.32622828025</v>
       </c>
     </row>
     <row r="45">
@@ -2553,10 +2503,8 @@
       <c r="L45" t="n">
         <v>0</v>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Ba-Cu-O</t>
-        </is>
+      <c r="M45" t="n">
+        <v>-1.66392946725</v>
       </c>
     </row>
     <row r="46">
@@ -2598,16 +2546,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>mp-19035</t>
+          <t>mp-1192651</t>
         </is>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Ba-Fe-O</t>
-        </is>
+      <c r="M46" t="n">
+        <v>-2.151044506583332</v>
       </c>
     </row>
     <row r="47">
@@ -2696,10 +2642,8 @@
       <c r="L48" t="n">
         <v>3.5519</v>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Ba-Ge-O</t>
-        </is>
+      <c r="M48" t="n">
+        <v>-2.696764587749999</v>
       </c>
     </row>
     <row r="49">
@@ -2747,10 +2691,8 @@
       <c r="L49" t="n">
         <v>3.5394</v>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Ba-Hf-O</t>
-        </is>
+      <c r="M49" t="n">
+        <v>-3.787478027250001</v>
       </c>
     </row>
     <row r="50">
@@ -2798,10 +2740,8 @@
       <c r="L50" t="n">
         <v>3.5394</v>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Ba-Hf-O</t>
-        </is>
+      <c r="M50" t="n">
+        <v>-3.787478027250001</v>
       </c>
     </row>
     <row r="51">
@@ -2890,10 +2830,8 @@
       <c r="L52" t="n">
         <v>0</v>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Ba-In-O</t>
-        </is>
+      <c r="M52" t="n">
+        <v>-2.14424957125</v>
       </c>
     </row>
     <row r="53">
@@ -2941,10 +2879,8 @@
       <c r="L53" t="n">
         <v>0</v>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Ba-Ir-O</t>
-        </is>
+      <c r="M53" t="n">
+        <v>-1.976701378250001</v>
       </c>
     </row>
     <row r="54">
@@ -2992,10 +2928,8 @@
       <c r="L54" t="n">
         <v>0</v>
       </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Ba-Ir-O</t>
-        </is>
+      <c r="M54" t="n">
+        <v>-1.976701378250001</v>
       </c>
     </row>
     <row r="55">
@@ -3037,16 +2971,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>mp-675227</t>
+          <t>mp-757501</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>0.8679000000000001</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Ba-Mn-O</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-2.464671521836207</v>
       </c>
     </row>
     <row r="56">
@@ -3094,10 +3026,8 @@
       <c r="L56" t="n">
         <v>0</v>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>Ba-Mo-O</t>
-        </is>
+      <c r="M56" t="n">
+        <v>-2.51755947125</v>
       </c>
     </row>
     <row r="57">
@@ -3145,10 +3075,8 @@
       <c r="L57" t="n">
         <v>0</v>
       </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>Ba-Nb-O</t>
-        </is>
+      <c r="M57" t="n">
+        <v>-3.17951793725</v>
       </c>
     </row>
     <row r="58">
@@ -3196,10 +3124,8 @@
       <c r="L58" t="n">
         <v>0</v>
       </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>Ba-Nb-O</t>
-        </is>
+      <c r="M58" t="n">
+        <v>-3.17951793725</v>
       </c>
     </row>
     <row r="59">
@@ -3247,10 +3173,8 @@
       <c r="L59" t="n">
         <v>0</v>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>Ba-Ni-O</t>
-        </is>
+      <c r="M59" t="n">
+        <v>-1.69651357525</v>
       </c>
     </row>
     <row r="60">
@@ -3298,10 +3222,8 @@
       <c r="L60" t="n">
         <v>0</v>
       </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Ba-Np-O</t>
-        </is>
+      <c r="M60" t="n">
+        <v>-3.377697039</v>
       </c>
     </row>
     <row r="61">
@@ -3349,10 +3271,8 @@
       <c r="L61" t="n">
         <v>0</v>
       </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>Ba-O-Os</t>
-        </is>
+      <c r="M61" t="n">
+        <v>-2.03981065725</v>
       </c>
     </row>
     <row r="62">
@@ -3394,16 +3314,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>mp-561598</t>
+          <t>mp-20991</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>Ba-O-Pb</t>
-        </is>
+        <v>0.02729999999999988</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-2.10677212225</v>
       </c>
     </row>
     <row r="63">
@@ -3451,10 +3369,8 @@
       <c r="L63" t="n">
         <v>0</v>
       </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>Ba-O-Pd</t>
-        </is>
+      <c r="M63" t="n">
+        <v>-1.68605443725</v>
       </c>
     </row>
     <row r="64">
@@ -3502,10 +3418,8 @@
       <c r="L64" t="n">
         <v>0</v>
       </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>Ba-O-Pr</t>
-        </is>
+      <c r="M64" t="n">
+        <v>-2.97859396875</v>
       </c>
     </row>
     <row r="65">
@@ -3553,10 +3467,8 @@
       <c r="L65" t="n">
         <v>0.4158999999999997</v>
       </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>Ba-O-Pt</t>
-        </is>
+      <c r="M65" t="n">
+        <v>-1.807747396392857</v>
       </c>
     </row>
     <row r="66">
@@ -3604,10 +3516,8 @@
       <c r="L66" t="n">
         <v>0</v>
       </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>Ba-O-Re</t>
-        </is>
+      <c r="M66" t="n">
+        <v>-2.37260022825</v>
       </c>
     </row>
     <row r="67">
@@ -3655,10 +3565,8 @@
       <c r="L67" t="n">
         <v>0</v>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>Ba-O-Rh</t>
-        </is>
+      <c r="M67" t="n">
+        <v>-1.99803564675</v>
       </c>
     </row>
     <row r="68">
@@ -3700,16 +3608,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>mp-5773</t>
+          <t>mp-3597</t>
         </is>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>Ba-O-Ru</t>
-        </is>
+      <c r="M68" t="n">
+        <v>-2.182365054249999</v>
       </c>
     </row>
     <row r="69">
@@ -3798,10 +3704,8 @@
       <c r="L70" t="n">
         <v>0</v>
       </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>Ba-O-Sc</t>
-        </is>
+      <c r="M70" t="n">
+        <v>-3.207874408249999</v>
       </c>
     </row>
     <row r="71">
@@ -3843,16 +3747,14 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>mp-3163</t>
+          <t>mp-1178513</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>0.3723999999999998</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>Ba-O-Sn</t>
-        </is>
+        <v>0.6650999999999998</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-2.587585625250001</v>
       </c>
     </row>
     <row r="72">
@@ -3894,16 +3796,14 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>mp-3163</t>
+          <t>mp-1178513</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>0.3723999999999998</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>Ba-O-Sn</t>
-        </is>
+        <v>0.6650999999999998</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-2.587585625250001</v>
       </c>
     </row>
     <row r="73">
@@ -3951,10 +3851,8 @@
       <c r="L73" t="n">
         <v>0</v>
       </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>Ba-O-Ta</t>
-        </is>
+      <c r="M73" t="n">
+        <v>-3.271684453250001</v>
       </c>
     </row>
     <row r="74">
@@ -3996,16 +3894,14 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>mp-5735</t>
+          <t>mp-1182811</t>
         </is>
       </c>
       <c r="L74" t="n">
         <v>0</v>
       </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>Ba-O-Tb</t>
-        </is>
+      <c r="M74" t="n">
+        <v>-3.11040996225</v>
       </c>
     </row>
     <row r="75">
@@ -4053,10 +3949,8 @@
       <c r="L75" t="n">
         <v>0</v>
       </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>Ba-O-Tc</t>
-        </is>
+      <c r="M75" t="n">
+        <v>-2.467128417583334</v>
       </c>
     </row>
     <row r="76">
@@ -4104,10 +3998,8 @@
       <c r="L76" t="n">
         <v>3.0703</v>
       </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>Ba-O-Te</t>
-        </is>
+      <c r="M76" t="n">
+        <v>-2.348481260916667</v>
       </c>
     </row>
     <row r="77">
@@ -4155,10 +4047,8 @@
       <c r="L77" t="n">
         <v>3.2033</v>
       </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>Ba-O-Th</t>
-        </is>
+      <c r="M77" t="n">
+        <v>-3.692453227250001</v>
       </c>
     </row>
     <row r="78">
@@ -4200,16 +4090,14 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>mp-5777</t>
+          <t>mp-504715</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.293</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>Ba-O-Ti</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-0.4155492659166669</v>
       </c>
     </row>
     <row r="79">
@@ -4251,16 +4139,14 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>mp-5777</t>
+          <t>mp-504715</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.293</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>Ba-O-Ti</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-0.4155492659166669</v>
       </c>
     </row>
     <row r="80">
@@ -4302,16 +4188,14 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>mp-5777</t>
+          <t>mp-504715</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.293</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>Ba-O-Ti</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-0.4155492659166669</v>
       </c>
     </row>
     <row r="81">
@@ -4359,10 +4243,8 @@
       <c r="L81" t="n">
         <v>0</v>
       </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>Ba-O-Tl</t>
-        </is>
+      <c r="M81" t="n">
+        <v>-1.700948533916667</v>
       </c>
     </row>
     <row r="82">
@@ -4410,10 +4292,8 @@
       <c r="L82" t="n">
         <v>0</v>
       </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>Ba-O-U</t>
-        </is>
+      <c r="M82" t="n">
+        <v>-3.487223581250001</v>
       </c>
     </row>
     <row r="83">
@@ -4461,10 +4341,8 @@
       <c r="L83" t="n">
         <v>0</v>
       </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>Ba-O-V</t>
-        </is>
+      <c r="M83" t="n">
+        <v>-2.791236119250001</v>
       </c>
     </row>
     <row r="84">
@@ -4512,10 +4390,8 @@
       <c r="L84" t="n">
         <v>0</v>
       </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>Ba-O-V</t>
-        </is>
+      <c r="M84" t="n">
+        <v>-2.791236119250001</v>
       </c>
     </row>
     <row r="85">
@@ -4563,10 +4439,8 @@
       <c r="L85" t="n">
         <v>0</v>
       </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>Ba-O-W</t>
-        </is>
+      <c r="M85" t="n">
+        <v>-2.464523669250001</v>
       </c>
     </row>
     <row r="86">
@@ -4655,10 +4529,8 @@
       <c r="L87" t="n">
         <v>0</v>
       </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>Ba-O-Zn</t>
-        </is>
+      <c r="M87" t="n">
+        <v>-1.84494449125</v>
       </c>
     </row>
     <row r="88">
@@ -4706,10 +4578,8 @@
       <c r="L88" t="n">
         <v>3.0377</v>
       </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>Ba-O-Zr</t>
-        </is>
+      <c r="M88" t="n">
+        <v>-3.63993234525</v>
       </c>
     </row>
     <row r="89">
@@ -4757,10 +4627,8 @@
       <c r="L89" t="n">
         <v>3.0377</v>
       </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>Ba-O-Zr</t>
-        </is>
+      <c r="M89" t="n">
+        <v>-3.63993234525</v>
       </c>
     </row>
     <row r="90">
@@ -4966,16 +4834,14 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>mp-1368304</t>
+          <t>mp-1399298</t>
         </is>
       </c>
       <c r="L94" t="n">
         <v>0</v>
       </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>Ca-Co-O</t>
-        </is>
+      <c r="M94" t="n">
+        <v>-1.564142794249999</v>
       </c>
     </row>
     <row r="95">
@@ -5023,10 +4889,8 @@
       <c r="L95" t="n">
         <v>0.4069000000000003</v>
       </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>Ca-Cr-O</t>
-        </is>
+      <c r="M95" t="n">
+        <v>-2.619043356749999</v>
       </c>
     </row>
     <row r="96">
@@ -5074,10 +4938,8 @@
       <c r="L96" t="n">
         <v>0</v>
       </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>Ca-Cu-O</t>
-        </is>
+      <c r="M96" t="n">
+        <v>-1.70121123725</v>
       </c>
     </row>
     <row r="97">
@@ -5119,16 +4981,14 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>mp-1272846</t>
+          <t>mp-1001571</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>0.0607000000000002</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>Ca-Fe-O</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-2.17713515525</v>
       </c>
     </row>
     <row r="98">
@@ -5217,10 +5077,8 @@
       <c r="L99" t="n">
         <v>2.0287</v>
       </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>Ca-Ge-O</t>
-        </is>
+      <c r="M99" t="n">
+        <v>-2.64336941575</v>
       </c>
     </row>
     <row r="100">
@@ -5268,10 +5126,8 @@
       <c r="L100" t="n">
         <v>3.6612</v>
       </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>Ca-Hf-O</t>
-        </is>
+      <c r="M100" t="n">
+        <v>-3.66738470125</v>
       </c>
     </row>
     <row r="101">
@@ -5319,10 +5175,8 @@
       <c r="L101" t="n">
         <v>0</v>
       </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>Ca-Ir-O</t>
-        </is>
+      <c r="M101" t="n">
+        <v>-2.102712893250001</v>
       </c>
     </row>
     <row r="102">
@@ -5364,16 +5218,14 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>mp-19201</t>
+          <t>mp-1017467</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>0.4685999999999999</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>Ca-Mn-O</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>-2.419726756836208</v>
       </c>
     </row>
     <row r="103">
@@ -5421,10 +5273,8 @@
       <c r="L103" t="n">
         <v>1.0948</v>
       </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>Ca-Mo-O</t>
-        </is>
+      <c r="M103" t="n">
+        <v>-2.610446303249999</v>
       </c>
     </row>
     <row r="104">
@@ -5472,10 +5322,8 @@
       <c r="L104" t="n">
         <v>0</v>
       </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>Ca-Nb-O</t>
-        </is>
+      <c r="M104" t="n">
+        <v>-3.15777151725</v>
       </c>
     </row>
     <row r="105">
@@ -5523,10 +5371,8 @@
       <c r="L105" t="n">
         <v>1.2293</v>
       </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>Ca-Ni-O</t>
-        </is>
+      <c r="M105" t="n">
+        <v>-1.75351929325</v>
       </c>
     </row>
     <row r="106">
@@ -5615,10 +5461,8 @@
       <c r="L107" t="n">
         <v>0</v>
       </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>Ca-O-Os</t>
-        </is>
+      <c r="M107" t="n">
+        <v>-2.14661759475</v>
       </c>
     </row>
     <row r="108">
@@ -5707,10 +5551,8 @@
       <c r="L109" t="n">
         <v>1.2953</v>
       </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>Ca-O-Pt</t>
-        </is>
+      <c r="M109" t="n">
+        <v>-1.992265070250001</v>
       </c>
     </row>
     <row r="110">
@@ -5834,16 +5676,14 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>mp-1078659</t>
+          <t>mp-1193602</t>
         </is>
       </c>
       <c r="L112" t="n">
         <v>0</v>
       </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>Ca-O-Rh</t>
-        </is>
+      <c r="M112" t="n">
+        <v>-2.093583765250001</v>
       </c>
     </row>
     <row r="113">
@@ -5891,10 +5731,8 @@
       <c r="L113" t="n">
         <v>0</v>
       </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>Ca-O-Ru</t>
-        </is>
+      <c r="M113" t="n">
+        <v>-2.227451990749999</v>
       </c>
     </row>
     <row r="114">
@@ -5942,10 +5780,8 @@
       <c r="L114" t="n">
         <v>0</v>
       </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>Ca-O-Sc</t>
-        </is>
+      <c r="M114" t="n">
+        <v>-3.070837742250001</v>
       </c>
     </row>
     <row r="115">
@@ -5987,16 +5823,14 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>mp-17552</t>
+          <t>mp-1181886</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>4.7336</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>Ca-O-Si</t>
-        </is>
+        <v>3.6218</v>
+      </c>
+      <c r="M115" t="n">
+        <v>-3.20506503875</v>
       </c>
     </row>
     <row r="116">
@@ -6044,10 +5878,8 @@
       <c r="L116" t="n">
         <v>2.9379</v>
       </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>Ca-O-Sn</t>
-        </is>
+      <c r="M116" t="n">
+        <v>-2.68044765225</v>
       </c>
     </row>
     <row r="117">
@@ -6136,10 +5968,8 @@
       <c r="L118" t="n">
         <v>0</v>
       </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>Ca-O-Tc</t>
-        </is>
+      <c r="M118" t="n">
+        <v>-2.44639087525</v>
       </c>
     </row>
     <row r="119">
@@ -6181,16 +6011,14 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>mp-1366217</t>
+          <t>mp-1228456</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.895</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>Ca-O-Te</t>
-        </is>
+        <v>3.1072</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-2.396340628583333</v>
       </c>
     </row>
     <row r="120">
@@ -6232,16 +6060,14 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>mp-3442</t>
+          <t>mp-5827</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.2434</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>Ca-O-Ti</t>
-        </is>
+        <v>1.8285</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-3.492382935916667</v>
       </c>
     </row>
     <row r="121">
@@ -6283,16 +6109,14 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>mp-3442</t>
+          <t>mp-5827</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.2434</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>Ca-O-Ti</t>
-        </is>
+        <v>1.8285</v>
+      </c>
+      <c r="M121" t="n">
+        <v>-3.492382935916667</v>
       </c>
     </row>
     <row r="122">
@@ -6381,10 +6205,8 @@
       <c r="L123" t="n">
         <v>0.4339</v>
       </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>Ca-O-V</t>
-        </is>
+      <c r="M123" t="n">
+        <v>-2.93710737375</v>
       </c>
     </row>
     <row r="124">
@@ -6432,10 +6254,8 @@
       <c r="L124" t="n">
         <v>1.978400000000001</v>
       </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>Ca-O-W</t>
-        </is>
+      <c r="M124" t="n">
+        <v>-2.61216451775</v>
       </c>
     </row>
     <row r="125">
@@ -6483,10 +6303,8 @@
       <c r="L125" t="n">
         <v>0</v>
       </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>Ca-O-Y</t>
-        </is>
+      <c r="M125" t="n">
+        <v>-2.831406256583334</v>
       </c>
     </row>
     <row r="126">
@@ -6534,10 +6352,8 @@
       <c r="L126" t="n">
         <v>3.4707</v>
       </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>Ca-O-Zr</t>
-        </is>
+      <c r="M126" t="n">
+        <v>-3.645573069</v>
       </c>
     </row>
     <row r="127">
@@ -6585,10 +6401,8 @@
       <c r="L127" t="n">
         <v>0</v>
       </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>Cd-Co-O</t>
-        </is>
+      <c r="M127" t="n">
+        <v>-1.09986804525</v>
       </c>
     </row>
     <row r="128">
@@ -6677,10 +6491,8 @@
       <c r="L129" t="n">
         <v>0</v>
       </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>Cd-Fe-O</t>
-        </is>
+      <c r="M129" t="n">
+        <v>-1.30941178225</v>
       </c>
     </row>
     <row r="130">
@@ -6722,16 +6534,14 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>mp-1016903</t>
+          <t>mp-7588</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>0.1022000000000007</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>Cd-Ge-O</t>
-        </is>
+        <v>1.301</v>
+      </c>
+      <c r="M130" t="n">
+        <v>-1.849625289125</v>
       </c>
     </row>
     <row r="131">
@@ -6779,10 +6589,8 @@
       <c r="L131" t="n">
         <v>2.3244</v>
       </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>Cd-Hf-O</t>
-        </is>
+      <c r="M131" t="n">
+        <v>-2.94390512425</v>
       </c>
     </row>
     <row r="132">
@@ -6830,10 +6638,8 @@
       <c r="L132" t="n">
         <v>0</v>
       </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>Cd-Ir-O</t>
-        </is>
+      <c r="M132" t="n">
+        <v>-1.195453383916667</v>
       </c>
     </row>
     <row r="133">
@@ -6881,10 +6687,8 @@
       <c r="L133" t="n">
         <v>0</v>
       </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>Cd-Mn-O</t>
-        </is>
+      <c r="M133" t="n">
+        <v>-1.419878774836207</v>
       </c>
     </row>
     <row r="134">
@@ -7096,10 +6900,8 @@
       <c r="L138" t="n">
         <v>0</v>
       </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>Cd-O-Os</t>
-        </is>
+      <c r="M138" t="n">
+        <v>-1.04318429125</v>
       </c>
     </row>
     <row r="139">
@@ -7311,10 +7113,8 @@
       <c r="L143" t="n">
         <v>0</v>
       </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>Cd-O-Rh</t>
-        </is>
+      <c r="M143" t="n">
+        <v>-0.8539169532499997</v>
       </c>
     </row>
     <row r="144">
@@ -7362,10 +7162,8 @@
       <c r="L144" t="n">
         <v>0</v>
       </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>Cd-O-Ru</t>
-        </is>
+      <c r="M144" t="n">
+        <v>-1.08731303925</v>
       </c>
     </row>
     <row r="145">
@@ -7413,10 +7211,8 @@
       <c r="L145" t="n">
         <v>0.6903999999999999</v>
       </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>Cd-O-Sn</t>
-        </is>
+      <c r="M145" t="n">
+        <v>-1.81555204175</v>
       </c>
     </row>
     <row r="146">
@@ -7505,10 +7301,8 @@
       <c r="L147" t="n">
         <v>0</v>
       </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>Cd-O-Tc</t>
-        </is>
+      <c r="M147" t="n">
+        <v>-1.560756007249999</v>
       </c>
     </row>
     <row r="148">
@@ -7556,10 +7350,8 @@
       <c r="L148" t="n">
         <v>2.9646</v>
       </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>Cd-O-Te</t>
-        </is>
+      <c r="M148" t="n">
+        <v>-1.529819189833333</v>
       </c>
     </row>
     <row r="149">
@@ -7601,16 +7393,14 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>mp-13641</t>
+          <t>mp-1179263</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>2.9057</v>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>Cd-O-Ti</t>
-        </is>
+        <v>1.4505</v>
+      </c>
+      <c r="M149" t="n">
+        <v>-2.459582289416667</v>
       </c>
     </row>
     <row r="150">
@@ -7699,10 +7489,8 @@
       <c r="L151" t="n">
         <v>0</v>
       </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>Cd-O-V</t>
-        </is>
+      <c r="M151" t="n">
+        <v>-2.07987564825</v>
       </c>
     </row>
     <row r="152">
@@ -7791,10 +7579,8 @@
       <c r="L153" t="n">
         <v>0</v>
       </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>Cd-O-Zr</t>
-        </is>
+      <c r="M153" t="n">
+        <v>-2.48994306525</v>
       </c>
     </row>
     <row r="154">
@@ -7842,10 +7628,8 @@
       <c r="L154" t="n">
         <v>0</v>
       </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>Al-Ce-O</t>
-        </is>
+      <c r="M154" t="n">
+        <v>-3.604759018249999</v>
       </c>
     </row>
     <row r="155">
@@ -7969,16 +7753,14 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>mp-780712</t>
+          <t>mp-20530</t>
         </is>
       </c>
       <c r="L157" t="n">
         <v>0</v>
       </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>Ce-Cr-O</t>
-        </is>
+      <c r="M157" t="n">
+        <v>-2.97195593425</v>
       </c>
     </row>
     <row r="158">
@@ -8026,10 +7808,8 @@
       <c r="L158" t="n">
         <v>0</v>
       </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>Ce-Cu-O</t>
-        </is>
+      <c r="M158" t="n">
+        <v>-2.335720756250001</v>
       </c>
     </row>
     <row r="159">
@@ -8077,10 +7857,8 @@
       <c r="L159" t="n">
         <v>0</v>
       </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>Ce-Fe-O</t>
-        </is>
+      <c r="M159" t="n">
+        <v>-2.574319856250001</v>
       </c>
     </row>
     <row r="160">
@@ -8128,10 +7906,8 @@
       <c r="L160" t="n">
         <v>0</v>
       </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>Ce-Ga-O</t>
-        </is>
+      <c r="M160" t="n">
+        <v>-2.99769425475</v>
       </c>
     </row>
     <row r="161">
@@ -8302,10 +8078,8 @@
       <c r="L164" t="n">
         <v>0</v>
       </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>Ce-Mn-O</t>
-        </is>
+      <c r="M164" t="n">
+        <v>-2.793564919836206</v>
       </c>
     </row>
     <row r="165">
@@ -8435,10 +8209,8 @@
       <c r="L167" t="n">
         <v>0.5667</v>
       </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>Ce-Ni-O</t>
-        </is>
+      <c r="M167" t="n">
+        <v>-2.749818633749999</v>
       </c>
     </row>
     <row r="168">
@@ -8609,10 +8381,8 @@
       <c r="L171" t="n">
         <v>0</v>
       </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>Ce-O-Pu</t>
-        </is>
+      <c r="M171" t="n">
+        <v>-3.08341598225</v>
       </c>
     </row>
     <row r="172">
@@ -8660,10 +8430,8 @@
       <c r="L172" t="n">
         <v>0</v>
       </c>
-      <c r="M172" t="inlineStr">
-        <is>
-          <t>Ce-O-Rh</t>
-        </is>
+      <c r="M172" t="n">
+        <v>-2.55429196475</v>
       </c>
     </row>
     <row r="173">
@@ -8752,10 +8520,8 @@
       <c r="L174" t="n">
         <v>0</v>
       </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>Ce-O-Sb</t>
-        </is>
+      <c r="M174" t="n">
+        <v>-2.483678729250001</v>
       </c>
     </row>
     <row r="175">
@@ -8803,10 +8569,8 @@
       <c r="L175" t="n">
         <v>0</v>
       </c>
-      <c r="M175" t="inlineStr">
-        <is>
-          <t>Ce-O-Sc</t>
-        </is>
+      <c r="M175" t="n">
+        <v>-3.85654432625</v>
       </c>
     </row>
     <row r="176">
@@ -8854,10 +8618,8 @@
       <c r="L176" t="n">
         <v>0</v>
       </c>
-      <c r="M176" t="inlineStr">
-        <is>
-          <t>Ce-O-Ta</t>
-        </is>
+      <c r="M176" t="n">
+        <v>-3.056778816250001</v>
       </c>
     </row>
     <row r="177">
@@ -8905,10 +8667,8 @@
       <c r="L177" t="n">
         <v>0</v>
       </c>
-      <c r="M177" t="inlineStr">
-        <is>
-          <t>Ce-O-Ti</t>
-        </is>
+      <c r="M177" t="n">
+        <v>-3.499210098916667</v>
       </c>
     </row>
     <row r="178">
@@ -8991,16 +8751,14 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>mp-22593</t>
+          <t>mp-18769</t>
         </is>
       </c>
       <c r="L179" t="n">
         <v>0</v>
       </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>Ce-O-V</t>
-        </is>
+      <c r="M179" t="n">
+        <v>-3.227333015750001</v>
       </c>
     </row>
     <row r="180">
@@ -9206,16 +8964,14 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>mp-28295</t>
+          <t>mp-613384</t>
         </is>
       </c>
       <c r="L184" t="n">
-        <v>3.0912</v>
-      </c>
-      <c r="M184" t="inlineStr">
-        <is>
-          <t>Cs-I-O</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0.5802867591637927</v>
       </c>
     </row>
     <row r="185">
@@ -9257,16 +9013,14 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>mp-984723</t>
+          <t>mp-756630</t>
         </is>
       </c>
       <c r="L185" t="n">
-        <v>2.948300000000001</v>
-      </c>
-      <c r="M185" t="inlineStr">
-        <is>
-          <t>Al-Dy-O</t>
-        </is>
+        <v>5.723000000000001</v>
+      </c>
+      <c r="M185" t="n">
+        <v>-3.74903711925</v>
       </c>
     </row>
     <row r="186">
@@ -9314,10 +9068,8 @@
       <c r="L186" t="n">
         <v>0</v>
       </c>
-      <c r="M186" t="inlineStr">
-        <is>
-          <t>Bi-Dy-O</t>
-        </is>
+      <c r="M186" t="n">
+        <v>-1.69765537725</v>
       </c>
     </row>
     <row r="187">
@@ -9365,10 +9117,8 @@
       <c r="L187" t="n">
         <v>1.1924</v>
       </c>
-      <c r="M187" t="inlineStr">
-        <is>
-          <t>Co-Dy-O</t>
-        </is>
+      <c r="M187" t="n">
+        <v>-2.61629198325</v>
       </c>
     </row>
     <row r="188">
@@ -9416,10 +9166,8 @@
       <c r="L188" t="n">
         <v>2.218500000000001</v>
       </c>
-      <c r="M188" t="inlineStr">
-        <is>
-          <t>Cr-Dy-O</t>
-        </is>
+      <c r="M188" t="n">
+        <v>-3.22382149925</v>
       </c>
     </row>
     <row r="189">
@@ -9467,10 +9215,8 @@
       <c r="L189" t="n">
         <v>0</v>
       </c>
-      <c r="M189" t="inlineStr">
-        <is>
-          <t>Cu-Dy-O</t>
-        </is>
+      <c r="M189" t="n">
+        <v>-2.235910325250001</v>
       </c>
     </row>
     <row r="190">
@@ -9518,10 +9264,8 @@
       <c r="L190" t="n">
         <v>0.9134000000000002</v>
       </c>
-      <c r="M190" t="inlineStr">
-        <is>
-          <t>Dy-Fe-O</t>
-        </is>
+      <c r="M190" t="n">
+        <v>-2.852824009250001</v>
       </c>
     </row>
     <row r="191">
@@ -9569,10 +9313,8 @@
       <c r="L191" t="n">
         <v>2.8659</v>
       </c>
-      <c r="M191" t="inlineStr">
-        <is>
-          <t>Dy-Ga-O</t>
-        </is>
+      <c r="M191" t="n">
+        <v>-3.158010685083334</v>
       </c>
     </row>
     <row r="192">
@@ -9661,10 +9403,8 @@
       <c r="L193" t="n">
         <v>2.623</v>
       </c>
-      <c r="M193" t="inlineStr">
-        <is>
-          <t>Dy-In-O</t>
-        </is>
+      <c r="M193" t="n">
+        <v>-2.94010279325</v>
       </c>
     </row>
     <row r="194">
@@ -9753,10 +9493,8 @@
       <c r="L195" t="n">
         <v>0</v>
       </c>
-      <c r="M195" t="inlineStr">
-        <is>
-          <t>Dy-Mn-O</t>
-        </is>
+      <c r="M195" t="n">
+        <v>-3.060528372502874</v>
       </c>
     </row>
     <row r="196">
@@ -9886,10 +9624,8 @@
       <c r="L198" t="n">
         <v>0</v>
       </c>
-      <c r="M198" t="inlineStr">
-        <is>
-          <t>Dy-Ni-O</t>
-        </is>
+      <c r="M198" t="n">
+        <v>-2.504155912750002</v>
       </c>
     </row>
     <row r="199">
@@ -10183,10 +9919,8 @@
       <c r="L205" t="n">
         <v>0.8883000000000001</v>
       </c>
-      <c r="M205" t="inlineStr">
-        <is>
-          <t>Dy-O-Rh</t>
-        </is>
+      <c r="M205" t="n">
+        <v>-2.58468437225</v>
       </c>
     </row>
     <row r="206">
@@ -10275,10 +10009,8 @@
       <c r="L207" t="n">
         <v>0</v>
       </c>
-      <c r="M207" t="inlineStr">
-        <is>
-          <t>Dy-O-Sb</t>
-        </is>
+      <c r="M207" t="n">
+        <v>-1.89660419325</v>
       </c>
     </row>
     <row r="208">
@@ -10326,10 +10058,8 @@
       <c r="L208" t="n">
         <v>4.4598</v>
       </c>
-      <c r="M208" t="inlineStr">
-        <is>
-          <t>Dy-O-Sc</t>
-        </is>
+      <c r="M208" t="n">
+        <v>-3.96413681475</v>
       </c>
     </row>
     <row r="209">
@@ -10377,10 +10107,8 @@
       <c r="L209" t="n">
         <v>0</v>
       </c>
-      <c r="M209" t="inlineStr">
-        <is>
-          <t>Dy-O-Sn</t>
-        </is>
+      <c r="M209" t="n">
+        <v>-2.15279857025</v>
       </c>
     </row>
     <row r="210">
@@ -10551,10 +10279,8 @@
       <c r="L213" t="n">
         <v>0</v>
       </c>
-      <c r="M213" t="inlineStr">
-        <is>
-          <t>Dy-O-Ti</t>
-        </is>
+      <c r="M213" t="n">
+        <v>-3.635329284916667</v>
       </c>
     </row>
     <row r="214">
@@ -10643,10 +10369,8 @@
       <c r="L215" t="n">
         <v>1.3773</v>
       </c>
-      <c r="M215" t="inlineStr">
-        <is>
-          <t>Dy-O-V</t>
-        </is>
+      <c r="M215" t="n">
+        <v>-3.299710045250001</v>
       </c>
     </row>
     <row r="216">
@@ -10770,16 +10494,14 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>mp-754184</t>
+          <t>mp-756458</t>
         </is>
       </c>
       <c r="L218" t="n">
-        <v>3.5604</v>
-      </c>
-      <c r="M218" t="inlineStr">
-        <is>
-          <t>Al-Er-O</t>
-        </is>
+        <v>5.803000000000001</v>
+      </c>
+      <c r="M218" t="n">
+        <v>-3.76412369675</v>
       </c>
     </row>
     <row r="219">
@@ -10827,10 +10549,8 @@
       <c r="L219" t="n">
         <v>3.1136</v>
       </c>
-      <c r="M219" t="inlineStr">
-        <is>
-          <t>Bi-Er-O</t>
-        </is>
+      <c r="M219" t="n">
+        <v>-2.82921751625</v>
       </c>
     </row>
     <row r="220">
@@ -10878,10 +10598,8 @@
       <c r="L220" t="n">
         <v>1.4471</v>
       </c>
-      <c r="M220" t="inlineStr">
-        <is>
-          <t>Co-Er-O</t>
-        </is>
+      <c r="M220" t="n">
+        <v>-2.65891039875</v>
       </c>
     </row>
     <row r="221">
@@ -10929,10 +10647,8 @@
       <c r="L221" t="n">
         <v>0.2571000000000003</v>
       </c>
-      <c r="M221" t="inlineStr">
-        <is>
-          <t>Cr-Er-O</t>
-        </is>
+      <c r="M221" t="n">
+        <v>-3.237348449250001</v>
       </c>
     </row>
     <row r="222">
@@ -10980,10 +10696,8 @@
       <c r="L222" t="n">
         <v>0</v>
       </c>
-      <c r="M222" t="inlineStr">
-        <is>
-          <t>Cu-Er-O</t>
-        </is>
+      <c r="M222" t="n">
+        <v>-2.20468622525</v>
       </c>
     </row>
     <row r="223">
@@ -11031,10 +10745,8 @@
       <c r="L223" t="n">
         <v>1.3727</v>
       </c>
-      <c r="M223" t="inlineStr">
-        <is>
-          <t>Er-Fe-O</t>
-        </is>
+      <c r="M223" t="n">
+        <v>-2.86490148075</v>
       </c>
     </row>
     <row r="224">
@@ -11076,16 +10788,14 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>mp-1213088</t>
+          <t>mp-1213082</t>
         </is>
       </c>
       <c r="L224" t="n">
-        <v>2.9001</v>
-      </c>
-      <c r="M224" t="inlineStr">
-        <is>
-          <t>Er-Ga-O</t>
-        </is>
+        <v>3.6631</v>
+      </c>
+      <c r="M224" t="n">
+        <v>-3.14838917675</v>
       </c>
     </row>
     <row r="225">
@@ -11127,16 +10837,14 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>mp-754208</t>
+          <t>mp-772217</t>
         </is>
       </c>
       <c r="L225" t="n">
-        <v>2.5532</v>
-      </c>
-      <c r="M225" t="inlineStr">
-        <is>
-          <t>Er-In-O</t>
-        </is>
+        <v>1.956</v>
+      </c>
+      <c r="M225" t="n">
+        <v>-3.012471627916668</v>
       </c>
     </row>
     <row r="226">
@@ -11184,10 +10892,8 @@
       <c r="L226" t="n">
         <v>0</v>
       </c>
-      <c r="M226" t="inlineStr">
-        <is>
-          <t>Er-Ir-O</t>
-        </is>
+      <c r="M226" t="n">
+        <v>-1.77003566925</v>
       </c>
     </row>
     <row r="227">
@@ -11235,10 +10941,8 @@
       <c r="L227" t="n">
         <v>0.2410999999999999</v>
       </c>
-      <c r="M227" t="inlineStr">
-        <is>
-          <t>Er-Mn-O</t>
-        </is>
+      <c r="M227" t="n">
+        <v>-3.083258602502874</v>
       </c>
     </row>
     <row r="228">
@@ -11368,10 +11072,8 @@
       <c r="L230" t="n">
         <v>0.3404000000000003</v>
       </c>
-      <c r="M230" t="inlineStr">
-        <is>
-          <t>Er-Ni-O</t>
-        </is>
+      <c r="M230" t="n">
+        <v>-2.516744529249999</v>
       </c>
     </row>
     <row r="231">
@@ -11542,10 +11244,8 @@
       <c r="L234" t="n">
         <v>0.9641999999999999</v>
       </c>
-      <c r="M234" t="inlineStr">
-        <is>
-          <t>Er-O-Rh</t>
-        </is>
+      <c r="M234" t="n">
+        <v>-2.59738210625</v>
       </c>
     </row>
     <row r="235">
@@ -11675,10 +11375,8 @@
       <c r="L237" t="n">
         <v>4.4171</v>
       </c>
-      <c r="M237" t="inlineStr">
-        <is>
-          <t>Er-O-Sc</t>
-        </is>
+      <c r="M237" t="n">
+        <v>-3.97278770575</v>
       </c>
     </row>
     <row r="238">
@@ -11726,10 +11424,8 @@
       <c r="L238" t="n">
         <v>0</v>
       </c>
-      <c r="M238" t="inlineStr">
-        <is>
-          <t>Er-O-Ta</t>
-        </is>
+      <c r="M238" t="n">
+        <v>-2.787514591249999</v>
       </c>
     </row>
     <row r="239">
@@ -11777,10 +11473,8 @@
       <c r="L239" t="n">
         <v>0</v>
       </c>
-      <c r="M239" t="inlineStr">
-        <is>
-          <t>Er-O-Ti</t>
-        </is>
+      <c r="M239" t="n">
+        <v>-3.644787311416667</v>
       </c>
     </row>
     <row r="240">
@@ -11869,10 +11563,8 @@
       <c r="L241" t="n">
         <v>1.5838</v>
       </c>
-      <c r="M241" t="inlineStr">
-        <is>
-          <t>Er-O-V</t>
-        </is>
+      <c r="M241" t="n">
+        <v>-3.311279253750001</v>
       </c>
     </row>
     <row r="242">
@@ -11920,10 +11612,8 @@
       <c r="L242" t="n">
         <v>0</v>
       </c>
-      <c r="M242" t="inlineStr">
-        <is>
-          <t>Al-Eu-O</t>
-        </is>
+      <c r="M242" t="n">
+        <v>-3.33136516775</v>
       </c>
     </row>
     <row r="243">
@@ -12006,16 +11696,14 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>mp-1075975</t>
+          <t>mp-1212757</t>
         </is>
       </c>
       <c r="L244" t="n">
         <v>0</v>
       </c>
-      <c r="M244" t="inlineStr">
-        <is>
-          <t>Co-Eu-O</t>
-        </is>
+      <c r="M244" t="n">
+        <v>-2.220310743249999</v>
       </c>
     </row>
     <row r="245">
@@ -12063,10 +11751,8 @@
       <c r="L245" t="n">
         <v>0</v>
       </c>
-      <c r="M245" t="inlineStr">
-        <is>
-          <t>Cr-Eu-O</t>
-        </is>
+      <c r="M245" t="n">
+        <v>-2.725064745250001</v>
       </c>
     </row>
     <row r="246">
@@ -12114,10 +11800,8 @@
       <c r="L246" t="n">
         <v>0</v>
       </c>
-      <c r="M246" t="inlineStr">
-        <is>
-          <t>Cu-Eu-O</t>
-        </is>
+      <c r="M246" t="n">
+        <v>-1.980365788750001</v>
       </c>
     </row>
     <row r="247">
@@ -12165,10 +11849,8 @@
       <c r="L247" t="n">
         <v>0</v>
       </c>
-      <c r="M247" t="inlineStr">
-        <is>
-          <t>Eu-Fe-O</t>
-        </is>
+      <c r="M247" t="n">
+        <v>-2.433760557250001</v>
       </c>
     </row>
     <row r="248">
@@ -12216,10 +11898,8 @@
       <c r="L248" t="n">
         <v>0</v>
       </c>
-      <c r="M248" t="inlineStr">
-        <is>
-          <t>Eu-Ge-O</t>
-        </is>
+      <c r="M248" t="n">
+        <v>-2.607839146249999</v>
       </c>
     </row>
     <row r="249">
@@ -12261,16 +11941,14 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>mp-1212980</t>
+          <t>mp-1184304</t>
         </is>
       </c>
       <c r="L249" t="n">
         <v>0</v>
       </c>
-      <c r="M249" t="inlineStr">
-        <is>
-          <t>Eu-In-O</t>
-        </is>
+      <c r="M249" t="n">
+        <v>-2.22142702325</v>
       </c>
     </row>
     <row r="250">
@@ -12318,10 +11996,8 @@
       <c r="L250" t="n">
         <v>0</v>
       </c>
-      <c r="M250" t="inlineStr">
-        <is>
-          <t>Eu-Ir-O</t>
-        </is>
+      <c r="M250" t="n">
+        <v>-1.900873739250001</v>
       </c>
     </row>
     <row r="251">
@@ -12369,10 +12045,8 @@
       <c r="L251" t="n">
         <v>0</v>
       </c>
-      <c r="M251" t="inlineStr">
-        <is>
-          <t>Eu-Mn-O</t>
-        </is>
+      <c r="M251" t="n">
+        <v>-2.610860828836208</v>
       </c>
     </row>
     <row r="252">
@@ -12420,10 +12094,8 @@
       <c r="L252" t="n">
         <v>0</v>
       </c>
-      <c r="M252" t="inlineStr">
-        <is>
-          <t>Eu-Mo-O</t>
-        </is>
+      <c r="M252" t="n">
+        <v>-2.48961151125</v>
       </c>
     </row>
     <row r="253">
@@ -12465,16 +12137,14 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>mp-1078341</t>
+          <t>mp-755572</t>
         </is>
       </c>
       <c r="L253" t="n">
         <v>0</v>
       </c>
-      <c r="M253" t="inlineStr">
-        <is>
-          <t>Eu-Nb-O</t>
-        </is>
+      <c r="M253" t="n">
+        <v>-3.131698579250001</v>
       </c>
     </row>
     <row r="254">
@@ -12522,10 +12192,8 @@
       <c r="L254" t="n">
         <v>0</v>
       </c>
-      <c r="M254" t="inlineStr">
-        <is>
-          <t>Eu-Ni-O</t>
-        </is>
+      <c r="M254" t="n">
+        <v>-2.081780016250002</v>
       </c>
     </row>
     <row r="255">
@@ -12573,10 +12241,8 @@
       <c r="L255" t="n">
         <v>0</v>
       </c>
-      <c r="M255" t="inlineStr">
-        <is>
-          <t>Eu-Np-O</t>
-        </is>
+      <c r="M255" t="n">
+        <v>-3.426081950500001</v>
       </c>
     </row>
     <row r="256">
@@ -12624,10 +12290,8 @@
       <c r="L256" t="n">
         <v>0</v>
       </c>
-      <c r="M256" t="inlineStr">
-        <is>
-          <t>Eu-O-Os</t>
-        </is>
+      <c r="M256" t="n">
+        <v>-2.04683610525</v>
       </c>
     </row>
     <row r="257">
@@ -12675,10 +12339,8 @@
       <c r="L257" t="n">
         <v>0</v>
       </c>
-      <c r="M257" t="inlineStr">
-        <is>
-          <t>Eu-O-Pd</t>
-        </is>
+      <c r="M257" t="n">
+        <v>-1.79782263925</v>
       </c>
     </row>
     <row r="258">
@@ -12726,10 +12388,8 @@
       <c r="L258" t="n">
         <v>0</v>
       </c>
-      <c r="M258" t="inlineStr">
-        <is>
-          <t>Eu-O-Pt</t>
-        </is>
+      <c r="M258" t="n">
+        <v>-1.750192189250001</v>
       </c>
     </row>
     <row r="259">
@@ -12818,10 +12478,8 @@
       <c r="L260" t="n">
         <v>0</v>
       </c>
-      <c r="M260" t="inlineStr">
-        <is>
-          <t>Eu-O-Re</t>
-        </is>
+      <c r="M260" t="n">
+        <v>-2.360392452250001</v>
       </c>
     </row>
     <row r="261">
@@ -12869,10 +12527,8 @@
       <c r="L261" t="n">
         <v>0</v>
       </c>
-      <c r="M261" t="inlineStr">
-        <is>
-          <t>Eu-O-Rh</t>
-        </is>
+      <c r="M261" t="n">
+        <v>-2.21282572775</v>
       </c>
     </row>
     <row r="262">
@@ -12920,10 +12576,8 @@
       <c r="L262" t="n">
         <v>0</v>
       </c>
-      <c r="M262" t="inlineStr">
-        <is>
-          <t>Eu-O-Ru</t>
-        </is>
+      <c r="M262" t="n">
+        <v>-2.167312279249999</v>
       </c>
     </row>
     <row r="263">
@@ -12971,10 +12625,8 @@
       <c r="L263" t="n">
         <v>0</v>
       </c>
-      <c r="M263" t="inlineStr">
-        <is>
-          <t>Eu-O-Sb</t>
-        </is>
+      <c r="M263" t="n">
+        <v>-2.31236605325</v>
       </c>
     </row>
     <row r="264">
@@ -13022,10 +12674,8 @@
       <c r="L264" t="n">
         <v>0</v>
       </c>
-      <c r="M264" t="inlineStr">
-        <is>
-          <t>Eu-O-Sc</t>
-        </is>
+      <c r="M264" t="n">
+        <v>-3.53293028225</v>
       </c>
     </row>
     <row r="265">
@@ -13073,10 +12723,8 @@
       <c r="L265" t="n">
         <v>0</v>
       </c>
-      <c r="M265" t="inlineStr">
-        <is>
-          <t>Eu-O-Sn</t>
-        </is>
+      <c r="M265" t="n">
+        <v>-2.54991238225</v>
       </c>
     </row>
     <row r="266">
@@ -13165,10 +12813,8 @@
       <c r="L267" t="n">
         <v>0</v>
       </c>
-      <c r="M267" t="inlineStr">
-        <is>
-          <t>Eu-O-Tc</t>
-        </is>
+      <c r="M267" t="n">
+        <v>-2.430637300249999</v>
       </c>
     </row>
     <row r="268">
@@ -13251,16 +12897,14 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>mp-22246</t>
+          <t>mp-1079111</t>
         </is>
       </c>
       <c r="L269" t="n">
         <v>0</v>
       </c>
-      <c r="M269" t="inlineStr">
-        <is>
-          <t>Eu-O-Ti</t>
-        </is>
+      <c r="M269" t="n">
+        <v>-3.565507372916668</v>
       </c>
     </row>
     <row r="270">
@@ -13308,10 +12952,8 @@
       <c r="L270" t="n">
         <v>0</v>
       </c>
-      <c r="M270" t="inlineStr">
-        <is>
-          <t>Eu-O-U</t>
-        </is>
+      <c r="M270" t="n">
+        <v>-3.50105777725</v>
       </c>
     </row>
     <row r="271">
@@ -13359,10 +13001,8 @@
       <c r="L271" t="n">
         <v>0</v>
       </c>
-      <c r="M271" t="inlineStr">
-        <is>
-          <t>Eu-O-V</t>
-        </is>
+      <c r="M271" t="n">
+        <v>-2.967644121750001</v>
       </c>
     </row>
     <row r="272">
@@ -13410,10 +13050,8 @@
       <c r="L272" t="n">
         <v>0</v>
       </c>
-      <c r="M272" t="inlineStr">
-        <is>
-          <t>Eu-O-W</t>
-        </is>
+      <c r="M272" t="n">
+        <v>-2.410123757250001</v>
       </c>
     </row>
     <row r="273">
@@ -13455,16 +13093,14 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>mp-1178354</t>
+          <t>mp-771055</t>
         </is>
       </c>
       <c r="L273" t="n">
-        <v>0.4662999999999995</v>
-      </c>
-      <c r="M273" t="inlineStr">
-        <is>
-          <t>Eu-O-Zr</t>
-        </is>
+        <v>0.3877000000000006</v>
+      </c>
+      <c r="M273" t="n">
+        <v>-3.55385709925</v>
       </c>
     </row>
     <row r="274">
@@ -13553,10 +13189,8 @@
       <c r="L275" t="n">
         <v>1.8885</v>
       </c>
-      <c r="M275" t="inlineStr">
-        <is>
-          <t>Al-Gd-O</t>
-        </is>
+      <c r="M275" t="n">
+        <v>-3.614480205250001</v>
       </c>
     </row>
     <row r="276">
@@ -13645,10 +13279,8 @@
       <c r="L277" t="n">
         <v>0</v>
       </c>
-      <c r="M277" t="inlineStr">
-        <is>
-          <t>Co-Gd-O</t>
-        </is>
+      <c r="M277" t="n">
+        <v>-2.335253174249999</v>
       </c>
     </row>
     <row r="278">
@@ -13696,10 +13328,8 @@
       <c r="L278" t="n">
         <v>0.8250000000000002</v>
       </c>
-      <c r="M278" t="inlineStr">
-        <is>
-          <t>Cr-Gd-O</t>
-        </is>
+      <c r="M278" t="n">
+        <v>-2.93940580325</v>
       </c>
     </row>
     <row r="279">
@@ -13747,10 +13377,8 @@
       <c r="L279" t="n">
         <v>0</v>
       </c>
-      <c r="M279" t="inlineStr">
-        <is>
-          <t>Cu-Gd-O</t>
-        </is>
+      <c r="M279" t="n">
+        <v>-2.247125961249999</v>
       </c>
     </row>
     <row r="280">
@@ -13798,10 +13426,8 @@
       <c r="L280" t="n">
         <v>0</v>
       </c>
-      <c r="M280" t="inlineStr">
-        <is>
-          <t>Fe-Gd-O</t>
-        </is>
+      <c r="M280" t="n">
+        <v>-2.797936629749999</v>
       </c>
     </row>
     <row r="281">
@@ -13849,10 +13475,8 @@
       <c r="L281" t="n">
         <v>3.3962</v>
       </c>
-      <c r="M281" t="inlineStr">
-        <is>
-          <t>Ga-Gd-O</t>
-        </is>
+      <c r="M281" t="n">
+        <v>-3.07849731375</v>
       </c>
     </row>
     <row r="282">
@@ -13900,10 +13524,8 @@
       <c r="L282" t="n">
         <v>2.586</v>
       </c>
-      <c r="M282" t="inlineStr">
-        <is>
-          <t>Gd-In-O</t>
-        </is>
+      <c r="M282" t="n">
+        <v>-2.898065407750001</v>
       </c>
     </row>
     <row r="283">
@@ -13992,10 +13614,8 @@
       <c r="L284" t="n">
         <v>0.4040999999999997</v>
       </c>
-      <c r="M284" t="inlineStr">
-        <is>
-          <t>Gd-Mn-O</t>
-        </is>
+      <c r="M284" t="n">
+        <v>-2.982716493836207</v>
       </c>
     </row>
     <row r="285">
@@ -14125,10 +13745,8 @@
       <c r="L287" t="n">
         <v>0</v>
       </c>
-      <c r="M287" t="inlineStr">
-        <is>
-          <t>Gd-Ni-O</t>
-        </is>
+      <c r="M287" t="n">
+        <v>-2.450359704249999</v>
       </c>
     </row>
     <row r="288">
@@ -14299,10 +13917,8 @@
       <c r="L291" t="n">
         <v>0</v>
       </c>
-      <c r="M291" t="inlineStr">
-        <is>
-          <t>Gd-O-Rh</t>
-        </is>
+      <c r="M291" t="n">
+        <v>-2.07237640925</v>
       </c>
     </row>
     <row r="292">
@@ -14432,10 +14048,8 @@
       <c r="L294" t="n">
         <v>3.1418</v>
       </c>
-      <c r="M294" t="inlineStr">
-        <is>
-          <t>Gd-O-Sc</t>
-        </is>
+      <c r="M294" t="n">
+        <v>-3.921091020749999</v>
       </c>
     </row>
     <row r="295">
@@ -14524,10 +14138,8 @@
       <c r="L296" t="n">
         <v>0</v>
       </c>
-      <c r="M296" t="inlineStr">
-        <is>
-          <t>Gd-O-Ti</t>
-        </is>
+      <c r="M296" t="n">
+        <v>-3.618366054916666</v>
       </c>
     </row>
     <row r="297">
@@ -14616,10 +14228,8 @@
       <c r="L298" t="n">
         <v>0</v>
       </c>
-      <c r="M298" t="inlineStr">
-        <is>
-          <t>Gd-O-V</t>
-        </is>
+      <c r="M298" t="n">
+        <v>-3.253447280250001</v>
       </c>
     </row>
     <row r="299">
@@ -14667,10 +14277,8 @@
       <c r="L299" t="n">
         <v>2.4865</v>
       </c>
-      <c r="M299" t="inlineStr">
-        <is>
-          <t>Co-Hf-O</t>
-        </is>
+      <c r="M299" t="n">
+        <v>-2.831540732249999</v>
       </c>
     </row>
     <row r="300">
@@ -14718,10 +14326,8 @@
       <c r="L300" t="n">
         <v>1.5871</v>
       </c>
-      <c r="M300" t="inlineStr">
-        <is>
-          <t>Cr-Hf-O</t>
-        </is>
+      <c r="M300" t="n">
+        <v>-3.10422271475</v>
       </c>
     </row>
     <row r="301">
@@ -14810,10 +14416,8 @@
       <c r="L302" t="n">
         <v>2.9099</v>
       </c>
-      <c r="M302" t="inlineStr">
-        <is>
-          <t>Fe-Hf-O</t>
-        </is>
+      <c r="M302" t="n">
+        <v>-2.94260517025</v>
       </c>
     </row>
     <row r="303">
@@ -14902,10 +14506,8 @@
       <c r="L304" t="n">
         <v>1.2772</v>
       </c>
-      <c r="M304" t="inlineStr">
-        <is>
-          <t>Hf-Mg-O</t>
-        </is>
+      <c r="M304" t="n">
+        <v>-3.04450719525</v>
       </c>
     </row>
     <row r="305">
@@ -14953,10 +14555,8 @@
       <c r="L305" t="n">
         <v>2.6129</v>
       </c>
-      <c r="M305" t="inlineStr">
-        <is>
-          <t>Hf-Mn-O</t>
-        </is>
+      <c r="M305" t="n">
+        <v>-3.172475673836206</v>
       </c>
     </row>
     <row r="306">
@@ -15004,10 +14604,8 @@
       <c r="L306" t="n">
         <v>2.7983</v>
       </c>
-      <c r="M306" t="inlineStr">
-        <is>
-          <t>Hf-Ni-O</t>
-        </is>
+      <c r="M306" t="n">
+        <v>-2.803040832250001</v>
       </c>
     </row>
     <row r="307">
@@ -15055,10 +14653,8 @@
       <c r="L307" t="n">
         <v>0</v>
       </c>
-      <c r="M307" t="inlineStr">
-        <is>
-          <t>Hf-Np-O</t>
-        </is>
+      <c r="M307" t="n">
+        <v>-3.133317581</v>
       </c>
     </row>
     <row r="308">
@@ -15270,10 +14866,8 @@
       <c r="L312" t="n">
         <v>0</v>
       </c>
-      <c r="M312" t="inlineStr">
-        <is>
-          <t>Hf-O-Zn</t>
-        </is>
+      <c r="M312" t="n">
+        <v>-2.44198083125</v>
       </c>
     </row>
     <row r="313">
@@ -15321,10 +14915,8 @@
       <c r="L313" t="n">
         <v>5.8359</v>
       </c>
-      <c r="M313" t="inlineStr">
-        <is>
-          <t>Al-Ho-O</t>
-        </is>
+      <c r="M313" t="n">
+        <v>-3.75636811075</v>
       </c>
     </row>
     <row r="314">
@@ -15366,16 +14958,14 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>mp-1178162</t>
+          <t>mp-770830</t>
         </is>
       </c>
       <c r="L314" t="n">
-        <v>3.1343</v>
-      </c>
-      <c r="M314" t="inlineStr">
-        <is>
-          <t>Bi-Ho-O</t>
-        </is>
+        <v>2.7472</v>
+      </c>
+      <c r="M314" t="n">
+        <v>-2.81250972075</v>
       </c>
     </row>
     <row r="315">
@@ -15423,10 +15013,8 @@
       <c r="L315" t="n">
         <v>0</v>
       </c>
-      <c r="M315" t="inlineStr">
-        <is>
-          <t>Co-Ho-O</t>
-        </is>
+      <c r="M315" t="n">
+        <v>-2.64003413125</v>
       </c>
     </row>
     <row r="316">
@@ -15474,10 +15062,8 @@
       <c r="L316" t="n">
         <v>2.2162</v>
       </c>
-      <c r="M316" t="inlineStr">
-        <is>
-          <t>Cr-Ho-O</t>
-        </is>
+      <c r="M316" t="n">
+        <v>-3.230545818750001</v>
       </c>
     </row>
     <row r="317">
@@ -15525,10 +15111,8 @@
       <c r="L317" t="n">
         <v>0</v>
       </c>
-      <c r="M317" t="inlineStr">
-        <is>
-          <t>Cu-Ho-O</t>
-        </is>
+      <c r="M317" t="n">
+        <v>-2.21809051925</v>
       </c>
     </row>
     <row r="318">
@@ -15576,10 +15160,8 @@
       <c r="L318" t="n">
         <v>1.5675</v>
       </c>
-      <c r="M318" t="inlineStr">
-        <is>
-          <t>Fe-Ho-O</t>
-        </is>
+      <c r="M318" t="n">
+        <v>-2.85887661475</v>
       </c>
     </row>
     <row r="319">
@@ -15627,10 +15209,8 @@
       <c r="L319" t="n">
         <v>2.8722</v>
       </c>
-      <c r="M319" t="inlineStr">
-        <is>
-          <t>Ga-Ho-O</t>
-        </is>
+      <c r="M319" t="n">
+        <v>-3.172185194083333</v>
       </c>
     </row>
     <row r="320">
@@ -15678,10 +15258,8 @@
       <c r="L320" t="n">
         <v>2.5765</v>
       </c>
-      <c r="M320" t="inlineStr">
-        <is>
-          <t>Ho-In-O</t>
-        </is>
+      <c r="M320" t="n">
+        <v>-2.94441655975</v>
       </c>
     </row>
     <row r="321">
@@ -15764,16 +15342,14 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>mp-22081</t>
+          <t>mp-1193069</t>
         </is>
       </c>
       <c r="L322" t="n">
-        <v>0.4351000000000003</v>
-      </c>
-      <c r="M322" t="inlineStr">
-        <is>
-          <t>Ho-Mn-O</t>
-        </is>
+        <v>0.4942000000000002</v>
+      </c>
+      <c r="M322" t="n">
+        <v>-2.756193794836206</v>
       </c>
     </row>
     <row r="323">
@@ -15903,10 +15479,8 @@
       <c r="L325" t="n">
         <v>0</v>
       </c>
-      <c r="M325" t="inlineStr">
-        <is>
-          <t>Ho-Ni-O</t>
-        </is>
+      <c r="M325" t="n">
+        <v>-2.511053879250001</v>
       </c>
     </row>
     <row r="326">
@@ -16077,10 +15651,8 @@
       <c r="L329" t="n">
         <v>0</v>
       </c>
-      <c r="M329" t="inlineStr">
-        <is>
-          <t>Ho-O-Rh</t>
-        </is>
+      <c r="M329" t="n">
+        <v>-1.99051443325</v>
       </c>
     </row>
     <row r="330">
@@ -16169,10 +15741,8 @@
       <c r="L331" t="n">
         <v>0</v>
       </c>
-      <c r="M331" t="inlineStr">
-        <is>
-          <t>Ho-O-Sb</t>
-        </is>
+      <c r="M331" t="n">
+        <v>-1.867529809249999</v>
       </c>
     </row>
     <row r="332">
@@ -16220,10 +15790,8 @@
       <c r="L332" t="n">
         <v>4.476</v>
       </c>
-      <c r="M332" t="inlineStr">
-        <is>
-          <t>Ho-O-Sc</t>
-        </is>
+      <c r="M332" t="n">
+        <v>-3.968887898250001</v>
       </c>
     </row>
     <row r="333">
@@ -16312,10 +15880,8 @@
       <c r="L334" t="n">
         <v>0</v>
       </c>
-      <c r="M334" t="inlineStr">
-        <is>
-          <t>Ho-O-Ti</t>
-        </is>
+      <c r="M334" t="n">
+        <v>-3.639433161416666</v>
       </c>
     </row>
     <row r="335">
@@ -16404,10 +15970,8 @@
       <c r="L336" t="n">
         <v>1.1971</v>
       </c>
-      <c r="M336" t="inlineStr">
-        <is>
-          <t>Ho-O-V</t>
-        </is>
+      <c r="M336" t="n">
+        <v>-3.305158613750001</v>
       </c>
     </row>
     <row r="337">
@@ -16537,10 +16101,8 @@
       <c r="L339" t="n">
         <v>0</v>
       </c>
-      <c r="M339" t="inlineStr">
-        <is>
-          <t>In-O-Ta</t>
-        </is>
+      <c r="M339" t="n">
+        <v>-2.510975249250001</v>
       </c>
     </row>
     <row r="340">
@@ -16746,16 +16308,14 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>mp-29799</t>
+          <t>mp-982040</t>
         </is>
       </c>
       <c r="L344" t="n">
-        <v>0.4914000000000001</v>
-      </c>
-      <c r="M344" t="inlineStr">
-        <is>
-          <t>Bi-K-O</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M344" t="n">
+        <v>-1.49458295985</v>
       </c>
     </row>
     <row r="345">
@@ -16803,10 +16363,8 @@
       <c r="L345" t="n">
         <v>0</v>
       </c>
-      <c r="M345" t="inlineStr">
-        <is>
-          <t>Cr-K-O</t>
-        </is>
+      <c r="M345" t="n">
+        <v>-1.67656559985</v>
       </c>
     </row>
     <row r="346">
@@ -16854,10 +16412,8 @@
       <c r="L346" t="n">
         <v>0</v>
       </c>
-      <c r="M346" t="inlineStr">
-        <is>
-          <t>Hf-K-O</t>
-        </is>
+      <c r="M346" t="n">
+        <v>-2.94818704785</v>
       </c>
     </row>
     <row r="347">
@@ -16905,10 +16461,8 @@
       <c r="L347" t="n">
         <v>0</v>
       </c>
-      <c r="M347" t="inlineStr">
-        <is>
-          <t>Ir-K-O</t>
-        </is>
+      <c r="M347" t="n">
+        <v>-1.514835855183333</v>
       </c>
     </row>
     <row r="348">
@@ -16956,10 +16510,8 @@
       <c r="L348" t="n">
         <v>0</v>
       </c>
-      <c r="M348" t="inlineStr">
-        <is>
-          <t>K-Mn-O</t>
-        </is>
+      <c r="M348" t="n">
+        <v>-1.482474687436208</v>
       </c>
     </row>
     <row r="349">
@@ -17007,10 +16559,8 @@
       <c r="L349" t="n">
         <v>0</v>
       </c>
-      <c r="M349" t="inlineStr">
-        <is>
-          <t>K-Mo-O</t>
-        </is>
+      <c r="M349" t="n">
+        <v>-2.047513583849999</v>
       </c>
     </row>
     <row r="350">
@@ -17052,16 +16602,14 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>mp-4342</t>
+          <t>mp-5246</t>
         </is>
       </c>
       <c r="L350" t="n">
-        <v>1.476</v>
-      </c>
-      <c r="M350" t="inlineStr">
-        <is>
-          <t>K-Nb-O</t>
-        </is>
+        <v>2.0585</v>
+      </c>
+      <c r="M350" t="n">
+        <v>-2.85695064185</v>
       </c>
     </row>
     <row r="351">
@@ -17109,10 +16657,8 @@
       <c r="L351" t="n">
         <v>0</v>
       </c>
-      <c r="M351" t="inlineStr">
-        <is>
-          <t>K-Np-O</t>
-        </is>
+      <c r="M351" t="n">
+        <v>-3.1179980716</v>
       </c>
     </row>
     <row r="352">
@@ -17160,10 +16706,8 @@
       <c r="L352" t="n">
         <v>0</v>
       </c>
-      <c r="M352" t="inlineStr">
-        <is>
-          <t>K-O-Os</t>
-        </is>
+      <c r="M352" t="n">
+        <v>-1.630137101849999</v>
       </c>
     </row>
     <row r="353">
@@ -17211,10 +16755,8 @@
       <c r="L353" t="n">
         <v>3.0477</v>
       </c>
-      <c r="M353" t="inlineStr">
-        <is>
-          <t>K-O-Pa</t>
-        </is>
+      <c r="M353" t="n">
+        <v>-3.56338174985</v>
       </c>
     </row>
     <row r="354">
@@ -17262,10 +16804,8 @@
       <c r="L354" t="n">
         <v>0</v>
       </c>
-      <c r="M354" t="inlineStr">
-        <is>
-          <t>K-O-Pb</t>
-        </is>
+      <c r="M354" t="n">
+        <v>-1.20500409585</v>
       </c>
     </row>
     <row r="355">
@@ -17313,10 +16853,8 @@
       <c r="L355" t="n">
         <v>0</v>
       </c>
-      <c r="M355" t="inlineStr">
-        <is>
-          <t>K-O-Pt</t>
-        </is>
+      <c r="M355" t="n">
+        <v>-0.9556497078499995</v>
       </c>
     </row>
     <row r="356">
@@ -17364,10 +16902,8 @@
       <c r="L356" t="n">
         <v>0</v>
       </c>
-      <c r="M356" t="inlineStr">
-        <is>
-          <t>K-O-Pu</t>
-        </is>
+      <c r="M356" t="n">
+        <v>-3.02093993785</v>
       </c>
     </row>
     <row r="357">
@@ -17415,10 +16951,8 @@
       <c r="L357" t="n">
         <v>0</v>
       </c>
-      <c r="M357" t="inlineStr">
-        <is>
-          <t>K-O-Re</t>
-        </is>
+      <c r="M357" t="n">
+        <v>-2.08751755685</v>
       </c>
     </row>
     <row r="358">
@@ -17466,10 +17000,8 @@
       <c r="L358" t="n">
         <v>0</v>
       </c>
-      <c r="M358" t="inlineStr">
-        <is>
-          <t>K-O-Rh</t>
-        </is>
+      <c r="M358" t="n">
+        <v>-1.18918986585</v>
       </c>
     </row>
     <row r="359">
@@ -17517,10 +17049,8 @@
       <c r="L359" t="n">
         <v>0</v>
       </c>
-      <c r="M359" t="inlineStr">
-        <is>
-          <t>K-O-Ru</t>
-        </is>
+      <c r="M359" t="n">
+        <v>-1.53793592985</v>
       </c>
     </row>
     <row r="360">
@@ -17568,10 +17098,8 @@
       <c r="L360" t="n">
         <v>2.6808</v>
       </c>
-      <c r="M360" t="inlineStr">
-        <is>
-          <t>K-O-Sb</t>
-        </is>
+      <c r="M360" t="n">
+        <v>-2.05408470485</v>
       </c>
     </row>
     <row r="361">
@@ -17660,10 +17188,8 @@
       <c r="L362" t="n">
         <v>2.0995</v>
       </c>
-      <c r="M362" t="inlineStr">
-        <is>
-          <t>K-O-Ta</t>
-        </is>
+      <c r="M362" t="n">
+        <v>-3.07837537185</v>
       </c>
     </row>
     <row r="363">
@@ -17711,10 +17237,8 @@
       <c r="L363" t="n">
         <v>2.0995</v>
       </c>
-      <c r="M363" t="inlineStr">
-        <is>
-          <t>K-O-Ta</t>
-        </is>
+      <c r="M363" t="n">
+        <v>-3.07837537185</v>
       </c>
     </row>
     <row r="364">
@@ -17762,10 +17286,8 @@
       <c r="L364" t="n">
         <v>0</v>
       </c>
-      <c r="M364" t="inlineStr">
-        <is>
-          <t>K-O-Tc</t>
-        </is>
+      <c r="M364" t="n">
+        <v>-1.987450188850001</v>
       </c>
     </row>
     <row r="365">
@@ -17807,16 +17329,14 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>mp-760376</t>
+          <t>mp-1180658</t>
         </is>
       </c>
       <c r="L365" t="n">
         <v>0</v>
       </c>
-      <c r="M365" t="inlineStr">
-        <is>
-          <t>K-O-Ti</t>
-        </is>
+      <c r="M365" t="n">
+        <v>-2.657498189016667</v>
       </c>
     </row>
     <row r="366">
@@ -17864,10 +17384,8 @@
       <c r="L366" t="n">
         <v>0.4454000000000002</v>
       </c>
-      <c r="M366" t="inlineStr">
-        <is>
-          <t>K-O-U</t>
-        </is>
+      <c r="M366" t="n">
+        <v>-3.34006742185</v>
       </c>
     </row>
     <row r="367">
@@ -17909,16 +17427,14 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>mp-18815</t>
+          <t>mp-1076633</t>
         </is>
       </c>
       <c r="L367" t="n">
-        <v>3.046</v>
-      </c>
-      <c r="M367" t="inlineStr">
-        <is>
-          <t>K-O-V</t>
-        </is>
+        <v>0.2186000000000003</v>
+      </c>
+      <c r="M367" t="n">
+        <v>-2.194717487850001</v>
       </c>
     </row>
     <row r="368">
@@ -17966,10 +17482,8 @@
       <c r="L368" t="n">
         <v>0</v>
       </c>
-      <c r="M368" t="inlineStr">
-        <is>
-          <t>K-O-W</t>
-        </is>
+      <c r="M368" t="n">
+        <v>-2.138646125850001</v>
       </c>
     </row>
     <row r="369">
@@ -18017,10 +17531,8 @@
       <c r="L369" t="n">
         <v>0</v>
       </c>
-      <c r="M369" t="inlineStr">
-        <is>
-          <t>K-O-Zr</t>
-        </is>
+      <c r="M369" t="n">
+        <v>-2.799969929849999</v>
       </c>
     </row>
     <row r="370">
@@ -18062,16 +17574,14 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>mp-780422</t>
+          <t>mp-5304</t>
         </is>
       </c>
       <c r="L370" t="n">
-        <v>4.403700000000001</v>
-      </c>
-      <c r="M370" t="inlineStr">
-        <is>
-          <t>Al-La-O</t>
-        </is>
+        <v>3.4924</v>
+      </c>
+      <c r="M370" t="n">
+        <v>-3.71616823825</v>
       </c>
     </row>
     <row r="371">
@@ -18113,16 +17623,14 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>mp-780422</t>
+          <t>mp-5304</t>
         </is>
       </c>
       <c r="L371" t="n">
-        <v>4.403700000000001</v>
-      </c>
-      <c r="M371" t="inlineStr">
-        <is>
-          <t>Al-La-O</t>
-        </is>
+        <v>3.4924</v>
+      </c>
+      <c r="M371" t="n">
+        <v>-3.71616823825</v>
       </c>
     </row>
     <row r="372">
@@ -18170,10 +17678,8 @@
       <c r="L372" t="n">
         <v>2.400399999999999</v>
       </c>
-      <c r="M372" t="inlineStr">
-        <is>
-          <t>Bi-La-O</t>
-        </is>
+      <c r="M372" t="n">
+        <v>-2.73904777525</v>
       </c>
     </row>
     <row r="373">
@@ -18215,16 +17721,14 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>mp-1181307</t>
+          <t>mp-1504268</t>
         </is>
       </c>
       <c r="L373" t="n">
-        <v>0</v>
-      </c>
-      <c r="M373" t="inlineStr">
-        <is>
-          <t>Co-La-O</t>
-        </is>
+        <v>0.9398</v>
+      </c>
+      <c r="M373" t="n">
+        <v>-2.55056405325</v>
       </c>
     </row>
     <row r="374">
@@ -18266,16 +17770,14 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>mp-19281</t>
+          <t>mp-19357</t>
         </is>
       </c>
       <c r="L374" t="n">
-        <v>1.913800000000001</v>
-      </c>
-      <c r="M374" t="inlineStr">
-        <is>
-          <t>Cr-La-O</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M374" t="n">
+        <v>-3.189960296250001</v>
       </c>
     </row>
     <row r="375">
@@ -18323,10 +17825,8 @@
       <c r="L375" t="n">
         <v>0</v>
       </c>
-      <c r="M375" t="inlineStr">
-        <is>
-          <t>Cu-La-O</t>
-        </is>
+      <c r="M375" t="n">
+        <v>-2.400398082250001</v>
       </c>
     </row>
     <row r="376">
@@ -18368,16 +17868,14 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>mp-1181002</t>
+          <t>mp-605340</t>
         </is>
       </c>
       <c r="L376" t="n">
-        <v>1.2424</v>
-      </c>
-      <c r="M376" t="inlineStr">
-        <is>
-          <t>Fe-La-O</t>
-        </is>
+        <v>1.4672</v>
+      </c>
+      <c r="M376" t="n">
+        <v>-2.561796294750001</v>
       </c>
     </row>
     <row r="377">
@@ -18425,10 +17923,8 @@
       <c r="L377" t="n">
         <v>3.365900000000001</v>
       </c>
-      <c r="M377" t="inlineStr">
-        <is>
-          <t>Ga-La-O</t>
-        </is>
+      <c r="M377" t="n">
+        <v>-3.03491874175</v>
       </c>
     </row>
     <row r="378">
@@ -18476,10 +17972,8 @@
       <c r="L378" t="n">
         <v>3.365900000000001</v>
       </c>
-      <c r="M378" t="inlineStr">
-        <is>
-          <t>Ga-La-O</t>
-        </is>
+      <c r="M378" t="n">
+        <v>-3.03491874175</v>
       </c>
     </row>
     <row r="379">
@@ -18568,10 +18062,8 @@
       <c r="L380" t="n">
         <v>2.7507</v>
       </c>
-      <c r="M380" t="inlineStr">
-        <is>
-          <t>In-La-O</t>
-        </is>
+      <c r="M380" t="n">
+        <v>-2.93055308025</v>
       </c>
     </row>
     <row r="381">
@@ -18660,10 +18152,8 @@
       <c r="L382" t="n">
         <v>0</v>
       </c>
-      <c r="M382" t="inlineStr">
-        <is>
-          <t>La-Mg-O</t>
-        </is>
+      <c r="M382" t="n">
+        <v>-2.95014835225</v>
       </c>
     </row>
     <row r="383">
@@ -18705,16 +18195,14 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>mp-1272373</t>
+          <t>mp-1205375</t>
         </is>
       </c>
       <c r="L383" t="n">
-        <v>0.5803000000000003</v>
-      </c>
-      <c r="M383" t="inlineStr">
-        <is>
-          <t>La-Mn-O</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M383" t="n">
+        <v>-2.968812103836207</v>
       </c>
     </row>
     <row r="384">
@@ -18838,16 +18326,14 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>mp-19339</t>
+          <t>mp-1284950</t>
         </is>
       </c>
       <c r="L386" t="n">
-        <v>0</v>
-      </c>
-      <c r="M386" t="inlineStr">
-        <is>
-          <t>La-Ni-O</t>
-        </is>
+        <v>0.3559999999999999</v>
+      </c>
+      <c r="M386" t="n">
+        <v>-2.45257952275</v>
       </c>
     </row>
     <row r="387">
@@ -18889,16 +18375,14 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>mp-19339</t>
+          <t>mp-1284950</t>
         </is>
       </c>
       <c r="L387" t="n">
-        <v>0</v>
-      </c>
-      <c r="M387" t="inlineStr">
-        <is>
-          <t>La-Ni-O</t>
-        </is>
+        <v>0.3559999999999999</v>
+      </c>
+      <c r="M387" t="n">
+        <v>-2.45257952275</v>
       </c>
     </row>
     <row r="388">
@@ -18987,10 +18471,8 @@
       <c r="L389" t="n">
         <v>0</v>
       </c>
-      <c r="M389" t="inlineStr">
-        <is>
-          <t>La-O-Pd</t>
-        </is>
+      <c r="M389" t="n">
+        <v>-2.362996207250001</v>
       </c>
     </row>
     <row r="390">
@@ -19038,10 +18520,8 @@
       <c r="L390" t="n">
         <v>0</v>
       </c>
-      <c r="M390" t="inlineStr">
-        <is>
-          <t>La-O-Pt</t>
-        </is>
+      <c r="M390" t="n">
+        <v>-2.01659465025</v>
       </c>
     </row>
     <row r="391">
@@ -19130,10 +18610,8 @@
       <c r="L392" t="n">
         <v>0.5939999999999994</v>
       </c>
-      <c r="M392" t="inlineStr">
-        <is>
-          <t>La-O-Rh</t>
-        </is>
+      <c r="M392" t="n">
+        <v>-2.545773302250001</v>
       </c>
     </row>
     <row r="393">
@@ -19181,10 +18659,8 @@
       <c r="L393" t="n">
         <v>0</v>
       </c>
-      <c r="M393" t="inlineStr">
-        <is>
-          <t>La-O-Ru</t>
-        </is>
+      <c r="M393" t="n">
+        <v>-2.56086715375</v>
       </c>
     </row>
     <row r="394">
@@ -19273,10 +18749,8 @@
       <c r="L395" t="n">
         <v>2.8177</v>
       </c>
-      <c r="M395" t="inlineStr">
-        <is>
-          <t>La-O-Sc</t>
-        </is>
+      <c r="M395" t="n">
+        <v>-3.74724493125</v>
       </c>
     </row>
     <row r="396">
@@ -19324,10 +18798,8 @@
       <c r="L396" t="n">
         <v>2.8177</v>
       </c>
-      <c r="M396" t="inlineStr">
-        <is>
-          <t>La-O-Sc</t>
-        </is>
+      <c r="M396" t="n">
+        <v>-3.74724493125</v>
       </c>
     </row>
     <row r="397">
@@ -19375,10 +18847,8 @@
       <c r="L397" t="n">
         <v>0</v>
       </c>
-      <c r="M397" t="inlineStr">
-        <is>
-          <t>La-O-Ta</t>
-        </is>
+      <c r="M397" t="n">
+        <v>-3.131598412250001</v>
       </c>
     </row>
     <row r="398">
@@ -19426,10 +18896,8 @@
       <c r="L398" t="n">
         <v>0</v>
       </c>
-      <c r="M398" t="inlineStr">
-        <is>
-          <t>La-O-Ti</t>
-        </is>
+      <c r="M398" t="n">
+        <v>-3.640449205916667</v>
       </c>
     </row>
     <row r="399">
@@ -19477,10 +18945,8 @@
       <c r="L399" t="n">
         <v>0</v>
       </c>
-      <c r="M399" t="inlineStr">
-        <is>
-          <t>La-O-Ti</t>
-        </is>
+      <c r="M399" t="n">
+        <v>-3.640449205916667</v>
       </c>
     </row>
     <row r="400">
@@ -19563,16 +19029,14 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>mp-19053</t>
+          <t>mp-19350</t>
         </is>
       </c>
       <c r="L401" t="n">
         <v>0</v>
       </c>
-      <c r="M401" t="inlineStr">
-        <is>
-          <t>La-O-V</t>
-        </is>
+      <c r="M401" t="n">
+        <v>-3.28006582725</v>
       </c>
     </row>
     <row r="402">
@@ -19620,10 +19084,8 @@
       <c r="L402" t="n">
         <v>0</v>
       </c>
-      <c r="M402" t="inlineStr">
-        <is>
-          <t>La-O-Zn</t>
-        </is>
+      <c r="M402" t="n">
+        <v>-2.523604560249999</v>
       </c>
     </row>
     <row r="403">
@@ -19712,10 +19174,8 @@
       <c r="L404" t="n">
         <v>0</v>
       </c>
-      <c r="M404" t="inlineStr">
-        <is>
-          <t>Li-O-Si</t>
-        </is>
+      <c r="M404" t="n">
+        <v>-2.395005085916666</v>
       </c>
     </row>
     <row r="405">
@@ -19886,10 +19346,8 @@
       <c r="L408" t="n">
         <v>3.6479</v>
       </c>
-      <c r="M408" t="inlineStr">
-        <is>
-          <t>Al-Lu-O</t>
-        </is>
+      <c r="M408" t="n">
+        <v>-3.744302278249999</v>
       </c>
     </row>
     <row r="409">
@@ -19937,10 +19395,8 @@
       <c r="L409" t="n">
         <v>3.1586</v>
       </c>
-      <c r="M409" t="inlineStr">
-        <is>
-          <t>Bi-Lu-O</t>
-        </is>
+      <c r="M409" t="n">
+        <v>-2.86583291825</v>
       </c>
     </row>
     <row r="410">
@@ -19988,10 +19444,8 @@
       <c r="L410" t="n">
         <v>0</v>
       </c>
-      <c r="M410" t="inlineStr">
-        <is>
-          <t>Co-Lu-O</t>
-        </is>
+      <c r="M410" t="n">
+        <v>-2.64559446825</v>
       </c>
     </row>
     <row r="411">
@@ -20039,10 +19493,8 @@
       <c r="L411" t="n">
         <v>2.2649</v>
       </c>
-      <c r="M411" t="inlineStr">
-        <is>
-          <t>Cr-Lu-O</t>
-        </is>
+      <c r="M411" t="n">
+        <v>-3.25458431475</v>
       </c>
     </row>
     <row r="412">
@@ -20131,10 +19583,8 @@
       <c r="L413" t="n">
         <v>0</v>
       </c>
-      <c r="M413" t="inlineStr">
-        <is>
-          <t>Fe-Lu-O</t>
-        </is>
+      <c r="M413" t="n">
+        <v>-2.902546843583333</v>
       </c>
     </row>
     <row r="414">
@@ -20176,16 +19626,14 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>mp-755792</t>
+          <t>mp-768505</t>
         </is>
       </c>
       <c r="L414" t="n">
-        <v>3.6376</v>
-      </c>
-      <c r="M414" t="inlineStr">
-        <is>
-          <t>Ga-Lu-O</t>
-        </is>
+        <v>2.8828</v>
+      </c>
+      <c r="M414" t="n">
+        <v>-3.220843054083333</v>
       </c>
     </row>
     <row r="415">
@@ -20315,10 +19763,8 @@
       <c r="L417" t="n">
         <v>0</v>
       </c>
-      <c r="M417" t="inlineStr">
-        <is>
-          <t>Lu-Mn-O</t>
-        </is>
+      <c r="M417" t="n">
+        <v>-3.111317260502873</v>
       </c>
     </row>
     <row r="418">
@@ -20448,10 +19894,8 @@
       <c r="L420" t="n">
         <v>0</v>
       </c>
-      <c r="M420" t="inlineStr">
-        <is>
-          <t>Lu-Ni-O</t>
-        </is>
+      <c r="M420" t="n">
+        <v>-2.536371723749999</v>
       </c>
     </row>
     <row r="421">
@@ -20499,10 +19943,8 @@
       <c r="L421" t="n">
         <v>0.04929999999999968</v>
       </c>
-      <c r="M421" t="inlineStr">
-        <is>
-          <t>Lu-Np-O</t>
-        </is>
+      <c r="M421" t="n">
+        <v>-3.108341951000001</v>
       </c>
     </row>
     <row r="422">
@@ -20550,10 +19992,8 @@
       <c r="L422" t="n">
         <v>0</v>
       </c>
-      <c r="M422" t="inlineStr">
-        <is>
-          <t>Lu-O-Pd</t>
-        </is>
+      <c r="M422" t="n">
+        <v>-1.754800533249999</v>
       </c>
     </row>
     <row r="423">
@@ -20642,10 +20082,8 @@
       <c r="L424" t="n">
         <v>0</v>
       </c>
-      <c r="M424" t="inlineStr">
-        <is>
-          <t>Lu-O-Rh</t>
-        </is>
+      <c r="M424" t="n">
+        <v>-1.88940016325</v>
       </c>
     </row>
     <row r="425">
@@ -20775,10 +20213,8 @@
       <c r="L427" t="n">
         <v>4.5878</v>
       </c>
-      <c r="M427" t="inlineStr">
-        <is>
-          <t>Lu-O-Sc</t>
-        </is>
+      <c r="M427" t="n">
+        <v>-3.98370952225</v>
       </c>
     </row>
     <row r="428">
@@ -20867,10 +20303,8 @@
       <c r="L429" t="n">
         <v>0</v>
       </c>
-      <c r="M429" t="inlineStr">
-        <is>
-          <t>Lu-O-Ti</t>
-        </is>
+      <c r="M429" t="n">
+        <v>-3.655254455916668</v>
       </c>
     </row>
     <row r="430">
@@ -20918,10 +20352,8 @@
       <c r="L430" t="n">
         <v>0</v>
       </c>
-      <c r="M430" t="inlineStr">
-        <is>
-          <t>Lu-O-U</t>
-        </is>
+      <c r="M430" t="n">
+        <v>-3.050108803250001</v>
       </c>
     </row>
     <row r="431">
@@ -20969,10 +20401,8 @@
       <c r="L431" t="n">
         <v>1.5725</v>
       </c>
-      <c r="M431" t="inlineStr">
-        <is>
-          <t>Lu-O-V</t>
-        </is>
+      <c r="M431" t="n">
+        <v>-3.324302644750001</v>
       </c>
     </row>
     <row r="432">
@@ -21020,10 +20450,8 @@
       <c r="L432" t="n">
         <v>0</v>
       </c>
-      <c r="M432" t="inlineStr">
-        <is>
-          <t>Al-Mg-O</t>
-        </is>
+      <c r="M432" t="n">
+        <v>-2.544115593249999</v>
       </c>
     </row>
     <row r="433">
@@ -21317,10 +20745,8 @@
       <c r="L439" t="n">
         <v>1.0964</v>
       </c>
-      <c r="M439" t="inlineStr">
-        <is>
-          <t>Bi-Na-O</t>
-        </is>
+      <c r="M439" t="n">
+        <v>-1.594772216560345</v>
       </c>
     </row>
     <row r="440">
@@ -21368,10 +20794,8 @@
       <c r="L440" t="n">
         <v>0</v>
       </c>
-      <c r="M440" t="inlineStr">
-        <is>
-          <t>Cr-Na-O</t>
-        </is>
+      <c r="M440" t="n">
+        <v>-1.712742398560344</v>
       </c>
     </row>
     <row r="441">
@@ -21460,10 +20884,8 @@
       <c r="L442" t="n">
         <v>0</v>
       </c>
-      <c r="M442" t="inlineStr">
-        <is>
-          <t>Ir-Na-O</t>
-        </is>
+      <c r="M442" t="n">
+        <v>-1.476474659560345</v>
       </c>
     </row>
     <row r="443">
@@ -21546,16 +20968,14 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>mp-1040471</t>
+          <t>mp-998627</t>
         </is>
       </c>
       <c r="L444" t="n">
         <v>0</v>
       </c>
-      <c r="M444" t="inlineStr">
-        <is>
-          <t>Mo-Na-O</t>
-        </is>
+      <c r="M444" t="n">
+        <v>-2.027619515560345</v>
       </c>
     </row>
     <row r="445">
@@ -21597,16 +21017,14 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>mp-4748</t>
+          <t>mp-558920</t>
         </is>
       </c>
       <c r="L445" t="n">
-        <v>1.8238</v>
-      </c>
-      <c r="M445" t="inlineStr">
-        <is>
-          <t>Na-Nb-O</t>
-        </is>
+        <v>2.4364</v>
+      </c>
+      <c r="M445" t="n">
+        <v>-2.831820829310344</v>
       </c>
     </row>
     <row r="446">
@@ -21695,10 +21113,8 @@
       <c r="L447" t="n">
         <v>0</v>
       </c>
-      <c r="M447" t="inlineStr">
-        <is>
-          <t>Na-O-Os</t>
-        </is>
+      <c r="M447" t="n">
+        <v>-1.639731217560346</v>
       </c>
     </row>
     <row r="448">
@@ -21787,10 +21203,8 @@
       <c r="L449" t="n">
         <v>0</v>
       </c>
-      <c r="M449" t="inlineStr">
-        <is>
-          <t>Na-O-Pu</t>
-        </is>
+      <c r="M449" t="n">
+        <v>-2.927076472560344</v>
       </c>
     </row>
     <row r="450">
@@ -21838,10 +21252,8 @@
       <c r="L450" t="n">
         <v>0</v>
       </c>
-      <c r="M450" t="inlineStr">
-        <is>
-          <t>Na-O-Re</t>
-        </is>
+      <c r="M450" t="n">
+        <v>-2.077873195560345</v>
       </c>
     </row>
     <row r="451">
@@ -21930,10 +21342,8 @@
       <c r="L452" t="n">
         <v>0</v>
       </c>
-      <c r="M452" t="inlineStr">
-        <is>
-          <t>Na-O-Ru</t>
-        </is>
+      <c r="M452" t="n">
+        <v>-1.523224144560345</v>
       </c>
     </row>
     <row r="453">
@@ -21975,16 +21385,14 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>mp-20011</t>
+          <t>mp-752755</t>
         </is>
       </c>
       <c r="L453" t="n">
-        <v>1.4696</v>
-      </c>
-      <c r="M453" t="inlineStr">
-        <is>
-          <t>Na-O-Sb</t>
-        </is>
+        <v>1.7037</v>
+      </c>
+      <c r="M453" t="n">
+        <v>-2.009850923060345</v>
       </c>
     </row>
     <row r="454">
@@ -22067,16 +21475,14 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>mp-754818</t>
+          <t>mp-4699</t>
         </is>
       </c>
       <c r="L455" t="n">
-        <v>2.7139</v>
-      </c>
-      <c r="M455" t="inlineStr">
-        <is>
-          <t>Na-O-Ta</t>
-        </is>
+        <v>2.5313</v>
+      </c>
+      <c r="M455" t="n">
+        <v>-3.068037457560345</v>
       </c>
     </row>
     <row r="456">
@@ -22124,10 +21530,8 @@
       <c r="L456" t="n">
         <v>0</v>
       </c>
-      <c r="M456" t="inlineStr">
-        <is>
-          <t>Na-O-Tc</t>
-        </is>
+      <c r="M456" t="n">
+        <v>-1.976667513560345</v>
       </c>
     </row>
     <row r="457">
@@ -22175,10 +21579,8 @@
       <c r="L457" t="n">
         <v>0</v>
       </c>
-      <c r="M457" t="inlineStr">
-        <is>
-          <t>Na-O-Ti</t>
-        </is>
+      <c r="M457" t="n">
+        <v>-2.644411223227012</v>
       </c>
     </row>
     <row r="458">
@@ -22226,10 +21628,8 @@
       <c r="L458" t="n">
         <v>0.3701999999999996</v>
       </c>
-      <c r="M458" t="inlineStr">
-        <is>
-          <t>Na-O-U</t>
-        </is>
+      <c r="M458" t="n">
+        <v>-3.291964969060344</v>
       </c>
     </row>
     <row r="459">
@@ -22271,16 +21671,14 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>mp-555665</t>
+          <t>mp-763901</t>
         </is>
       </c>
       <c r="L459" t="n">
-        <v>3.0358</v>
-      </c>
-      <c r="M459" t="inlineStr">
-        <is>
-          <t>Na-O-V</t>
-        </is>
+        <v>2.9798</v>
+      </c>
+      <c r="M459" t="n">
+        <v>-2.337336709560346</v>
       </c>
     </row>
     <row r="460">
@@ -22328,10 +21726,8 @@
       <c r="L460" t="n">
         <v>0</v>
       </c>
-      <c r="M460" t="inlineStr">
-        <is>
-          <t>Na-O-W</t>
-        </is>
+      <c r="M460" t="n">
+        <v>-2.111564838560345</v>
       </c>
     </row>
     <row r="461">
@@ -22414,16 +21810,14 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>mp-14254</t>
+          <t>mp-5899</t>
         </is>
       </c>
       <c r="L462" t="n">
-        <v>2.863600000000001</v>
-      </c>
-      <c r="M462" t="inlineStr">
-        <is>
-          <t>Al-Nd-O</t>
-        </is>
+        <v>4.353999999999999</v>
+      </c>
+      <c r="M462" t="n">
+        <v>-3.67323355775</v>
       </c>
     </row>
     <row r="463">
@@ -22471,10 +21865,8 @@
       <c r="L463" t="n">
         <v>0</v>
       </c>
-      <c r="M463" t="inlineStr">
-        <is>
-          <t>Bi-Nd-O</t>
-        </is>
+      <c r="M463" t="n">
+        <v>-1.896071260749999</v>
       </c>
     </row>
     <row r="464">
@@ -22522,10 +21914,8 @@
       <c r="L464" t="n">
         <v>0.7914000000000003</v>
       </c>
-      <c r="M464" t="inlineStr">
-        <is>
-          <t>Co-Nd-O</t>
-        </is>
+      <c r="M464" t="n">
+        <v>-2.448593789749999</v>
       </c>
     </row>
     <row r="465">
@@ -22573,10 +21963,8 @@
       <c r="L465" t="n">
         <v>1.904</v>
       </c>
-      <c r="M465" t="inlineStr">
-        <is>
-          <t>Cr-Nd-O</t>
-        </is>
+      <c r="M465" t="n">
+        <v>-2.999491964750001</v>
       </c>
     </row>
     <row r="466">
@@ -22624,10 +22012,8 @@
       <c r="L466" t="n">
         <v>0.1229999999999998</v>
       </c>
-      <c r="M466" t="inlineStr">
-        <is>
-          <t>Cu-Nd-O</t>
-        </is>
+      <c r="M466" t="n">
+        <v>-2.384110295249999</v>
       </c>
     </row>
     <row r="467">
@@ -22675,10 +22061,8 @@
       <c r="L467" t="n">
         <v>1.0842</v>
       </c>
-      <c r="M467" t="inlineStr">
-        <is>
-          <t>Fe-Nd-O</t>
-        </is>
+      <c r="M467" t="n">
+        <v>-2.77716934675</v>
       </c>
     </row>
     <row r="468">
@@ -22726,10 +22110,8 @@
       <c r="L468" t="n">
         <v>0</v>
       </c>
-      <c r="M468" t="inlineStr">
-        <is>
-          <t>Ga-Nd-O</t>
-        </is>
+      <c r="M468" t="n">
+        <v>-1.621826076249999</v>
       </c>
     </row>
     <row r="469">
@@ -22777,10 +22159,8 @@
       <c r="L469" t="n">
         <v>0</v>
       </c>
-      <c r="M469" t="inlineStr">
-        <is>
-          <t>Ge-Nd-O</t>
-        </is>
+      <c r="M469" t="n">
+        <v>-2.49217649975</v>
       </c>
     </row>
     <row r="470">
@@ -22822,16 +22202,14 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>mp-755138</t>
+          <t>mp-1186316</t>
         </is>
       </c>
       <c r="L470" t="n">
-        <v>2.6533</v>
-      </c>
-      <c r="M470" t="inlineStr">
-        <is>
-          <t>In-Nd-O</t>
-        </is>
+        <v>1.6468</v>
+      </c>
+      <c r="M470" t="n">
+        <v>-2.465222510749999</v>
       </c>
     </row>
     <row r="471">
@@ -22914,16 +22292,14 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>mp-20852</t>
+          <t>mp-1182197</t>
         </is>
       </c>
       <c r="L472" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="M472" t="inlineStr">
-        <is>
-          <t>Mn-Nd-O</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M472" t="n">
+        <v>1.006812335163793</v>
       </c>
     </row>
     <row r="473">
@@ -23053,10 +22429,8 @@
       <c r="L475" t="n">
         <v>0</v>
       </c>
-      <c r="M475" t="inlineStr">
-        <is>
-          <t>Nd-Ni-O</t>
-        </is>
+      <c r="M475" t="n">
+        <v>-2.426030087250001</v>
       </c>
     </row>
     <row r="476">
@@ -23104,10 +22478,8 @@
       <c r="L476" t="n">
         <v>0</v>
       </c>
-      <c r="M476" t="inlineStr">
-        <is>
-          <t>Nd-Np-O</t>
-        </is>
+      <c r="M476" t="n">
+        <v>-2.4749769485</v>
       </c>
     </row>
     <row r="477">
@@ -23319,10 +22691,8 @@
       <c r="L481" t="n">
         <v>0</v>
       </c>
-      <c r="M481" t="inlineStr">
-        <is>
-          <t>Nd-O-Re</t>
-        </is>
+      <c r="M481" t="n">
+        <v>-2.210747465750001</v>
       </c>
     </row>
     <row r="482">
@@ -23370,10 +22740,8 @@
       <c r="L482" t="n">
         <v>0.6487000000000007</v>
       </c>
-      <c r="M482" t="inlineStr">
-        <is>
-          <t>Nd-O-Rh</t>
-        </is>
+      <c r="M482" t="n">
+        <v>-2.495925800250001</v>
       </c>
     </row>
     <row r="483">
@@ -23462,10 +22830,8 @@
       <c r="L484" t="n">
         <v>0</v>
       </c>
-      <c r="M484" t="inlineStr">
-        <is>
-          <t>Nd-O-Sb</t>
-        </is>
+      <c r="M484" t="n">
+        <v>-2.076262824749999</v>
       </c>
     </row>
     <row r="485">
@@ -23513,10 +22879,8 @@
       <c r="L485" t="n">
         <v>4.3025</v>
       </c>
-      <c r="M485" t="inlineStr">
-        <is>
-          <t>Nd-O-Sc</t>
-        </is>
+      <c r="M485" t="n">
+        <v>-3.897227354249999</v>
       </c>
     </row>
     <row r="486">
@@ -23605,10 +22969,8 @@
       <c r="L487" t="n">
         <v>0</v>
       </c>
-      <c r="M487" t="inlineStr">
-        <is>
-          <t>Nd-O-Ta</t>
-        </is>
+      <c r="M487" t="n">
+        <v>-2.977553470750001</v>
       </c>
     </row>
     <row r="488">
@@ -23738,10 +23100,8 @@
       <c r="L490" t="n">
         <v>0</v>
       </c>
-      <c r="M490" t="inlineStr">
-        <is>
-          <t>Nd-O-Ti</t>
-        </is>
+      <c r="M490" t="n">
+        <v>-3.567693913416667</v>
       </c>
     </row>
     <row r="491">
@@ -23830,10 +23190,8 @@
       <c r="L492" t="n">
         <v>0</v>
       </c>
-      <c r="M492" t="inlineStr">
-        <is>
-          <t>Nd-O-V</t>
-        </is>
+      <c r="M492" t="n">
+        <v>-2.998814206750001</v>
       </c>
     </row>
     <row r="493">
@@ -23922,10 +23280,8 @@
       <c r="L494" t="n">
         <v>0</v>
       </c>
-      <c r="M494" t="inlineStr">
-        <is>
-          <t>Nd-O-Zr</t>
-        </is>
+      <c r="M494" t="n">
+        <v>-3.45032085775</v>
       </c>
     </row>
     <row r="495">
@@ -23967,16 +23323,14 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>mp-1178420</t>
+          <t>mp-755569</t>
         </is>
       </c>
       <c r="L495" t="n">
         <v>0</v>
       </c>
-      <c r="M495" t="inlineStr">
-        <is>
-          <t>Co-O-Pb</t>
-        </is>
+      <c r="M495" t="n">
+        <v>-1.19654879675</v>
       </c>
     </row>
     <row r="496">
@@ -24024,10 +23378,8 @@
       <c r="L496" t="n">
         <v>0</v>
       </c>
-      <c r="M496" t="inlineStr">
-        <is>
-          <t>Cr-O-Pb</t>
-        </is>
+      <c r="M496" t="n">
+        <v>-1.73876656525</v>
       </c>
     </row>
     <row r="497">
@@ -24075,10 +23427,8 @@
       <c r="L497" t="n">
         <v>0</v>
       </c>
-      <c r="M497" t="inlineStr">
-        <is>
-          <t>Cu-O-Pb</t>
-        </is>
+      <c r="M497" t="n">
+        <v>-0.9185947112500003</v>
       </c>
     </row>
     <row r="498">
@@ -24126,10 +23476,8 @@
       <c r="L498" t="n">
         <v>0</v>
       </c>
-      <c r="M498" t="inlineStr">
-        <is>
-          <t>Fe-O-Pb</t>
-        </is>
+      <c r="M498" t="n">
+        <v>-1.357449325249999</v>
       </c>
     </row>
     <row r="499">
@@ -24177,10 +23525,8 @@
       <c r="L499" t="n">
         <v>0</v>
       </c>
-      <c r="M499" t="inlineStr">
-        <is>
-          <t>Ge-O-Pb</t>
-        </is>
+      <c r="M499" t="n">
+        <v>-1.71223558625</v>
       </c>
     </row>
     <row r="500">
@@ -24269,10 +23615,8 @@
       <c r="L501" t="n">
         <v>0</v>
       </c>
-      <c r="M501" t="inlineStr">
-        <is>
-          <t>Mg-O-Pb</t>
-        </is>
+      <c r="M501" t="n">
+        <v>-1.50117839525</v>
       </c>
     </row>
     <row r="502">
@@ -24320,10 +23664,8 @@
       <c r="L502" t="n">
         <v>0</v>
       </c>
-      <c r="M502" t="inlineStr">
-        <is>
-          <t>Mn-O-Pb</t>
-        </is>
+      <c r="M502" t="n">
+        <v>-1.638992000836208</v>
       </c>
     </row>
     <row r="503">
@@ -24371,10 +23713,8 @@
       <c r="L503" t="n">
         <v>0</v>
       </c>
-      <c r="M503" t="inlineStr">
-        <is>
-          <t>Mo-O-Pb</t>
-        </is>
+      <c r="M503" t="n">
+        <v>-1.683934785249999</v>
       </c>
     </row>
     <row r="504">
@@ -24457,16 +23797,14 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>mp-974108</t>
+          <t>mp-1078668</t>
         </is>
       </c>
       <c r="L505" t="n">
         <v>0</v>
       </c>
-      <c r="M505" t="inlineStr">
-        <is>
-          <t>Ni-O-Pb</t>
-        </is>
+      <c r="M505" t="n">
+        <v>-1.29008557325</v>
       </c>
     </row>
     <row r="506">
@@ -24555,10 +23893,8 @@
       <c r="L507" t="n">
         <v>0</v>
       </c>
-      <c r="M507" t="inlineStr">
-        <is>
-          <t>O-Os-Pb</t>
-        </is>
+      <c r="M507" t="n">
+        <v>-1.401314235250001</v>
       </c>
     </row>
     <row r="508">
@@ -24688,10 +24024,8 @@
       <c r="L510" t="n">
         <v>0</v>
       </c>
-      <c r="M510" t="inlineStr">
-        <is>
-          <t>O-Pb-Pu</t>
-        </is>
+      <c r="M510" t="n">
+        <v>-2.564121099250001</v>
       </c>
     </row>
     <row r="511">
@@ -24821,10 +24155,8 @@
       <c r="L513" t="n">
         <v>0</v>
       </c>
-      <c r="M513" t="inlineStr">
-        <is>
-          <t>O-Pb-Ru</t>
-        </is>
+      <c r="M513" t="n">
+        <v>-1.305953689250001</v>
       </c>
     </row>
     <row r="514">
@@ -24872,10 +24204,8 @@
       <c r="L514" t="n">
         <v>0</v>
       </c>
-      <c r="M514" t="inlineStr">
-        <is>
-          <t>O-Pb-Sn</t>
-        </is>
+      <c r="M514" t="n">
+        <v>-1.72320273975</v>
       </c>
     </row>
     <row r="515">
@@ -24964,10 +24294,8 @@
       <c r="L516" t="n">
         <v>0</v>
       </c>
-      <c r="M516" t="inlineStr">
-        <is>
-          <t>O-Pb-Tc</t>
-        </is>
+      <c r="M516" t="n">
+        <v>-1.65482928925</v>
       </c>
     </row>
     <row r="517">
@@ -25015,10 +24343,8 @@
       <c r="L517" t="n">
         <v>2.9418</v>
       </c>
-      <c r="M517" t="inlineStr">
-        <is>
-          <t>O-Pb-Te</t>
-        </is>
+      <c r="M517" t="n">
+        <v>-1.551654146083333</v>
       </c>
     </row>
     <row r="518">
@@ -25060,16 +24386,14 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>mp-20459</t>
+          <t>mp-1106215</t>
         </is>
       </c>
       <c r="L518" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="M518" t="inlineStr">
-        <is>
-          <t>O-Pb-Ti</t>
-        </is>
+        <v>2.316</v>
+      </c>
+      <c r="M518" t="n">
+        <v>-2.728247650916667</v>
       </c>
     </row>
     <row r="519">
@@ -25158,10 +24482,8 @@
       <c r="L520" t="n">
         <v>0</v>
       </c>
-      <c r="M520" t="inlineStr">
-        <is>
-          <t>O-Pb-V</t>
-        </is>
+      <c r="M520" t="n">
+        <v>-2.012917665250001</v>
       </c>
     </row>
     <row r="521">
@@ -25250,10 +24572,8 @@
       <c r="L522" t="n">
         <v>0</v>
       </c>
-      <c r="M522" t="inlineStr">
-        <is>
-          <t>O-Pb-Zn</t>
-        </is>
+      <c r="M522" t="n">
+        <v>-1.47436618225</v>
       </c>
     </row>
     <row r="523">
@@ -25301,10 +24621,8 @@
       <c r="L523" t="n">
         <v>2.6727</v>
       </c>
-      <c r="M523" t="inlineStr">
-        <is>
-          <t>O-Pb-Zr</t>
-        </is>
+      <c r="M523" t="n">
+        <v>-2.84402165525</v>
       </c>
     </row>
     <row r="524">
@@ -25639,10 +24957,8 @@
       <c r="L531" t="n">
         <v>4.1325</v>
       </c>
-      <c r="M531" t="inlineStr">
-        <is>
-          <t>Al-O-Pr</t>
-        </is>
+      <c r="M531" t="n">
+        <v>-3.65952484325</v>
       </c>
     </row>
     <row r="532">
@@ -25690,10 +25006,8 @@
       <c r="L532" t="n">
         <v>0</v>
       </c>
-      <c r="M532" t="inlineStr">
-        <is>
-          <t>Bi-O-Pr</t>
-        </is>
+      <c r="M532" t="n">
+        <v>-1.933505868250001</v>
       </c>
     </row>
     <row r="533">
@@ -25741,10 +25055,8 @@
       <c r="L533" t="n">
         <v>0</v>
       </c>
-      <c r="M533" t="inlineStr">
-        <is>
-          <t>Co-O-Pr</t>
-        </is>
+      <c r="M533" t="n">
+        <v>-2.38977334325</v>
       </c>
     </row>
     <row r="534">
@@ -25792,10 +25104,8 @@
       <c r="L534" t="n">
         <v>1.847</v>
       </c>
-      <c r="M534" t="inlineStr">
-        <is>
-          <t>Cr-O-Pr</t>
-        </is>
+      <c r="M534" t="n">
+        <v>-3.00730947825</v>
       </c>
     </row>
     <row r="535">
@@ -25843,10 +25153,8 @@
       <c r="L535" t="n">
         <v>0</v>
       </c>
-      <c r="M535" t="inlineStr">
-        <is>
-          <t>Cu-O-Pr</t>
-        </is>
+      <c r="M535" t="n">
+        <v>-2.316259854250001</v>
       </c>
     </row>
     <row r="536">
@@ -25894,10 +25202,8 @@
       <c r="L536" t="n">
         <v>1.0793</v>
       </c>
-      <c r="M536" t="inlineStr">
-        <is>
-          <t>Fe-O-Pr</t>
-        </is>
+      <c r="M536" t="n">
+        <v>-2.76075810625</v>
       </c>
     </row>
     <row r="537">
@@ -25945,10 +25251,8 @@
       <c r="L537" t="n">
         <v>0</v>
       </c>
-      <c r="M537" t="inlineStr">
-        <is>
-          <t>Ga-O-Pr</t>
-        </is>
+      <c r="M537" t="n">
+        <v>-1.59254538975</v>
       </c>
     </row>
     <row r="538">
@@ -25996,10 +25300,8 @@
       <c r="L538" t="n">
         <v>0</v>
       </c>
-      <c r="M538" t="inlineStr">
-        <is>
-          <t>Ga-O-Pr</t>
-        </is>
+      <c r="M538" t="n">
+        <v>-1.59254538975</v>
       </c>
     </row>
     <row r="539">
@@ -26088,10 +25390,8 @@
       <c r="L540" t="n">
         <v>2.633599999999999</v>
       </c>
-      <c r="M540" t="inlineStr">
-        <is>
-          <t>In-O-Pr</t>
-        </is>
+      <c r="M540" t="n">
+        <v>-2.86144707975</v>
       </c>
     </row>
     <row r="541">
@@ -26221,10 +25521,8 @@
       <c r="L543" t="n">
         <v>0</v>
       </c>
-      <c r="M543" t="inlineStr">
-        <is>
-          <t>Mn-O-Pr</t>
-        </is>
+      <c r="M543" t="n">
+        <v>-2.947292492836207</v>
       </c>
     </row>
     <row r="544">
@@ -26313,10 +25611,8 @@
       <c r="L545" t="n">
         <v>0</v>
       </c>
-      <c r="M545" t="inlineStr">
-        <is>
-          <t>Nb-O-Pr</t>
-        </is>
+      <c r="M545" t="n">
+        <v>-2.92962049425</v>
       </c>
     </row>
     <row r="546">
@@ -26364,10 +25660,8 @@
       <c r="L546" t="n">
         <v>0</v>
       </c>
-      <c r="M546" t="inlineStr">
-        <is>
-          <t>Ni-O-Pr</t>
-        </is>
+      <c r="M546" t="n">
+        <v>-2.410344111249999</v>
       </c>
     </row>
     <row r="547">
@@ -26579,10 +25873,8 @@
       <c r="L551" t="n">
         <v>0.6013000000000002</v>
       </c>
-      <c r="M551" t="inlineStr">
-        <is>
-          <t>O-Pr-Rh</t>
-        </is>
+      <c r="M551" t="n">
+        <v>-2.474946942250001</v>
       </c>
     </row>
     <row r="552">
@@ -26630,10 +25922,8 @@
       <c r="L552" t="n">
         <v>0</v>
       </c>
-      <c r="M552" t="inlineStr">
-        <is>
-          <t>O-Pr-Ru</t>
-        </is>
+      <c r="M552" t="n">
+        <v>-2.48458688225</v>
       </c>
     </row>
     <row r="553">
@@ -26722,10 +26012,8 @@
       <c r="L554" t="n">
         <v>4.2605</v>
       </c>
-      <c r="M554" t="inlineStr">
-        <is>
-          <t>O-Pr-Sc</t>
-        </is>
+      <c r="M554" t="n">
+        <v>-3.882216909749999</v>
       </c>
     </row>
     <row r="555">
@@ -26814,10 +26102,8 @@
       <c r="L556" t="n">
         <v>0</v>
       </c>
-      <c r="M556" t="inlineStr">
-        <is>
-          <t>O-Pr-Ti</t>
-        </is>
+      <c r="M556" t="n">
+        <v>-3.485200704916667</v>
       </c>
     </row>
     <row r="557">
@@ -26906,10 +26192,8 @@
       <c r="L558" t="n">
         <v>0</v>
       </c>
-      <c r="M558" t="inlineStr">
-        <is>
-          <t>O-Pr-V</t>
-        </is>
+      <c r="M558" t="n">
+        <v>-2.994198380250001</v>
       </c>
     </row>
     <row r="559">
@@ -26998,10 +26282,8 @@
       <c r="L560" t="n">
         <v>0</v>
       </c>
-      <c r="M560" t="inlineStr">
-        <is>
-          <t>Bi-O-Rb</t>
-        </is>
+      <c r="M560" t="n">
+        <v>-1.45830097875</v>
       </c>
     </row>
     <row r="561">
@@ -27049,10 +26331,8 @@
       <c r="L561" t="n">
         <v>0</v>
       </c>
-      <c r="M561" t="inlineStr">
-        <is>
-          <t>Cr-O-Rb</t>
-        </is>
+      <c r="M561" t="n">
+        <v>-1.55847550075</v>
       </c>
     </row>
     <row r="562">
@@ -27100,10 +26380,8 @@
       <c r="L562" t="n">
         <v>0</v>
       </c>
-      <c r="M562" t="inlineStr">
-        <is>
-          <t>Ir-O-Rb</t>
-        </is>
+      <c r="M562" t="n">
+        <v>-1.20618138675</v>
       </c>
     </row>
     <row r="563">
@@ -27151,10 +26429,8 @@
       <c r="L563" t="n">
         <v>0</v>
       </c>
-      <c r="M563" t="inlineStr">
-        <is>
-          <t>Mn-O-Rb</t>
-        </is>
+      <c r="M563" t="n">
+        <v>-1.378851534336207</v>
       </c>
     </row>
     <row r="564">
@@ -27202,10 +26478,8 @@
       <c r="L564" t="n">
         <v>0</v>
       </c>
-      <c r="M564" t="inlineStr">
-        <is>
-          <t>Mo-O-Rb</t>
-        </is>
+      <c r="M564" t="n">
+        <v>-1.953660252749999</v>
       </c>
     </row>
     <row r="565">
@@ -27253,10 +26527,8 @@
       <c r="L565" t="n">
         <v>2.8197</v>
       </c>
-      <c r="M565" t="inlineStr">
-        <is>
-          <t>Nb-O-Rb</t>
-        </is>
+      <c r="M565" t="n">
+        <v>-2.81549502725</v>
       </c>
     </row>
     <row r="566">
@@ -27304,10 +26576,8 @@
       <c r="L566" t="n">
         <v>0</v>
       </c>
-      <c r="M566" t="inlineStr">
-        <is>
-          <t>Np-O-Rb</t>
-        </is>
+      <c r="M566" t="n">
+        <v>-3.078308604500001</v>
       </c>
     </row>
     <row r="567">
@@ -27355,10 +26625,8 @@
       <c r="L567" t="n">
         <v>0</v>
       </c>
-      <c r="M567" t="inlineStr">
-        <is>
-          <t>O-Os-Rb</t>
-        </is>
+      <c r="M567" t="n">
+        <v>-1.61156772775</v>
       </c>
     </row>
     <row r="568">
@@ -27406,10 +26674,8 @@
       <c r="L568" t="n">
         <v>3.000999999999999</v>
       </c>
-      <c r="M568" t="inlineStr">
-        <is>
-          <t>O-Pa-Rb</t>
-        </is>
+      <c r="M568" t="n">
+        <v>-3.53730298875</v>
       </c>
     </row>
     <row r="569">
@@ -27457,10 +26723,8 @@
       <c r="L569" t="n">
         <v>0</v>
       </c>
-      <c r="M569" t="inlineStr">
-        <is>
-          <t>O-Pt-Rb</t>
-        </is>
+      <c r="M569" t="n">
+        <v>-0.8896996907499997</v>
       </c>
     </row>
     <row r="570">
@@ -27508,10 +26772,8 @@
       <c r="L570" t="n">
         <v>0</v>
       </c>
-      <c r="M570" t="inlineStr">
-        <is>
-          <t>O-Pu-Rb</t>
-        </is>
+      <c r="M570" t="n">
+        <v>-2.98131192275</v>
       </c>
     </row>
     <row r="571">
@@ -27559,10 +26821,8 @@
       <c r="L571" t="n">
         <v>0</v>
       </c>
-      <c r="M571" t="inlineStr">
-        <is>
-          <t>O-Rb-Re</t>
-        </is>
+      <c r="M571" t="n">
+        <v>-1.974709437750001</v>
       </c>
     </row>
     <row r="572">
@@ -27610,10 +26870,8 @@
       <c r="L572" t="n">
         <v>0</v>
       </c>
-      <c r="M572" t="inlineStr">
-        <is>
-          <t>O-Rb-Rh</t>
-        </is>
+      <c r="M572" t="n">
+        <v>-1.10946525475</v>
       </c>
     </row>
     <row r="573">
@@ -27661,10 +26919,8 @@
       <c r="L573" t="n">
         <v>0</v>
       </c>
-      <c r="M573" t="inlineStr">
-        <is>
-          <t>O-Rb-Ru</t>
-        </is>
+      <c r="M573" t="n">
+        <v>-1.439185640750001</v>
       </c>
     </row>
     <row r="574">
@@ -27712,10 +26968,8 @@
       <c r="L574" t="n">
         <v>0</v>
       </c>
-      <c r="M574" t="inlineStr">
-        <is>
-          <t>O-Rb-Sb</t>
-        </is>
+      <c r="M574" t="n">
+        <v>-1.79997441475</v>
       </c>
     </row>
     <row r="575">
@@ -27757,16 +27011,14 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>mp-3033</t>
+          <t>mp-1076534</t>
         </is>
       </c>
       <c r="L575" t="n">
-        <v>3.5412</v>
-      </c>
-      <c r="M575" t="inlineStr">
-        <is>
-          <t>O-Rb-Ta</t>
-        </is>
+        <v>2.0024</v>
+      </c>
+      <c r="M575" t="n">
+        <v>-2.97826306475</v>
       </c>
     </row>
     <row r="576">
@@ -27855,10 +27107,8 @@
       <c r="L577" t="n">
         <v>0.4542000000000002</v>
       </c>
-      <c r="M577" t="inlineStr">
-        <is>
-          <t>O-Rb-U</t>
-        </is>
+      <c r="M577" t="n">
+        <v>-3.30534849675</v>
       </c>
     </row>
     <row r="578">
@@ -27906,10 +27156,8 @@
       <c r="L578" t="n">
         <v>0.2498</v>
       </c>
-      <c r="M578" t="inlineStr">
-        <is>
-          <t>O-Rb-V</t>
-        </is>
+      <c r="M578" t="n">
+        <v>-2.052987348750001</v>
       </c>
     </row>
     <row r="579">
@@ -27957,10 +27205,8 @@
       <c r="L579" t="n">
         <v>0</v>
       </c>
-      <c r="M579" t="inlineStr">
-        <is>
-          <t>O-Rb-W</t>
-        </is>
+      <c r="M579" t="n">
+        <v>-2.04170922075</v>
       </c>
     </row>
     <row r="580">
@@ -28295,10 +27541,8 @@
       <c r="L587" t="n">
         <v>4.591900000000001</v>
       </c>
-      <c r="M587" t="inlineStr">
-        <is>
-          <t>Al-O-Sc</t>
-        </is>
+      <c r="M587" t="n">
+        <v>-3.67038498325</v>
       </c>
     </row>
     <row r="588">
@@ -28387,10 +27631,8 @@
       <c r="L589" t="n">
         <v>0</v>
       </c>
-      <c r="M589" t="inlineStr">
-        <is>
-          <t>O-Sc-Si</t>
-        </is>
+      <c r="M589" t="n">
+        <v>-2.76517236225</v>
       </c>
     </row>
     <row r="590">
@@ -28432,16 +27674,14 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>mp-7405</t>
+          <t>mp-1187025</t>
         </is>
       </c>
       <c r="L590" t="n">
-        <v>4.861399999999999</v>
-      </c>
-      <c r="M590" t="inlineStr">
-        <is>
-          <t>Al-O-Sm</t>
-        </is>
+        <v>4.0771</v>
+      </c>
+      <c r="M590" t="n">
+        <v>-3.69337370125</v>
       </c>
     </row>
     <row r="591">
@@ -28530,10 +27770,8 @@
       <c r="L592" t="n">
         <v>0.8039000000000005</v>
       </c>
-      <c r="M592" t="inlineStr">
-        <is>
-          <t>Co-O-Sm</t>
-        </is>
+      <c r="M592" t="n">
+        <v>-2.442726505249999</v>
       </c>
     </row>
     <row r="593">
@@ -28581,10 +27819,8 @@
       <c r="L593" t="n">
         <v>2.4802</v>
       </c>
-      <c r="M593" t="inlineStr">
-        <is>
-          <t>Cr-O-Sm</t>
-        </is>
+      <c r="M593" t="n">
+        <v>-3.171835335750001</v>
       </c>
     </row>
     <row r="594">
@@ -28632,10 +27868,8 @@
       <c r="L594" t="n">
         <v>0</v>
       </c>
-      <c r="M594" t="inlineStr">
-        <is>
-          <t>Cu-O-Sm</t>
-        </is>
+      <c r="M594" t="n">
+        <v>-2.37938940625</v>
       </c>
     </row>
     <row r="595">
@@ -28677,16 +27911,14 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>mp-20243</t>
+          <t>mp-1099588</t>
         </is>
       </c>
       <c r="L595" t="n">
-        <v>1.0882</v>
-      </c>
-      <c r="M595" t="inlineStr">
-        <is>
-          <t>Fe-O-Sm</t>
-        </is>
+        <v>0.7234999999999996</v>
+      </c>
+      <c r="M595" t="n">
+        <v>-2.58219682025</v>
       </c>
     </row>
     <row r="596">
@@ -28734,10 +27966,8 @@
       <c r="L596" t="n">
         <v>0</v>
       </c>
-      <c r="M596" t="inlineStr">
-        <is>
-          <t>Ge-O-Sm</t>
-        </is>
+      <c r="M596" t="n">
+        <v>-2.45967347925</v>
       </c>
     </row>
     <row r="597">
@@ -28785,10 +28015,8 @@
       <c r="L597" t="n">
         <v>2.639699999999999</v>
       </c>
-      <c r="M597" t="inlineStr">
-        <is>
-          <t>In-O-Sm</t>
-        </is>
+      <c r="M597" t="n">
+        <v>-2.899878219750001</v>
       </c>
     </row>
     <row r="598">
@@ -28871,16 +28099,14 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>mp-22203</t>
+          <t>mp-1075973</t>
         </is>
       </c>
       <c r="L599" t="n">
         <v>0</v>
       </c>
-      <c r="M599" t="inlineStr">
-        <is>
-          <t>Mn-O-Sm</t>
-        </is>
+      <c r="M599" t="n">
+        <v>-2.792370773836208</v>
       </c>
     </row>
     <row r="600">
@@ -29010,10 +28236,8 @@
       <c r="L602" t="n">
         <v>0</v>
       </c>
-      <c r="M602" t="inlineStr">
-        <is>
-          <t>Ni-O-Sm</t>
-        </is>
+      <c r="M602" t="n">
+        <v>-2.332019276250001</v>
       </c>
     </row>
     <row r="603">
@@ -29225,10 +28449,8 @@
       <c r="L607" t="n">
         <v>0</v>
       </c>
-      <c r="M607" t="inlineStr">
-        <is>
-          <t>O-Pu-Sm</t>
-        </is>
+      <c r="M607" t="n">
+        <v>-2.944352704250001</v>
       </c>
     </row>
     <row r="608">
@@ -29317,10 +28539,8 @@
       <c r="L609" t="n">
         <v>0.7331000000000003</v>
       </c>
-      <c r="M609" t="inlineStr">
-        <is>
-          <t>O-Rh-Sm</t>
-        </is>
+      <c r="M609" t="n">
+        <v>-2.52965367825</v>
       </c>
     </row>
     <row r="610">
@@ -29409,10 +28629,8 @@
       <c r="L611" t="n">
         <v>0</v>
       </c>
-      <c r="M611" t="inlineStr">
-        <is>
-          <t>O-Sb-Sm</t>
-        </is>
+      <c r="M611" t="n">
+        <v>-2.01797003225</v>
       </c>
     </row>
     <row r="612">
@@ -29460,10 +28678,8 @@
       <c r="L612" t="n">
         <v>4.366899999999999</v>
       </c>
-      <c r="M612" t="inlineStr">
-        <is>
-          <t>O-Sc-Sm</t>
-        </is>
+      <c r="M612" t="n">
+        <v>-3.92202783575</v>
       </c>
     </row>
     <row r="613">
@@ -29675,10 +28891,8 @@
       <c r="L617" t="n">
         <v>0</v>
       </c>
-      <c r="M617" t="inlineStr">
-        <is>
-          <t>O-Sm-Ti</t>
-        </is>
+      <c r="M617" t="n">
+        <v>-3.444706522916667</v>
       </c>
     </row>
     <row r="618">
@@ -29767,10 +28981,8 @@
       <c r="L619" t="n">
         <v>1.5136</v>
       </c>
-      <c r="M619" t="inlineStr">
-        <is>
-          <t>O-Sm-V</t>
-        </is>
+      <c r="M619" t="n">
+        <v>-3.250494485750001</v>
       </c>
     </row>
     <row r="620">
@@ -29900,10 +29112,8 @@
       <c r="L622" t="n">
         <v>0</v>
       </c>
-      <c r="M622" t="inlineStr">
-        <is>
-          <t>O-Sn-Ta</t>
-        </is>
+      <c r="M622" t="n">
+        <v>-2.362657056250001</v>
       </c>
     </row>
     <row r="623">
@@ -29951,10 +29161,8 @@
       <c r="L623" t="n">
         <v>0</v>
       </c>
-      <c r="M623" t="inlineStr">
-        <is>
-          <t>Ag-O-Sr</t>
-        </is>
+      <c r="M623" t="n">
+        <v>-1.389583905916667</v>
       </c>
     </row>
     <row r="624">
@@ -30002,10 +29210,8 @@
       <c r="L624" t="n">
         <v>0</v>
       </c>
-      <c r="M624" t="inlineStr">
-        <is>
-          <t>Al-O-Sr</t>
-        </is>
+      <c r="M624" t="n">
+        <v>-3.033029024583334</v>
       </c>
     </row>
     <row r="625">
@@ -30053,10 +29259,8 @@
       <c r="L625" t="n">
         <v>0</v>
       </c>
-      <c r="M625" t="inlineStr">
-        <is>
-          <t>Au-O-Sr</t>
-        </is>
+      <c r="M625" t="n">
+        <v>-1.422065460583333</v>
       </c>
     </row>
     <row r="626">
@@ -30104,10 +29308,8 @@
       <c r="L626" t="n">
         <v>0.3106</v>
       </c>
-      <c r="M626" t="inlineStr">
-        <is>
-          <t>Bi-O-Sr</t>
-        </is>
+      <c r="M626" t="n">
+        <v>-2.271877974583334</v>
       </c>
     </row>
     <row r="627">
@@ -30190,16 +29392,14 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>mp-1272815</t>
+          <t>mp-550781</t>
         </is>
       </c>
       <c r="L628" t="n">
         <v>0</v>
       </c>
-      <c r="M628" t="inlineStr">
-        <is>
-          <t>Co-O-Sr</t>
-        </is>
+      <c r="M628" t="n">
+        <v>-1.918679259083333</v>
       </c>
     </row>
     <row r="629">
@@ -30241,16 +29441,14 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>mp-1372100</t>
+          <t>mp-769855</t>
         </is>
       </c>
       <c r="L629" t="n">
-        <v>0</v>
-      </c>
-      <c r="M629" t="inlineStr">
-        <is>
-          <t>Cr-O-Sr</t>
-        </is>
+        <v>0.6795</v>
+      </c>
+      <c r="M629" t="n">
+        <v>-2.575431043083333</v>
       </c>
     </row>
     <row r="630">
@@ -30298,10 +29496,8 @@
       <c r="L630" t="n">
         <v>0</v>
       </c>
-      <c r="M630" t="inlineStr">
-        <is>
-          <t>Fe-O-Sr</t>
-        </is>
+      <c r="M630" t="n">
+        <v>-2.224333200583334</v>
       </c>
     </row>
     <row r="631">
@@ -30390,10 +29586,8 @@
       <c r="L632" t="n">
         <v>3.5578</v>
       </c>
-      <c r="M632" t="inlineStr">
-        <is>
-          <t>Ge-O-Sr</t>
-        </is>
+      <c r="M632" t="n">
+        <v>-2.742580900083333</v>
       </c>
     </row>
     <row r="633">
@@ -30441,10 +29635,8 @@
       <c r="L633" t="n">
         <v>3.5578</v>
       </c>
-      <c r="M633" t="inlineStr">
-        <is>
-          <t>Ge-O-Sr</t>
-        </is>
+      <c r="M633" t="n">
+        <v>-2.742580900083333</v>
       </c>
     </row>
     <row r="634">
@@ -30492,10 +29684,8 @@
       <c r="L634" t="n">
         <v>4.0897</v>
       </c>
-      <c r="M634" t="inlineStr">
-        <is>
-          <t>Hf-O-Sr</t>
-        </is>
+      <c r="M634" t="n">
+        <v>-3.809265676583333</v>
       </c>
     </row>
     <row r="635">
@@ -30543,10 +29733,8 @@
       <c r="L635" t="n">
         <v>4.0897</v>
       </c>
-      <c r="M635" t="inlineStr">
-        <is>
-          <t>Hf-O-Sr</t>
-        </is>
+      <c r="M635" t="n">
+        <v>-3.809265676583333</v>
       </c>
     </row>
     <row r="636">
@@ -30594,10 +29782,8 @@
       <c r="L636" t="n">
         <v>0</v>
       </c>
-      <c r="M636" t="inlineStr">
-        <is>
-          <t>Hg-O-Sr</t>
-        </is>
+      <c r="M636" t="n">
+        <v>-1.361599871583334</v>
       </c>
     </row>
     <row r="637">
@@ -30645,10 +29831,8 @@
       <c r="L637" t="n">
         <v>0</v>
       </c>
-      <c r="M637" t="inlineStr">
-        <is>
-          <t>In-O-Sr</t>
-        </is>
+      <c r="M637" t="n">
+        <v>-2.118308362583333</v>
       </c>
     </row>
     <row r="638">
@@ -30690,16 +29874,14 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>mp-1016848</t>
+          <t>mp-17097</t>
         </is>
       </c>
       <c r="L638" t="n">
         <v>0</v>
       </c>
-      <c r="M638" t="inlineStr">
-        <is>
-          <t>Ir-O-Sr</t>
-        </is>
+      <c r="M638" t="n">
+        <v>-2.015930306583333</v>
       </c>
     </row>
     <row r="639">
@@ -30747,10 +29929,8 @@
       <c r="L639" t="n">
         <v>0.9515000000000002</v>
       </c>
-      <c r="M639" t="inlineStr">
-        <is>
-          <t>Mn-O-Sr</t>
-        </is>
+      <c r="M639" t="n">
+        <v>-2.488015777169539</v>
       </c>
     </row>
     <row r="640">
@@ -30798,10 +29978,8 @@
       <c r="L640" t="n">
         <v>0</v>
       </c>
-      <c r="M640" t="inlineStr">
-        <is>
-          <t>Mo-O-Sr</t>
-        </is>
+      <c r="M640" t="n">
+        <v>-2.514191494583333</v>
       </c>
     </row>
     <row r="641">
@@ -30849,10 +30027,8 @@
       <c r="L641" t="n">
         <v>0</v>
       </c>
-      <c r="M641" t="inlineStr">
-        <is>
-          <t>Mo-O-Sr</t>
-        </is>
+      <c r="M641" t="n">
+        <v>-2.514191494583333</v>
       </c>
     </row>
     <row r="642">
@@ -30900,10 +30076,8 @@
       <c r="L642" t="n">
         <v>0</v>
       </c>
-      <c r="M642" t="inlineStr">
-        <is>
-          <t>Nb-O-Sr</t>
-        </is>
+      <c r="M642" t="n">
+        <v>-3.180009133083334</v>
       </c>
     </row>
     <row r="643">
@@ -30951,10 +30125,8 @@
       <c r="L643" t="n">
         <v>0</v>
       </c>
-      <c r="M643" t="inlineStr">
-        <is>
-          <t>Nb-O-Sr</t>
-        </is>
+      <c r="M643" t="n">
+        <v>-3.180009133083334</v>
       </c>
     </row>
     <row r="644">
@@ -30996,16 +30168,14 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>mp-1101421</t>
+          <t>mp-762506</t>
         </is>
       </c>
       <c r="L644" t="n">
         <v>0</v>
       </c>
-      <c r="M644" t="inlineStr">
-        <is>
-          <t>Ni-O-Sr</t>
-        </is>
+      <c r="M644" t="n">
+        <v>-1.765320186583334</v>
       </c>
     </row>
     <row r="645">
@@ -31094,10 +30264,8 @@
       <c r="L646" t="n">
         <v>0</v>
       </c>
-      <c r="M646" t="inlineStr">
-        <is>
-          <t>O-Os-Sr</t>
-        </is>
+      <c r="M646" t="n">
+        <v>-2.103554653083334</v>
       </c>
     </row>
     <row r="647">
@@ -31145,10 +30313,8 @@
       <c r="L647" t="n">
         <v>0.7941000000000003</v>
       </c>
-      <c r="M647" t="inlineStr">
-        <is>
-          <t>O-Pb-Sr</t>
-        </is>
+      <c r="M647" t="n">
+        <v>-2.156900899083333</v>
       </c>
     </row>
     <row r="648">
@@ -31196,10 +30362,8 @@
       <c r="L648" t="n">
         <v>0</v>
       </c>
-      <c r="M648" t="inlineStr">
-        <is>
-          <t>O-Pd-Sr</t>
-        </is>
+      <c r="M648" t="n">
+        <v>-1.678432104583334</v>
       </c>
     </row>
     <row r="649">
@@ -31247,10 +30411,8 @@
       <c r="L649" t="n">
         <v>0</v>
       </c>
-      <c r="M649" t="inlineStr">
-        <is>
-          <t>O-Pt-Sr</t>
-        </is>
+      <c r="M649" t="n">
+        <v>-1.701633760583333</v>
       </c>
     </row>
     <row r="650">
@@ -31298,10 +30460,8 @@
       <c r="L650" t="n">
         <v>0</v>
       </c>
-      <c r="M650" t="inlineStr">
-        <is>
-          <t>O-Pu-Sr</t>
-        </is>
+      <c r="M650" t="n">
+        <v>-3.330814990583334</v>
       </c>
     </row>
     <row r="651">
@@ -31349,10 +30509,8 @@
       <c r="L651" t="n">
         <v>0</v>
       </c>
-      <c r="M651" t="inlineStr">
-        <is>
-          <t>O-Re-Sr</t>
-        </is>
+      <c r="M651" t="n">
+        <v>-2.401993955583333</v>
       </c>
     </row>
     <row r="652">
@@ -31400,10 +30558,8 @@
       <c r="L652" t="n">
         <v>0</v>
       </c>
-      <c r="M652" t="inlineStr">
-        <is>
-          <t>O-Rh-Sr</t>
-        </is>
+      <c r="M652" t="n">
+        <v>-1.930245880583334</v>
       </c>
     </row>
     <row r="653">
@@ -31445,16 +30601,14 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>mp-1179112</t>
+          <t>mp-22534</t>
         </is>
       </c>
       <c r="L653" t="n">
         <v>0</v>
       </c>
-      <c r="M653" t="inlineStr">
-        <is>
-          <t>O-Ru-Sr</t>
-        </is>
+      <c r="M653" t="n">
+        <v>-1.681222764583332</v>
       </c>
     </row>
     <row r="654">
@@ -31502,10 +30656,8 @@
       <c r="L654" t="n">
         <v>0</v>
       </c>
-      <c r="M654" t="inlineStr">
-        <is>
-          <t>O-Sb-Sr</t>
-        </is>
+      <c r="M654" t="n">
+        <v>-2.376956600583333</v>
       </c>
     </row>
     <row r="655">
@@ -31553,10 +30705,8 @@
       <c r="L655" t="n">
         <v>0</v>
       </c>
-      <c r="M655" t="inlineStr">
-        <is>
-          <t>O-Sc-Sr</t>
-        </is>
+      <c r="M655" t="n">
+        <v>-3.187903875583333</v>
       </c>
     </row>
     <row r="656">
@@ -31604,10 +30754,8 @@
       <c r="L656" t="n">
         <v>4.6258</v>
       </c>
-      <c r="M656" t="inlineStr">
-        <is>
-          <t>O-Si-Sr</t>
-        </is>
+      <c r="M656" t="n">
+        <v>-3.442576776583334</v>
       </c>
     </row>
     <row r="657">
@@ -31649,16 +30797,14 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>mp-546973</t>
+          <t>mp-12867</t>
         </is>
       </c>
       <c r="L657" t="n">
-        <v>0.9698000000000002</v>
-      </c>
-      <c r="M657" t="inlineStr">
-        <is>
-          <t>O-Sn-Sr</t>
-        </is>
+        <v>1.5555</v>
+      </c>
+      <c r="M657" t="n">
+        <v>-2.627234576583334</v>
       </c>
     </row>
     <row r="658">
@@ -31700,16 +30846,14 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>mp-546973</t>
+          <t>mp-12867</t>
         </is>
       </c>
       <c r="L658" t="n">
-        <v>0.9698000000000002</v>
-      </c>
-      <c r="M658" t="inlineStr">
-        <is>
-          <t>O-Sn-Sr</t>
-        </is>
+        <v>1.5555</v>
+      </c>
+      <c r="M658" t="n">
+        <v>-2.627234576583334</v>
       </c>
     </row>
     <row r="659">
@@ -31757,10 +30901,8 @@
       <c r="L659" t="n">
         <v>0</v>
       </c>
-      <c r="M659" t="inlineStr">
-        <is>
-          <t>O-Sr-Ta</t>
-        </is>
+      <c r="M659" t="n">
+        <v>-3.282068082583334</v>
       </c>
     </row>
     <row r="660">
@@ -31808,10 +30950,8 @@
       <c r="L660" t="n">
         <v>0</v>
       </c>
-      <c r="M660" t="inlineStr">
-        <is>
-          <t>O-Sr-Tc</t>
-        </is>
+      <c r="M660" t="n">
+        <v>-2.454204809583334</v>
       </c>
     </row>
     <row r="661">
@@ -31853,16 +30993,14 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>mp-1179320</t>
+          <t>mp-647158</t>
         </is>
       </c>
       <c r="L661" t="n">
-        <v>3.3726</v>
-      </c>
-      <c r="M661" t="inlineStr">
-        <is>
-          <t>O-Sr-Te</t>
-        </is>
+        <v>3.3579</v>
+      </c>
+      <c r="M661" t="n">
+        <v>-2.376157466666667</v>
       </c>
     </row>
     <row r="662">
@@ -31904,16 +31042,14 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>mp-776018</t>
+          <t>mp-551830</t>
         </is>
       </c>
       <c r="L662" t="n">
-        <v>1.7362</v>
-      </c>
-      <c r="M662" t="inlineStr">
-        <is>
-          <t>O-Sr-Ti</t>
-        </is>
+        <v>1.786999999999999</v>
+      </c>
+      <c r="M662" t="n">
+        <v>-3.552430347250001</v>
       </c>
     </row>
     <row r="663">
@@ -31955,16 +31091,14 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>mp-776018</t>
+          <t>mp-551830</t>
         </is>
       </c>
       <c r="L663" t="n">
-        <v>1.7362</v>
-      </c>
-      <c r="M663" t="inlineStr">
-        <is>
-          <t>O-Sr-Ti</t>
-        </is>
+        <v>1.786999999999999</v>
+      </c>
+      <c r="M663" t="n">
+        <v>-3.552430347250001</v>
       </c>
     </row>
     <row r="664">
@@ -32012,10 +31146,8 @@
       <c r="L664" t="n">
         <v>0</v>
       </c>
-      <c r="M664" t="inlineStr">
-        <is>
-          <t>O-Sr-Tl</t>
-        </is>
+      <c r="M664" t="n">
+        <v>-1.62738624325</v>
       </c>
     </row>
     <row r="665">
@@ -32104,10 +31236,8 @@
       <c r="L666" t="n">
         <v>0</v>
       </c>
-      <c r="M666" t="inlineStr">
-        <is>
-          <t>O-Sr-V</t>
-        </is>
+      <c r="M666" t="n">
+        <v>-2.880218058583334</v>
       </c>
     </row>
     <row r="667">
@@ -32155,10 +31285,8 @@
       <c r="L667" t="n">
         <v>0</v>
       </c>
-      <c r="M667" t="inlineStr">
-        <is>
-          <t>O-Sr-V</t>
-        </is>
+      <c r="M667" t="n">
+        <v>-2.880218058583334</v>
       </c>
     </row>
     <row r="668">
@@ -32206,10 +31334,8 @@
       <c r="L668" t="n">
         <v>0</v>
       </c>
-      <c r="M668" t="inlineStr">
-        <is>
-          <t>O-Sr-W</t>
-        </is>
+      <c r="M668" t="n">
+        <v>-2.457049742583334</v>
       </c>
     </row>
     <row r="669">
@@ -32298,10 +31424,8 @@
       <c r="L670" t="n">
         <v>0</v>
       </c>
-      <c r="M670" t="inlineStr">
-        <is>
-          <t>O-Sr-Zn</t>
-        </is>
+      <c r="M670" t="n">
+        <v>-1.872425130583333</v>
       </c>
     </row>
     <row r="671">
@@ -32343,16 +31467,14 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>mp-3323</t>
+          <t>mp-613402</t>
         </is>
       </c>
       <c r="L671" t="n">
-        <v>3.214399999999999</v>
-      </c>
-      <c r="M671" t="inlineStr">
-        <is>
-          <t>O-Sr-Zr</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M671" t="n">
+        <v>-1.145768452583334</v>
       </c>
     </row>
     <row r="672">
@@ -32394,16 +31516,14 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>mp-3323</t>
+          <t>mp-613402</t>
         </is>
       </c>
       <c r="L672" t="n">
-        <v>3.214399999999999</v>
-      </c>
-      <c r="M672" t="inlineStr">
-        <is>
-          <t>O-Sr-Zr</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M672" t="n">
+        <v>-1.145768452583334</v>
       </c>
     </row>
     <row r="673">
@@ -32451,10 +31571,8 @@
       <c r="L673" t="n">
         <v>5.598200000000001</v>
       </c>
-      <c r="M673" t="inlineStr">
-        <is>
-          <t>Al-O-Tb</t>
-        </is>
+      <c r="M673" t="n">
+        <v>-3.74116705375</v>
       </c>
     </row>
     <row r="674">
@@ -32543,10 +31661,8 @@
       <c r="L675" t="n">
         <v>1.4209</v>
       </c>
-      <c r="M675" t="inlineStr">
-        <is>
-          <t>Co-O-Tb</t>
-        </is>
+      <c r="M675" t="n">
+        <v>-2.62863759375</v>
       </c>
     </row>
     <row r="676">
@@ -32594,10 +31710,8 @@
       <c r="L676" t="n">
         <v>2.4854</v>
       </c>
-      <c r="M676" t="inlineStr">
-        <is>
-          <t>Cr-O-Tb</t>
-        </is>
+      <c r="M676" t="n">
+        <v>-3.21611114275</v>
       </c>
     </row>
     <row r="677">
@@ -32645,10 +31759,8 @@
       <c r="L677" t="n">
         <v>0</v>
       </c>
-      <c r="M677" t="inlineStr">
-        <is>
-          <t>Cu-O-Tb</t>
-        </is>
+      <c r="M677" t="n">
+        <v>-2.252783877249999</v>
       </c>
     </row>
     <row r="678">
@@ -32696,10 +31808,8 @@
       <c r="L678" t="n">
         <v>1.3449</v>
       </c>
-      <c r="M678" t="inlineStr">
-        <is>
-          <t>Fe-O-Tb</t>
-        </is>
+      <c r="M678" t="n">
+        <v>-2.84603653825</v>
       </c>
     </row>
     <row r="679">
@@ -32747,10 +31857,8 @@
       <c r="L679" t="n">
         <v>3.443</v>
       </c>
-      <c r="M679" t="inlineStr">
-        <is>
-          <t>Ga-O-Tb</t>
-        </is>
+      <c r="M679" t="n">
+        <v>-3.126988687249999</v>
       </c>
     </row>
     <row r="680">
@@ -32798,10 +31906,8 @@
       <c r="L680" t="n">
         <v>0</v>
       </c>
-      <c r="M680" t="inlineStr">
-        <is>
-          <t>Ge-O-Tb</t>
-        </is>
+      <c r="M680" t="n">
+        <v>-2.40259805025</v>
       </c>
     </row>
     <row r="681">
@@ -32849,10 +31955,8 @@
       <c r="L681" t="n">
         <v>2.5935</v>
       </c>
-      <c r="M681" t="inlineStr">
-        <is>
-          <t>In-O-Tb</t>
-        </is>
+      <c r="M681" t="n">
+        <v>-2.93499406525</v>
       </c>
     </row>
     <row r="682">
@@ -32941,10 +32045,8 @@
       <c r="L683" t="n">
         <v>0</v>
       </c>
-      <c r="M683" t="inlineStr">
-        <is>
-          <t>Mg-O-Tb</t>
-        </is>
+      <c r="M683" t="n">
+        <v>-2.76479318725</v>
       </c>
     </row>
     <row r="684">
@@ -32992,10 +32094,8 @@
       <c r="L684" t="n">
         <v>0.9344999999999999</v>
       </c>
-      <c r="M684" t="inlineStr">
-        <is>
-          <t>Mn-O-Tb</t>
-        </is>
+      <c r="M684" t="n">
+        <v>-2.717843282836206</v>
       </c>
     </row>
     <row r="685">
@@ -33125,10 +32225,8 @@
       <c r="L687" t="n">
         <v>0</v>
       </c>
-      <c r="M687" t="inlineStr">
-        <is>
-          <t>Ni-O-Tb</t>
-        </is>
+      <c r="M687" t="n">
+        <v>-2.453118928249999</v>
       </c>
     </row>
     <row r="688">
@@ -33340,10 +32438,8 @@
       <c r="L692" t="n">
         <v>0.7745999999999995</v>
       </c>
-      <c r="M692" t="inlineStr">
-        <is>
-          <t>O-Rh-Tb</t>
-        </is>
+      <c r="M692" t="n">
+        <v>-2.577233065750001</v>
       </c>
     </row>
     <row r="693">
@@ -33473,10 +32569,8 @@
       <c r="L695" t="n">
         <v>4.4378</v>
       </c>
-      <c r="M695" t="inlineStr">
-        <is>
-          <t>O-Sc-Tb</t>
-        </is>
+      <c r="M695" t="n">
+        <v>-3.958515287249999</v>
       </c>
     </row>
     <row r="696">
@@ -33565,10 +32659,8 @@
       <c r="L697" t="n">
         <v>0</v>
       </c>
-      <c r="M697" t="inlineStr">
-        <is>
-          <t>O-Tb-Ti</t>
-        </is>
+      <c r="M697" t="n">
+        <v>-3.629579306416667</v>
       </c>
     </row>
     <row r="698">
@@ -33651,16 +32743,14 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>mp-1187389</t>
+          <t>mp-554811</t>
         </is>
       </c>
       <c r="L699" t="n">
-        <v>0</v>
-      </c>
-      <c r="M699" t="inlineStr">
-        <is>
-          <t>O-Tb-V</t>
-        </is>
+        <v>1.4396</v>
+      </c>
+      <c r="M699" t="n">
+        <v>-3.293091636250002</v>
       </c>
     </row>
     <row r="700">
@@ -33831,10 +32921,8 @@
       <c r="L703" t="n">
         <v>0</v>
       </c>
-      <c r="M703" t="inlineStr">
-        <is>
-          <t>Cu-O-Th</t>
-        </is>
+      <c r="M703" t="n">
+        <v>-2.46817323325</v>
       </c>
     </row>
     <row r="704">
@@ -34128,10 +33216,8 @@
       <c r="L710" t="n">
         <v>0</v>
       </c>
-      <c r="M710" t="inlineStr">
-        <is>
-          <t>O-Pd-Th</t>
-        </is>
+      <c r="M710" t="n">
+        <v>-2.003477761249999</v>
       </c>
     </row>
     <row r="711">
@@ -34343,10 +33429,8 @@
       <c r="L715" t="n">
         <v>0.7376999999999994</v>
       </c>
-      <c r="M715" t="inlineStr">
-        <is>
-          <t>Al-O-Tl</t>
-        </is>
+      <c r="M715" t="n">
+        <v>-2.190703776416667</v>
       </c>
     </row>
     <row r="716">
@@ -34429,16 +33513,14 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>mp-756464</t>
+          <t>mp-770614</t>
         </is>
       </c>
       <c r="L717" t="n">
-        <v>0</v>
-      </c>
-      <c r="M717" t="inlineStr">
-        <is>
-          <t>Co-O-Tl</t>
-        </is>
+        <v>0.1429999999999998</v>
+      </c>
+      <c r="M717" t="n">
+        <v>-1.071227321916666</v>
       </c>
     </row>
     <row r="718">
@@ -34486,10 +33568,8 @@
       <c r="L718" t="n">
         <v>0.4346000000000005</v>
       </c>
-      <c r="M718" t="inlineStr">
-        <is>
-          <t>Cr-O-Tl</t>
-        </is>
+      <c r="M718" t="n">
+        <v>-1.696177411916666</v>
       </c>
     </row>
     <row r="719">
@@ -34537,10 +33617,8 @@
       <c r="L719" t="n">
         <v>0</v>
       </c>
-      <c r="M719" t="inlineStr">
-        <is>
-          <t>Cu-O-Tl</t>
-        </is>
+      <c r="M719" t="n">
+        <v>-0.6591835159166664</v>
       </c>
     </row>
     <row r="720">
@@ -34588,10 +33666,8 @@
       <c r="L720" t="n">
         <v>0.2865000000000002</v>
       </c>
-      <c r="M720" t="inlineStr">
-        <is>
-          <t>Fe-O-Tl</t>
-        </is>
+      <c r="M720" t="n">
+        <v>-1.359012530416666</v>
       </c>
     </row>
     <row r="721">
@@ -34639,10 +33715,8 @@
       <c r="L721" t="n">
         <v>0.2334000000000005</v>
       </c>
-      <c r="M721" t="inlineStr">
-        <is>
-          <t>Ga-O-Tl</t>
-        </is>
+      <c r="M721" t="n">
+        <v>-1.617654038416667</v>
       </c>
     </row>
     <row r="722">
@@ -34772,10 +33846,8 @@
       <c r="L724" t="n">
         <v>0</v>
       </c>
-      <c r="M724" t="inlineStr">
-        <is>
-          <t>Mn-O-Tl</t>
-        </is>
+      <c r="M724" t="n">
+        <v>-1.497754257502874</v>
       </c>
     </row>
     <row r="725">
@@ -34858,16 +33930,14 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>mp-977408</t>
+          <t>mp-1101462</t>
         </is>
       </c>
       <c r="L726" t="n">
-        <v>0.1116000000000001</v>
-      </c>
-      <c r="M726" t="inlineStr">
-        <is>
-          <t>Nb-O-Tl</t>
-        </is>
+        <v>0.9465000000000003</v>
+      </c>
+      <c r="M726" t="n">
+        <v>-2.455577255916666</v>
       </c>
     </row>
     <row r="727">
@@ -34909,16 +33979,14 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>mp-998845</t>
+          <t>mp-18001</t>
         </is>
       </c>
       <c r="L727" t="n">
         <v>0</v>
       </c>
-      <c r="M727" t="inlineStr">
-        <is>
-          <t>Ni-O-Tl</t>
-        </is>
+      <c r="M727" t="n">
+        <v>-0.9671292884166661</v>
       </c>
     </row>
     <row r="728">
@@ -35130,10 +34198,8 @@
       <c r="L732" t="n">
         <v>0</v>
       </c>
-      <c r="M732" t="inlineStr">
-        <is>
-          <t>O-Pu-Tl</t>
-        </is>
+      <c r="M732" t="n">
+        <v>-2.615381283416667</v>
       </c>
     </row>
     <row r="733">
@@ -35304,10 +34370,8 @@
       <c r="L736" t="n">
         <v>2.4362</v>
       </c>
-      <c r="M736" t="inlineStr">
-        <is>
-          <t>O-Sb-Tl</t>
-        </is>
+      <c r="M736" t="n">
+        <v>-1.714974940916667</v>
       </c>
     </row>
     <row r="737">
@@ -35355,10 +34419,8 @@
       <c r="L737" t="n">
         <v>0.9279999999999995</v>
       </c>
-      <c r="M737" t="inlineStr">
-        <is>
-          <t>O-Sc-Tl</t>
-        </is>
+      <c r="M737" t="n">
+        <v>-2.458345141916667</v>
       </c>
     </row>
     <row r="738">
@@ -35406,10 +34468,8 @@
       <c r="L738" t="n">
         <v>0.8725999999999998</v>
       </c>
-      <c r="M738" t="inlineStr">
-        <is>
-          <t>O-Ta-Tl</t>
-        </is>
+      <c r="M738" t="n">
+        <v>-2.688446786666667</v>
       </c>
     </row>
     <row r="739">
@@ -35457,10 +34517,8 @@
       <c r="L739" t="n">
         <v>0</v>
       </c>
-      <c r="M739" t="inlineStr">
-        <is>
-          <t>O-Tc-Tl</t>
-        </is>
+      <c r="M739" t="n">
+        <v>-1.504518940916667</v>
       </c>
     </row>
     <row r="740">
@@ -35549,10 +34607,8 @@
       <c r="L741" t="n">
         <v>0.2736000000000001</v>
       </c>
-      <c r="M741" t="inlineStr">
-        <is>
-          <t>O-Tl-U</t>
-        </is>
+      <c r="M741" t="n">
+        <v>-2.941306267916667</v>
       </c>
     </row>
     <row r="742">
@@ -35600,10 +34656,8 @@
       <c r="L742" t="n">
         <v>2.7792</v>
       </c>
-      <c r="M742" t="inlineStr">
-        <is>
-          <t>O-Tl-V</t>
-        </is>
+      <c r="M742" t="n">
+        <v>-2.011194960416667</v>
       </c>
     </row>
     <row r="743">
@@ -35651,10 +34705,8 @@
       <c r="L743" t="n">
         <v>0</v>
       </c>
-      <c r="M743" t="inlineStr">
-        <is>
-          <t>O-Tl-W</t>
-        </is>
+      <c r="M743" t="n">
+        <v>-1.644874537916667</v>
       </c>
     </row>
     <row r="744">
@@ -35696,16 +34748,14 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>mp-1101265</t>
+          <t>mp-756281</t>
         </is>
       </c>
       <c r="L744" t="n">
-        <v>3.5534</v>
-      </c>
-      <c r="M744" t="inlineStr">
-        <is>
-          <t>Al-O-Tm</t>
-        </is>
+        <v>5.7744</v>
+      </c>
+      <c r="M744" t="n">
+        <v>-3.778040946083333</v>
       </c>
     </row>
     <row r="745">
@@ -35753,10 +34803,8 @@
       <c r="L745" t="n">
         <v>2.4418</v>
       </c>
-      <c r="M745" t="inlineStr">
-        <is>
-          <t>Bi-O-Tm</t>
-        </is>
+      <c r="M745" t="n">
+        <v>-2.824058913583332</v>
       </c>
     </row>
     <row r="746">
@@ -35804,10 +34852,8 @@
       <c r="L746" t="n">
         <v>1.1886</v>
       </c>
-      <c r="M746" t="inlineStr">
-        <is>
-          <t>Co-O-Tm</t>
-        </is>
+      <c r="M746" t="n">
+        <v>-2.644447407583333</v>
       </c>
     </row>
     <row r="747">
@@ -35849,16 +34895,14 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>mp-777295</t>
+          <t>mp-1187577</t>
         </is>
       </c>
       <c r="L747" t="n">
-        <v>2.4448</v>
-      </c>
-      <c r="M747" t="inlineStr">
-        <is>
-          <t>Cr-O-Tm</t>
-        </is>
+        <v>1.9289</v>
+      </c>
+      <c r="M747" t="n">
+        <v>-2.850554932583334</v>
       </c>
     </row>
     <row r="748">
@@ -35947,10 +34991,8 @@
       <c r="L749" t="n">
         <v>1.37</v>
       </c>
-      <c r="M749" t="inlineStr">
-        <is>
-          <t>Fe-O-Tm</t>
-        </is>
+      <c r="M749" t="n">
+        <v>-2.876373080583333</v>
       </c>
     </row>
     <row r="750">
@@ -35998,10 +35040,8 @@
       <c r="L750" t="n">
         <v>0</v>
       </c>
-      <c r="M750" t="inlineStr">
-        <is>
-          <t>Ge-O-Tm</t>
-        </is>
+      <c r="M750" t="n">
+        <v>-2.308407075583334</v>
       </c>
     </row>
     <row r="751">
@@ -36049,10 +35089,8 @@
       <c r="L751" t="n">
         <v>2.5259</v>
       </c>
-      <c r="M751" t="inlineStr">
-        <is>
-          <t>In-O-Tm</t>
-        </is>
+      <c r="M751" t="n">
+        <v>-2.959317458583334</v>
       </c>
     </row>
     <row r="752">
@@ -36135,16 +35173,14 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
-          <t>mp-554270</t>
+          <t>mp-554211</t>
         </is>
       </c>
       <c r="L753" t="n">
-        <v>0.3708</v>
-      </c>
-      <c r="M753" t="inlineStr">
-        <is>
-          <t>Mn-O-Tm</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M753" t="n">
+        <v>-3.100258556169541</v>
       </c>
     </row>
     <row r="754">
@@ -36274,10 +35310,8 @@
       <c r="L756" t="n">
         <v>0</v>
       </c>
-      <c r="M756" t="inlineStr">
-        <is>
-          <t>Ni-O-Tm</t>
-        </is>
+      <c r="M756" t="n">
+        <v>-2.528808222583334</v>
       </c>
     </row>
     <row r="757">
@@ -36571,10 +35605,8 @@
       <c r="L763" t="n">
         <v>0.9564999999999992</v>
       </c>
-      <c r="M763" t="inlineStr">
-        <is>
-          <t>O-Rh-Tm</t>
-        </is>
+      <c r="M763" t="n">
+        <v>-2.610030467583333</v>
       </c>
     </row>
     <row r="764">
@@ -36704,10 +35736,8 @@
       <c r="L766" t="n">
         <v>4.4531</v>
       </c>
-      <c r="M766" t="inlineStr">
-        <is>
-          <t>O-Sc-Tm</t>
-        </is>
+      <c r="M766" t="n">
+        <v>-3.982169483083333</v>
       </c>
     </row>
     <row r="767">
@@ -36919,10 +35949,8 @@
       <c r="L771" t="n">
         <v>0</v>
       </c>
-      <c r="M771" t="inlineStr">
-        <is>
-          <t>O-Ti-Tm</t>
-        </is>
+      <c r="M771" t="n">
+        <v>-3.65422067425</v>
       </c>
     </row>
     <row r="772">
@@ -37011,10 +36039,8 @@
       <c r="L773" t="n">
         <v>0</v>
       </c>
-      <c r="M773" t="inlineStr">
-        <is>
-          <t>O-Tm-V</t>
-        </is>
+      <c r="M773" t="n">
+        <v>-3.322118075583334</v>
       </c>
     </row>
     <row r="774">
@@ -37097,16 +36123,14 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>mp-756214</t>
+          <t>mp-7964</t>
         </is>
       </c>
       <c r="L775" t="n">
-        <v>4.958600000000001</v>
-      </c>
-      <c r="M775" t="inlineStr">
-        <is>
-          <t>Al-O-Y</t>
-        </is>
+        <v>3.4965</v>
+      </c>
+      <c r="M775" t="n">
+        <v>-3.638135746583333</v>
       </c>
     </row>
     <row r="776">
@@ -37148,16 +36172,14 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>mp-756214</t>
+          <t>mp-7964</t>
         </is>
       </c>
       <c r="L776" t="n">
-        <v>4.958600000000001</v>
-      </c>
-      <c r="M776" t="inlineStr">
-        <is>
-          <t>Al-O-Y</t>
-        </is>
+        <v>3.4965</v>
+      </c>
+      <c r="M776" t="n">
+        <v>-3.638135746583333</v>
       </c>
     </row>
     <row r="777">
@@ -37199,16 +36221,14 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>mp-1188667</t>
+          <t>mp-758371</t>
         </is>
       </c>
       <c r="L777" t="n">
         <v>0</v>
       </c>
-      <c r="M777" t="inlineStr">
-        <is>
-          <t>Al-O-Yb</t>
-        </is>
+      <c r="M777" t="n">
+        <v>-3.203787335250001</v>
       </c>
     </row>
     <row r="778">
@@ -37250,16 +36270,14 @@
       </c>
       <c r="K778" t="inlineStr">
         <is>
-          <t>mp-937870</t>
+          <t>mp-676312</t>
         </is>
       </c>
       <c r="L778" t="n">
-        <v>0</v>
-      </c>
-      <c r="M778" t="inlineStr">
-        <is>
-          <t>Bi-O-Yb</t>
-        </is>
+        <v>0.3571</v>
+      </c>
+      <c r="M778" t="n">
+        <v>-2.332176024</v>
       </c>
     </row>
     <row r="779">
@@ -37307,10 +36325,8 @@
       <c r="L779" t="n">
         <v>0</v>
       </c>
-      <c r="M779" t="inlineStr">
-        <is>
-          <t>Co-O-Yb</t>
-        </is>
+      <c r="M779" t="n">
+        <v>-2.180549849249999</v>
       </c>
     </row>
     <row r="780">
@@ -37358,10 +36374,8 @@
       <c r="L780" t="n">
         <v>0</v>
       </c>
-      <c r="M780" t="inlineStr">
-        <is>
-          <t>Cr-O-Yb</t>
-        </is>
+      <c r="M780" t="n">
+        <v>-2.817658663750001</v>
       </c>
     </row>
     <row r="781">
@@ -37409,10 +36423,8 @@
       <c r="L781" t="n">
         <v>0</v>
       </c>
-      <c r="M781" t="inlineStr">
-        <is>
-          <t>Cu-O-Yb</t>
-        </is>
+      <c r="M781" t="n">
+        <v>-1.88087619125</v>
       </c>
     </row>
     <row r="782">
@@ -37460,10 +36472,8 @@
       <c r="L782" t="n">
         <v>0</v>
       </c>
-      <c r="M782" t="inlineStr">
-        <is>
-          <t>Fe-O-Yb</t>
-        </is>
+      <c r="M782" t="n">
+        <v>-2.41987650775</v>
       </c>
     </row>
     <row r="783">
@@ -37511,10 +36521,8 @@
       <c r="L783" t="n">
         <v>1.0157</v>
       </c>
-      <c r="M783" t="inlineStr">
-        <is>
-          <t>Ge-O-Yb</t>
-        </is>
+      <c r="M783" t="n">
+        <v>-2.76598629425</v>
       </c>
     </row>
     <row r="784">
@@ -37562,10 +36570,8 @@
       <c r="L784" t="n">
         <v>0</v>
       </c>
-      <c r="M784" t="inlineStr">
-        <is>
-          <t>In-O-Yb</t>
-        </is>
+      <c r="M784" t="n">
+        <v>-2.064386471250001</v>
       </c>
     </row>
     <row r="785">
@@ -37613,10 +36619,8 @@
       <c r="L785" t="n">
         <v>0</v>
       </c>
-      <c r="M785" t="inlineStr">
-        <is>
-          <t>Bi-O-Y</t>
-        </is>
+      <c r="M785" t="n">
+        <v>-1.717916576583334</v>
       </c>
     </row>
     <row r="786">
@@ -37705,10 +36709,8 @@
       <c r="L787" t="n">
         <v>0</v>
       </c>
-      <c r="M787" t="inlineStr">
-        <is>
-          <t>Mn-O-Yb</t>
-        </is>
+      <c r="M787" t="n">
+        <v>-2.494848660836207</v>
       </c>
     </row>
     <row r="788">
@@ -37797,10 +36799,8 @@
       <c r="L789" t="n">
         <v>0</v>
       </c>
-      <c r="M789" t="inlineStr">
-        <is>
-          <t>Nb-O-Yb</t>
-        </is>
+      <c r="M789" t="n">
+        <v>-3.172789997250001</v>
       </c>
     </row>
     <row r="790">
@@ -37848,10 +36848,8 @@
       <c r="L790" t="n">
         <v>0</v>
       </c>
-      <c r="M790" t="inlineStr">
-        <is>
-          <t>Ni-O-Yb</t>
-        </is>
+      <c r="M790" t="n">
+        <v>-1.979308082749999</v>
       </c>
     </row>
     <row r="791">
@@ -37981,10 +36979,8 @@
       <c r="L793" t="n">
         <v>0</v>
       </c>
-      <c r="M793" t="inlineStr">
-        <is>
-          <t>O-Pd-Yb</t>
-        </is>
+      <c r="M793" t="n">
+        <v>-1.69577856725</v>
       </c>
     </row>
     <row r="794">
@@ -38032,10 +37028,8 @@
       <c r="L794" t="n">
         <v>0</v>
       </c>
-      <c r="M794" t="inlineStr">
-        <is>
-          <t>O-Pt-Yb</t>
-        </is>
+      <c r="M794" t="n">
+        <v>-1.70866354125</v>
       </c>
     </row>
     <row r="795">
@@ -38083,10 +37077,8 @@
       <c r="L795" t="n">
         <v>0</v>
       </c>
-      <c r="M795" t="inlineStr">
-        <is>
-          <t>O-Pu-Yb</t>
-        </is>
+      <c r="M795" t="n">
+        <v>-3.23039407525</v>
       </c>
     </row>
     <row r="796">
@@ -38134,10 +37126,8 @@
       <c r="L796" t="n">
         <v>0</v>
       </c>
-      <c r="M796" t="inlineStr">
-        <is>
-          <t>O-Re-Yb</t>
-        </is>
+      <c r="M796" t="n">
+        <v>-2.450004402249999</v>
       </c>
     </row>
     <row r="797">
@@ -38185,10 +37175,8 @@
       <c r="L797" t="n">
         <v>0</v>
       </c>
-      <c r="M797" t="inlineStr">
-        <is>
-          <t>O-Rh-Yb</t>
-        </is>
+      <c r="M797" t="n">
+        <v>-2.28257166775</v>
       </c>
     </row>
     <row r="798">
@@ -38318,10 +37306,8 @@
       <c r="L800" t="n">
         <v>0</v>
       </c>
-      <c r="M800" t="inlineStr">
-        <is>
-          <t>O-Sc-Yb</t>
-        </is>
+      <c r="M800" t="n">
+        <v>-3.16322270225</v>
       </c>
     </row>
     <row r="801">
@@ -38369,10 +37355,8 @@
       <c r="L801" t="n">
         <v>1.7075</v>
       </c>
-      <c r="M801" t="inlineStr">
-        <is>
-          <t>O-Sn-Yb</t>
-        </is>
+      <c r="M801" t="n">
+        <v>-2.591294924249999</v>
       </c>
     </row>
     <row r="802">
@@ -38420,10 +37404,8 @@
       <c r="L802" t="n">
         <v>0</v>
       </c>
-      <c r="M802" t="inlineStr">
-        <is>
-          <t>O-Ta-Yb</t>
-        </is>
+      <c r="M802" t="n">
+        <v>-3.29509780125</v>
       </c>
     </row>
     <row r="803">
@@ -38471,10 +37453,8 @@
       <c r="L803" t="n">
         <v>0</v>
       </c>
-      <c r="M803" t="inlineStr">
-        <is>
-          <t>O-Tc-Yb</t>
-        </is>
+      <c r="M803" t="n">
+        <v>-2.50864006825</v>
       </c>
     </row>
     <row r="804">
@@ -38563,10 +37543,8 @@
       <c r="L805" t="n">
         <v>1.8975</v>
       </c>
-      <c r="M805" t="inlineStr">
-        <is>
-          <t>O-Ti-Yb</t>
-        </is>
+      <c r="M805" t="n">
+        <v>-3.636964475916666</v>
       </c>
     </row>
     <row r="806">
@@ -38655,10 +37633,8 @@
       <c r="L807" t="n">
         <v>0.448</v>
       </c>
-      <c r="M807" t="inlineStr">
-        <is>
-          <t>O-V-Yb</t>
-        </is>
+      <c r="M807" t="n">
+        <v>-3.118281276250001</v>
       </c>
     </row>
     <row r="808">
@@ -38706,10 +37682,8 @@
       <c r="L808" t="n">
         <v>0</v>
       </c>
-      <c r="M808" t="inlineStr">
-        <is>
-          <t>O-W-Yb</t>
-        </is>
+      <c r="M808" t="n">
+        <v>-2.452238627250002</v>
       </c>
     </row>
     <row r="809">
@@ -38792,16 +37766,14 @@
       </c>
       <c r="K810" t="inlineStr">
         <is>
-          <t>mp-22668</t>
+          <t>mp-1330514</t>
         </is>
       </c>
       <c r="L810" t="n">
-        <v>0</v>
-      </c>
-      <c r="M810" t="inlineStr">
-        <is>
-          <t>Co-O-Y</t>
-        </is>
+        <v>0.007299999999999862</v>
+      </c>
+      <c r="M810" t="n">
+        <v>-2.583497029250001</v>
       </c>
     </row>
     <row r="811">
@@ -38849,10 +37821,8 @@
       <c r="L811" t="n">
         <v>1.3989</v>
       </c>
-      <c r="M811" t="inlineStr">
-        <is>
-          <t>Cr-O-Y</t>
-        </is>
+      <c r="M811" t="n">
+        <v>-3.042373842916667</v>
       </c>
     </row>
     <row r="812">
@@ -38894,16 +37864,14 @@
       </c>
       <c r="K812" t="inlineStr">
         <is>
-          <t>mp-1340758</t>
+          <t>mp-1333124</t>
         </is>
       </c>
       <c r="L812" t="n">
-        <v>0</v>
-      </c>
-      <c r="M812" t="inlineStr">
-        <is>
-          <t>Cu-O-Y</t>
-        </is>
+        <v>0.005599999999999827</v>
+      </c>
+      <c r="M812" t="n">
+        <v>-2.428822087583334</v>
       </c>
     </row>
     <row r="813">
@@ -38945,16 +37913,14 @@
       </c>
       <c r="K813" t="inlineStr">
         <is>
-          <t>mp-1376289</t>
+          <t>mp-1275986</t>
         </is>
       </c>
       <c r="L813" t="n">
-        <v>1.3141</v>
-      </c>
-      <c r="M813" t="inlineStr">
-        <is>
-          <t>Fe-O-Y</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M813" t="n">
+        <v>-2.831057355583333</v>
       </c>
     </row>
     <row r="814">
@@ -39002,10 +37968,8 @@
       <c r="L814" t="n">
         <v>2.9043</v>
       </c>
-      <c r="M814" t="inlineStr">
-        <is>
-          <t>Ga-O-Y</t>
-        </is>
+      <c r="M814" t="n">
+        <v>-3.135130498416668</v>
       </c>
     </row>
     <row r="815">
@@ -39053,10 +38017,8 @@
       <c r="L815" t="n">
         <v>2.051699999999999</v>
       </c>
-      <c r="M815" t="inlineStr">
-        <is>
-          <t>In-O-Y</t>
-        </is>
+      <c r="M815" t="n">
+        <v>-2.980185456583334</v>
       </c>
     </row>
     <row r="816">
@@ -39145,10 +38107,8 @@
       <c r="L817" t="n">
         <v>0</v>
       </c>
-      <c r="M817" t="inlineStr">
-        <is>
-          <t>Mn-O-Y</t>
-        </is>
+      <c r="M817" t="n">
+        <v>-3.036770705502874</v>
       </c>
     </row>
     <row r="818">
@@ -39196,10 +38156,8 @@
       <c r="L818" t="n">
         <v>0</v>
       </c>
-      <c r="M818" t="inlineStr">
-        <is>
-          <t>Mo-O-Y</t>
-        </is>
+      <c r="M818" t="n">
+        <v>-2.322576216583333</v>
       </c>
     </row>
     <row r="819">
@@ -39288,10 +38246,8 @@
       <c r="L820" t="n">
         <v>0</v>
       </c>
-      <c r="M820" t="inlineStr">
-        <is>
-          <t>Ni-O-Y</t>
-        </is>
+      <c r="M820" t="n">
+        <v>-2.220451194583335</v>
       </c>
     </row>
     <row r="821">
@@ -39462,10 +38418,8 @@
       <c r="L824" t="n">
         <v>0.8142000000000005</v>
       </c>
-      <c r="M824" t="inlineStr">
-        <is>
-          <t>O-Rh-Y</t>
-        </is>
+      <c r="M824" t="n">
+        <v>-2.556357298583333</v>
       </c>
     </row>
     <row r="825">
@@ -39554,10 +38508,8 @@
       <c r="L826" t="n">
         <v>1.4299</v>
       </c>
-      <c r="M826" t="inlineStr">
-        <is>
-          <t>O-Sb-Y</t>
-        </is>
+      <c r="M826" t="n">
+        <v>-2.658861851583333</v>
       </c>
     </row>
     <row r="827">
@@ -39605,10 +38557,8 @@
       <c r="L827" t="n">
         <v>2.8464</v>
       </c>
-      <c r="M827" t="inlineStr">
-        <is>
-          <t>O-Sc-Y</t>
-        </is>
+      <c r="M827" t="n">
+        <v>-3.939713417583333</v>
       </c>
     </row>
     <row r="828">
@@ -39697,10 +38647,8 @@
       <c r="L829" t="n">
         <v>0</v>
       </c>
-      <c r="M829" t="inlineStr">
-        <is>
-          <t>O-Ti-Y</t>
-        </is>
+      <c r="M829" t="n">
+        <v>-3.592048807250001</v>
       </c>
     </row>
     <row r="830">
@@ -39789,10 +38737,8 @@
       <c r="L831" t="n">
         <v>1.1014</v>
       </c>
-      <c r="M831" t="inlineStr">
-        <is>
-          <t>O-V-Y</t>
-        </is>
+      <c r="M831" t="n">
+        <v>-3.194243850916668</v>
       </c>
     </row>
     <row r="832">

--- a/output.xlsx
+++ b/output.xlsx
@@ -526,14 +526,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>mp-1418444</t>
+          <t>mp-1343327</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.04809999999999981</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.2536764345833333</v>
+        <v>-1.623722897250001</v>
       </c>
     </row>
     <row r="3">
@@ -618,14 +618,14 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>mp-753992</t>
+          <t>mp-1273356</t>
         </is>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.7389644645833329</v>
+        <v>-0.7498712735833337</v>
       </c>
     </row>
     <row r="5">
@@ -1786,14 +1786,14 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>mp-1178815</t>
+          <t>mp-624691</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>1.9488</v>
+        <v>1.6463</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.746094415083333</v>
+        <v>-1.734650152083333</v>
       </c>
     </row>
     <row r="33">
@@ -2222,14 +2222,14 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>mp-5663</t>
+          <t>mp-3316</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>2.299</v>
+        <v>2.2112</v>
       </c>
       <c r="L42" t="n">
-        <v>-3.551038376250001</v>
+        <v>-3.590189497249999</v>
       </c>
     </row>
     <row r="43">
@@ -2406,14 +2406,14 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>mp-1192651</t>
+          <t>mp-19035</t>
         </is>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-2.151044506583332</v>
+        <v>-2.14418027325</v>
       </c>
     </row>
     <row r="47">
@@ -2804,14 +2804,14 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>mp-757501</t>
+          <t>mp-675227</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>0.8679000000000001</v>
       </c>
       <c r="L55" t="n">
-        <v>-2.464671521836207</v>
+        <v>-2.468413956836207</v>
       </c>
     </row>
     <row r="56">
@@ -3126,14 +3126,14 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>mp-20991</t>
+          <t>mp-561598</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>0.02729999999999988</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>-2.10677212225</v>
+        <v>-1.01444146925</v>
       </c>
     </row>
     <row r="63">
@@ -3402,14 +3402,14 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>mp-3597</t>
+          <t>mp-5773</t>
         </is>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>-2.182365054249999</v>
+        <v>-2.188982386583334</v>
       </c>
     </row>
     <row r="69">
@@ -3532,14 +3532,14 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>mp-1178513</t>
+          <t>mp-3163</t>
         </is>
       </c>
       <c r="K71" t="n">
-        <v>0.6650999999999998</v>
+        <v>0.3723999999999998</v>
       </c>
       <c r="L71" t="n">
-        <v>-2.587585625250001</v>
+        <v>-2.588231648249999</v>
       </c>
     </row>
     <row r="72">
@@ -3578,14 +3578,14 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>mp-1178513</t>
+          <t>mp-3163</t>
         </is>
       </c>
       <c r="K72" t="n">
-        <v>0.6650999999999998</v>
+        <v>0.3723999999999998</v>
       </c>
       <c r="L72" t="n">
-        <v>-2.587585625250001</v>
+        <v>-2.588231648249999</v>
       </c>
     </row>
     <row r="73">
@@ -3670,14 +3670,14 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>mp-1182811</t>
+          <t>mp-5735</t>
         </is>
       </c>
       <c r="K74" t="n">
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>-3.11040996225</v>
+        <v>-3.12482015125</v>
       </c>
     </row>
     <row r="75">
@@ -3854,14 +3854,14 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>mp-504715</t>
+          <t>mp-5777</t>
         </is>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>2.293</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.4155492659166669</v>
+        <v>-3.492527183916666</v>
       </c>
     </row>
     <row r="79">
@@ -3900,14 +3900,14 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>mp-504715</t>
+          <t>mp-5777</t>
         </is>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>2.293</v>
       </c>
       <c r="L79" t="n">
-        <v>-0.4155492659166669</v>
+        <v>-3.492527183916666</v>
       </c>
     </row>
     <row r="80">
@@ -3946,14 +3946,14 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>mp-504715</t>
+          <t>mp-5777</t>
         </is>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>2.293</v>
       </c>
       <c r="L80" t="n">
-        <v>-0.4155492659166669</v>
+        <v>-3.492527183916666</v>
       </c>
     </row>
     <row r="81">
@@ -4550,14 +4550,14 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>mp-1399298</t>
+          <t>mp-1368304</t>
         </is>
       </c>
       <c r="K94" t="n">
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>-1.564142794249999</v>
+        <v>-1.982080300250001</v>
       </c>
     </row>
     <row r="95">
@@ -4688,14 +4688,14 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>mp-1001571</t>
+          <t>mp-1272846</t>
         </is>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>0.0607000000000002</v>
       </c>
       <c r="L97" t="n">
-        <v>-2.17713515525</v>
+        <v>-2.22466198975</v>
       </c>
     </row>
     <row r="98">
@@ -4910,14 +4910,14 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>mp-1017467</t>
+          <t>mp-19201</t>
         </is>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>0.4685999999999999</v>
       </c>
       <c r="L102" t="n">
-        <v>-2.419726756836208</v>
+        <v>-2.501201440336208</v>
       </c>
     </row>
     <row r="103">
@@ -5338,14 +5338,14 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>mp-1193602</t>
+          <t>mp-1078659</t>
         </is>
       </c>
       <c r="K112" t="n">
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>-2.093583765250001</v>
+        <v>-2.09381967325</v>
       </c>
     </row>
     <row r="113">
@@ -5476,14 +5476,14 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>mp-1181886</t>
+          <t>mp-17552</t>
         </is>
       </c>
       <c r="K115" t="n">
-        <v>3.6218</v>
+        <v>4.7336</v>
       </c>
       <c r="L115" t="n">
-        <v>-3.20506503875</v>
+        <v>-3.428483630583334</v>
       </c>
     </row>
     <row r="116">
@@ -5652,14 +5652,14 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>mp-1228456</t>
+          <t>mp-1366217</t>
         </is>
       </c>
       <c r="K119" t="n">
-        <v>3.1072</v>
+        <v>2.895</v>
       </c>
       <c r="L119" t="n">
-        <v>-2.396340628583333</v>
+        <v>-2.411834654183333</v>
       </c>
     </row>
     <row r="120">
@@ -5698,14 +5698,14 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>mp-5827</t>
+          <t>mp-3442</t>
         </is>
       </c>
       <c r="K120" t="n">
-        <v>1.8285</v>
+        <v>2.2434</v>
       </c>
       <c r="L120" t="n">
-        <v>-3.492382935916667</v>
+        <v>-3.538366825916666</v>
       </c>
     </row>
     <row r="121">
@@ -5744,14 +5744,14 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>mp-5827</t>
+          <t>mp-3442</t>
         </is>
       </c>
       <c r="K121" t="n">
-        <v>1.8285</v>
+        <v>2.2434</v>
       </c>
       <c r="L121" t="n">
-        <v>-3.492382935916667</v>
+        <v>-3.538366825916666</v>
       </c>
     </row>
     <row r="122">
@@ -6142,14 +6142,14 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>mp-7588</t>
+          <t>mp-1016903</t>
         </is>
       </c>
       <c r="K130" t="n">
-        <v>1.301</v>
+        <v>0.1022000000000007</v>
       </c>
       <c r="L130" t="n">
-        <v>-1.849625289125</v>
+        <v>-1.56402776025</v>
       </c>
     </row>
     <row r="131">
@@ -6944,14 +6944,14 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>mp-1179263</t>
+          <t>mp-13641</t>
         </is>
       </c>
       <c r="K149" t="n">
-        <v>1.4505</v>
+        <v>2.9057</v>
       </c>
       <c r="L149" t="n">
-        <v>-2.459582289416667</v>
+        <v>-2.679648432916667</v>
       </c>
     </row>
     <row r="150">
@@ -7280,14 +7280,14 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>mp-20530</t>
+          <t>mp-780712</t>
         </is>
       </c>
       <c r="K157" t="n">
         <v>0</v>
       </c>
       <c r="L157" t="n">
-        <v>-2.97195593425</v>
+        <v>-3.10239603425</v>
       </c>
     </row>
     <row r="158">
@@ -8212,14 +8212,14 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>mp-18769</t>
+          <t>mp-22593</t>
         </is>
       </c>
       <c r="K179" t="n">
         <v>0</v>
       </c>
       <c r="L179" t="n">
-        <v>-3.227333015750001</v>
+        <v>-2.965509474250001</v>
       </c>
     </row>
     <row r="180">
@@ -8410,14 +8410,14 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>mp-613384</t>
+          <t>mp-28295</t>
         </is>
       </c>
       <c r="K184" t="n">
-        <v>0</v>
+        <v>3.0912</v>
       </c>
       <c r="L184" t="n">
-        <v>0.5802867591637927</v>
+        <v>-1.386134045836207</v>
       </c>
     </row>
     <row r="185">
@@ -8456,14 +8456,14 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>mp-756630</t>
+          <t>mp-984723</t>
         </is>
       </c>
       <c r="K185" t="n">
-        <v>5.723000000000001</v>
+        <v>2.948300000000001</v>
       </c>
       <c r="L185" t="n">
-        <v>-3.74903711925</v>
+        <v>-3.62011074925</v>
       </c>
     </row>
     <row r="186">
@@ -9838,14 +9838,14 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>mp-756458</t>
+          <t>mp-754184</t>
         </is>
       </c>
       <c r="K218" t="n">
-        <v>5.803000000000001</v>
+        <v>3.5604</v>
       </c>
       <c r="L218" t="n">
-        <v>-3.76412369675</v>
+        <v>-3.69631298425</v>
       </c>
     </row>
     <row r="219">
@@ -10114,14 +10114,14 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>mp-1213082</t>
+          <t>mp-1213088</t>
         </is>
       </c>
       <c r="K224" t="n">
-        <v>3.6631</v>
+        <v>2.9001</v>
       </c>
       <c r="L224" t="n">
-        <v>-3.14838917675</v>
+        <v>-3.185553331416667</v>
       </c>
     </row>
     <row r="225">
@@ -10160,14 +10160,14 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>mp-772217</t>
+          <t>mp-754208</t>
         </is>
       </c>
       <c r="K225" t="n">
-        <v>1.956</v>
+        <v>2.5532</v>
       </c>
       <c r="L225" t="n">
-        <v>-3.012471627916668</v>
+        <v>-2.94807762825</v>
       </c>
     </row>
     <row r="226">
@@ -10962,14 +10962,14 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>mp-1212757</t>
+          <t>mp-1075975</t>
         </is>
       </c>
       <c r="K244" t="n">
         <v>0</v>
       </c>
       <c r="L244" t="n">
-        <v>-2.220310743249999</v>
+        <v>-2.123302194249999</v>
       </c>
     </row>
     <row r="245">
@@ -11192,14 +11192,14 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>mp-1184304</t>
+          <t>mp-1212980</t>
         </is>
       </c>
       <c r="K249" t="n">
         <v>0</v>
       </c>
       <c r="L249" t="n">
-        <v>-2.22142702325</v>
+        <v>-2.57955616725</v>
       </c>
     </row>
     <row r="250">
@@ -11376,14 +11376,14 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>mp-755572</t>
+          <t>mp-1078341</t>
         </is>
       </c>
       <c r="K253" t="n">
         <v>0</v>
       </c>
       <c r="L253" t="n">
-        <v>-3.131698579250001</v>
+        <v>-3.150548855250001</v>
       </c>
     </row>
     <row r="254">
@@ -12088,14 +12088,14 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>mp-1079111</t>
+          <t>mp-22246</t>
         </is>
       </c>
       <c r="K269" t="n">
         <v>0</v>
       </c>
       <c r="L269" t="n">
-        <v>-3.565507372916668</v>
+        <v>-3.556369161416667</v>
       </c>
     </row>
     <row r="270">
@@ -12272,14 +12272,14 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>mp-771055</t>
+          <t>mp-1178354</t>
         </is>
       </c>
       <c r="K273" t="n">
-        <v>0.3877000000000006</v>
+        <v>0.4662999999999995</v>
       </c>
       <c r="L273" t="n">
-        <v>-3.55385709925</v>
+        <v>-3.5627833365</v>
       </c>
     </row>
     <row r="274">
@@ -14014,14 +14014,14 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>mp-770830</t>
+          <t>mp-1178162</t>
         </is>
       </c>
       <c r="K314" t="n">
-        <v>2.7472</v>
+        <v>3.1343</v>
       </c>
       <c r="L314" t="n">
-        <v>-2.81250972075</v>
+        <v>-2.81671486025</v>
       </c>
     </row>
     <row r="315">
@@ -14374,14 +14374,14 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>mp-1193069</t>
+          <t>mp-22081</t>
         </is>
       </c>
       <c r="K322" t="n">
-        <v>0.4942000000000002</v>
+        <v>0.4351000000000003</v>
       </c>
       <c r="L322" t="n">
-        <v>-2.756193794836206</v>
+        <v>-3.043501464836207</v>
       </c>
     </row>
     <row r="323">
@@ -15274,14 +15274,14 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>mp-982040</t>
+          <t>mp-29799</t>
         </is>
       </c>
       <c r="K344" t="n">
-        <v>0</v>
+        <v>0.4914000000000001</v>
       </c>
       <c r="L344" t="n">
-        <v>-1.49458295985</v>
+        <v>-1.587451643350001</v>
       </c>
     </row>
     <row r="345">
@@ -15550,14 +15550,14 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>mp-5246</t>
+          <t>mp-4342</t>
         </is>
       </c>
       <c r="K350" t="n">
-        <v>2.0585</v>
+        <v>1.476</v>
       </c>
       <c r="L350" t="n">
-        <v>-2.85695064185</v>
+        <v>-2.85495074585</v>
       </c>
     </row>
     <row r="351">
@@ -16232,14 +16232,14 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>mp-1180658</t>
+          <t>mp-760376</t>
         </is>
       </c>
       <c r="K365" t="n">
         <v>0</v>
       </c>
       <c r="L365" t="n">
-        <v>-2.657498189016667</v>
+        <v>-2.667417728516666</v>
       </c>
     </row>
     <row r="366">
@@ -16324,14 +16324,14 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>mp-1076633</t>
+          <t>mp-18815</t>
         </is>
       </c>
       <c r="K367" t="n">
-        <v>0.2186000000000003</v>
+        <v>3.046</v>
       </c>
       <c r="L367" t="n">
-        <v>-2.194717487850001</v>
+        <v>-2.411628778350001</v>
       </c>
     </row>
     <row r="368">
@@ -16462,14 +16462,14 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>mp-5304</t>
+          <t>mp-780422</t>
         </is>
       </c>
       <c r="K370" t="n">
-        <v>3.4924</v>
+        <v>4.403700000000001</v>
       </c>
       <c r="L370" t="n">
-        <v>-3.71616823825</v>
+        <v>-3.687419682916667</v>
       </c>
     </row>
     <row r="371">
@@ -16508,14 +16508,14 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>mp-5304</t>
+          <t>mp-780422</t>
         </is>
       </c>
       <c r="K371" t="n">
-        <v>3.4924</v>
+        <v>4.403700000000001</v>
       </c>
       <c r="L371" t="n">
-        <v>-3.71616823825</v>
+        <v>-3.687419682916667</v>
       </c>
     </row>
     <row r="372">
@@ -16600,14 +16600,14 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>mp-1504268</t>
+          <t>mp-1181307</t>
         </is>
       </c>
       <c r="K373" t="n">
-        <v>0.9398</v>
+        <v>0</v>
       </c>
       <c r="L373" t="n">
-        <v>-2.55056405325</v>
+        <v>0.3092976117500001</v>
       </c>
     </row>
     <row r="374">
@@ -16646,14 +16646,14 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>mp-19357</t>
+          <t>mp-19281</t>
         </is>
       </c>
       <c r="K374" t="n">
-        <v>0</v>
+        <v>1.913800000000001</v>
       </c>
       <c r="L374" t="n">
-        <v>-3.189960296250001</v>
+        <v>-3.197386720750001</v>
       </c>
     </row>
     <row r="375">
@@ -16738,14 +16738,14 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>mp-605340</t>
+          <t>mp-1181002</t>
         </is>
       </c>
       <c r="K376" t="n">
-        <v>1.4672</v>
+        <v>1.2424</v>
       </c>
       <c r="L376" t="n">
-        <v>-2.561796294750001</v>
+        <v>-2.74694155975</v>
       </c>
     </row>
     <row r="377">
@@ -17044,14 +17044,14 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>mp-1205375</t>
+          <t>mp-1272373</t>
         </is>
       </c>
       <c r="K383" t="n">
-        <v>0</v>
+        <v>0.5803000000000003</v>
       </c>
       <c r="L383" t="n">
-        <v>-2.968812103836207</v>
+        <v>-2.963165414836206</v>
       </c>
     </row>
     <row r="384">
@@ -17166,14 +17166,14 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>mp-1284950</t>
+          <t>mp-19339</t>
         </is>
       </c>
       <c r="K386" t="n">
-        <v>0.3559999999999999</v>
+        <v>0</v>
       </c>
       <c r="L386" t="n">
-        <v>-2.45257952275</v>
+        <v>-2.47246809625</v>
       </c>
     </row>
     <row r="387">
@@ -17212,14 +17212,14 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>mp-1284950</t>
+          <t>mp-19339</t>
         </is>
       </c>
       <c r="K387" t="n">
-        <v>0.3559999999999999</v>
+        <v>0</v>
       </c>
       <c r="L387" t="n">
-        <v>-2.45257952275</v>
+        <v>-2.47246809625</v>
       </c>
     </row>
     <row r="388">
@@ -17824,14 +17824,14 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>mp-19350</t>
+          <t>mp-19053</t>
         </is>
       </c>
       <c r="K401" t="n">
         <v>0</v>
       </c>
       <c r="L401" t="n">
-        <v>-3.28006582725</v>
+        <v>-3.102806440250001</v>
       </c>
     </row>
     <row r="402">
@@ -18382,14 +18382,14 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>mp-768505</t>
+          <t>mp-755792</t>
         </is>
       </c>
       <c r="K414" t="n">
-        <v>2.8828</v>
+        <v>3.6376</v>
       </c>
       <c r="L414" t="n">
-        <v>-3.220843054083333</v>
+        <v>-3.16630070125</v>
       </c>
     </row>
     <row r="415">
@@ -19634,14 +19634,14 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>mp-998627</t>
+          <t>mp-1040471</t>
         </is>
       </c>
       <c r="K444" t="n">
         <v>0</v>
       </c>
       <c r="L444" t="n">
-        <v>-2.027619515560345</v>
+        <v>-2.019523498560345</v>
       </c>
     </row>
     <row r="445">
@@ -19680,14 +19680,14 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>mp-558920</t>
+          <t>mp-4748</t>
         </is>
       </c>
       <c r="K445" t="n">
-        <v>2.4364</v>
+        <v>1.8238</v>
       </c>
       <c r="L445" t="n">
-        <v>-2.831820829310344</v>
+        <v>-2.822724499560345</v>
       </c>
     </row>
     <row r="446">
@@ -20024,14 +20024,14 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>mp-752755</t>
+          <t>mp-20011</t>
         </is>
       </c>
       <c r="K453" t="n">
-        <v>1.7037</v>
+        <v>1.4696</v>
       </c>
       <c r="L453" t="n">
-        <v>-2.009850923060345</v>
+        <v>-2.006297753560344</v>
       </c>
     </row>
     <row r="454">
@@ -20108,14 +20108,14 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>mp-4699</t>
+          <t>mp-754818</t>
         </is>
       </c>
       <c r="K455" t="n">
-        <v>2.5313</v>
+        <v>2.7139</v>
       </c>
       <c r="L455" t="n">
-        <v>-3.068037457560345</v>
+        <v>-2.982666945560345</v>
       </c>
     </row>
     <row r="456">
@@ -20292,14 +20292,14 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>mp-763901</t>
+          <t>mp-555665</t>
         </is>
       </c>
       <c r="K459" t="n">
-        <v>2.9798</v>
+        <v>3.0358</v>
       </c>
       <c r="L459" t="n">
-        <v>-2.337336709560346</v>
+        <v>-2.379262736560345</v>
       </c>
     </row>
     <row r="460">
@@ -20422,14 +20422,14 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>mp-5899</t>
+          <t>mp-14254</t>
         </is>
       </c>
       <c r="K462" t="n">
-        <v>4.353999999999999</v>
+        <v>2.863600000000001</v>
       </c>
       <c r="L462" t="n">
-        <v>-3.67323355775</v>
+        <v>-3.64574264075</v>
       </c>
     </row>
     <row r="463">
@@ -20790,14 +20790,14 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>mp-1186316</t>
+          <t>mp-755138</t>
         </is>
       </c>
       <c r="K470" t="n">
-        <v>1.6468</v>
+        <v>2.6533</v>
       </c>
       <c r="L470" t="n">
-        <v>-2.465222510749999</v>
+        <v>-2.87534569925</v>
       </c>
     </row>
     <row r="471">
@@ -20874,14 +20874,14 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>mp-1182197</t>
+          <t>mp-20852</t>
         </is>
       </c>
       <c r="K472" t="n">
-        <v>0</v>
+        <v>1.898</v>
       </c>
       <c r="L472" t="n">
-        <v>1.006812335163793</v>
+        <v>-2.964242188336206</v>
       </c>
     </row>
     <row r="473">
@@ -21836,14 +21836,14 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>mp-755569</t>
+          <t>mp-1178420</t>
         </is>
       </c>
       <c r="K495" t="n">
         <v>0</v>
       </c>
       <c r="L495" t="n">
-        <v>-1.19654879675</v>
+        <v>-1.28607944075</v>
       </c>
     </row>
     <row r="496">
@@ -22280,14 +22280,14 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>mp-1078668</t>
+          <t>mp-974108</t>
         </is>
       </c>
       <c r="K505" t="n">
         <v>0</v>
       </c>
       <c r="L505" t="n">
-        <v>-1.29008557325</v>
+        <v>-0.9231271032499997</v>
       </c>
     </row>
     <row r="506">
@@ -22830,14 +22830,14 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>mp-1106215</t>
+          <t>mp-20459</t>
         </is>
       </c>
       <c r="K518" t="n">
-        <v>2.316</v>
+        <v>1.813</v>
       </c>
       <c r="L518" t="n">
-        <v>-2.728247650916667</v>
+        <v>-2.731353161916667</v>
       </c>
     </row>
     <row r="519">
@@ -25284,14 +25284,14 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>mp-1076534</t>
+          <t>mp-3033</t>
         </is>
       </c>
       <c r="K575" t="n">
-        <v>2.0024</v>
+        <v>3.5412</v>
       </c>
       <c r="L575" t="n">
-        <v>-2.97826306475</v>
+        <v>-3.034925338249999</v>
       </c>
     </row>
     <row r="576">
@@ -25902,14 +25902,14 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>mp-1187025</t>
+          <t>mp-7405</t>
         </is>
       </c>
       <c r="K590" t="n">
-        <v>4.0771</v>
+        <v>4.861399999999999</v>
       </c>
       <c r="L590" t="n">
-        <v>-3.69337370125</v>
+        <v>-3.69855814675</v>
       </c>
     </row>
     <row r="591">
@@ -26124,14 +26124,14 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>mp-1099588</t>
+          <t>mp-20243</t>
         </is>
       </c>
       <c r="K595" t="n">
-        <v>0.7234999999999996</v>
+        <v>1.0882</v>
       </c>
       <c r="L595" t="n">
-        <v>-2.58219682025</v>
+        <v>-2.804567005750001</v>
       </c>
     </row>
     <row r="596">
@@ -26300,14 +26300,14 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>mp-1075973</t>
+          <t>mp-22203</t>
         </is>
       </c>
       <c r="K599" t="n">
         <v>0</v>
       </c>
       <c r="L599" t="n">
-        <v>-2.792370773836208</v>
+        <v>-2.991974613836207</v>
       </c>
     </row>
     <row r="600">
@@ -27506,14 +27506,14 @@
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>mp-550781</t>
+          <t>mp-1272815</t>
         </is>
       </c>
       <c r="K628" t="n">
         <v>0</v>
       </c>
       <c r="L628" t="n">
-        <v>-1.918679259083333</v>
+        <v>-1.966624067083333</v>
       </c>
     </row>
     <row r="629">
@@ -27552,14 +27552,14 @@
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>mp-769855</t>
+          <t>mp-1372100</t>
         </is>
       </c>
       <c r="K629" t="n">
-        <v>0.6795</v>
+        <v>0</v>
       </c>
       <c r="L629" t="n">
-        <v>-2.575431043083333</v>
+        <v>-2.476600042583332</v>
       </c>
     </row>
     <row r="630">
@@ -27958,14 +27958,14 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>mp-17097</t>
+          <t>mp-1016848</t>
         </is>
       </c>
       <c r="K638" t="n">
         <v>0</v>
       </c>
       <c r="L638" t="n">
-        <v>-2.015930306583333</v>
+        <v>-1.893477468583333</v>
       </c>
     </row>
     <row r="639">
@@ -28234,14 +28234,14 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>mp-762506</t>
+          <t>mp-1101421</t>
         </is>
       </c>
       <c r="K644" t="n">
         <v>0</v>
       </c>
       <c r="L644" t="n">
-        <v>-1.765320186583334</v>
+        <v>-1.763291292083333</v>
       </c>
     </row>
     <row r="645">
@@ -28640,14 +28640,14 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>mp-22534</t>
+          <t>mp-1179112</t>
         </is>
       </c>
       <c r="K653" t="n">
         <v>0</v>
       </c>
       <c r="L653" t="n">
-        <v>-1.681222764583332</v>
+        <v>-1.695327625083333</v>
       </c>
     </row>
     <row r="654">
@@ -28824,14 +28824,14 @@
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>mp-12867</t>
+          <t>mp-546973</t>
         </is>
       </c>
       <c r="K657" t="n">
-        <v>1.5555</v>
+        <v>0.9698000000000002</v>
       </c>
       <c r="L657" t="n">
-        <v>-2.627234576583334</v>
+        <v>-2.590974167583334</v>
       </c>
     </row>
     <row r="658">
@@ -28870,14 +28870,14 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>mp-12867</t>
+          <t>mp-546973</t>
         </is>
       </c>
       <c r="K658" t="n">
-        <v>1.5555</v>
+        <v>0.9698000000000002</v>
       </c>
       <c r="L658" t="n">
-        <v>-2.627234576583334</v>
+        <v>-2.590974167583334</v>
       </c>
     </row>
     <row r="659">
@@ -29008,14 +29008,14 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>mp-647158</t>
+          <t>mp-1179320</t>
         </is>
       </c>
       <c r="K661" t="n">
-        <v>3.3579</v>
+        <v>3.3726</v>
       </c>
       <c r="L661" t="n">
-        <v>-2.376157466666667</v>
+        <v>-2.378043284750001</v>
       </c>
     </row>
     <row r="662">
@@ -29054,14 +29054,14 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>mp-551830</t>
+          <t>mp-776018</t>
         </is>
       </c>
       <c r="K662" t="n">
-        <v>1.786999999999999</v>
+        <v>1.7362</v>
       </c>
       <c r="L662" t="n">
-        <v>-3.552430347250001</v>
+        <v>-3.513910123916668</v>
       </c>
     </row>
     <row r="663">
@@ -29100,14 +29100,14 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>mp-551830</t>
+          <t>mp-776018</t>
         </is>
       </c>
       <c r="K663" t="n">
-        <v>1.786999999999999</v>
+        <v>1.7362</v>
       </c>
       <c r="L663" t="n">
-        <v>-3.552430347250001</v>
+        <v>-3.513910123916668</v>
       </c>
     </row>
     <row r="664">
@@ -29452,14 +29452,14 @@
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>mp-613402</t>
+          <t>mp-3323</t>
         </is>
       </c>
       <c r="K671" t="n">
-        <v>0</v>
+        <v>3.214399999999999</v>
       </c>
       <c r="L671" t="n">
-        <v>-1.145768452583334</v>
+        <v>-3.608100220583334</v>
       </c>
     </row>
     <row r="672">
@@ -29498,14 +29498,14 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>mp-613402</t>
+          <t>mp-3323</t>
         </is>
       </c>
       <c r="K672" t="n">
-        <v>0</v>
+        <v>3.214399999999999</v>
       </c>
       <c r="L672" t="n">
-        <v>-1.145768452583334</v>
+        <v>-3.608100220583334</v>
       </c>
     </row>
     <row r="673">
@@ -30644,14 +30644,14 @@
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>mp-554811</t>
+          <t>mp-1187389</t>
         </is>
       </c>
       <c r="K699" t="n">
-        <v>1.4396</v>
+        <v>0</v>
       </c>
       <c r="L699" t="n">
-        <v>-3.293091636250002</v>
+        <v>-2.892921059250001</v>
       </c>
     </row>
     <row r="700">
@@ -31360,14 +31360,14 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>mp-770614</t>
+          <t>mp-756464</t>
         </is>
       </c>
       <c r="K717" t="n">
-        <v>0.1429999999999998</v>
+        <v>0</v>
       </c>
       <c r="L717" t="n">
-        <v>-1.071227321916666</v>
+        <v>-1.082468768416666</v>
       </c>
     </row>
     <row r="718">
@@ -31750,14 +31750,14 @@
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>mp-1101462</t>
+          <t>mp-977408</t>
         </is>
       </c>
       <c r="K726" t="n">
-        <v>0.9465000000000003</v>
+        <v>0.1116000000000001</v>
       </c>
       <c r="L726" t="n">
-        <v>-2.455577255916666</v>
+        <v>-2.365000675916666</v>
       </c>
     </row>
     <row r="727">
@@ -31796,14 +31796,14 @@
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>mp-18001</t>
+          <t>mp-998845</t>
         </is>
       </c>
       <c r="K727" t="n">
         <v>0</v>
       </c>
       <c r="L727" t="n">
-        <v>-0.9671292884166661</v>
+        <v>-0.9388427869166662</v>
       </c>
     </row>
     <row r="728">
@@ -32514,14 +32514,14 @@
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>mp-756281</t>
+          <t>mp-1101265</t>
         </is>
       </c>
       <c r="K744" t="n">
-        <v>5.7744</v>
+        <v>3.5534</v>
       </c>
       <c r="L744" t="n">
-        <v>-3.778040946083333</v>
+        <v>-3.720819362583334</v>
       </c>
     </row>
     <row r="745">
@@ -32652,14 +32652,14 @@
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>mp-1187577</t>
+          <t>mp-777295</t>
         </is>
       </c>
       <c r="K747" t="n">
-        <v>1.9289</v>
+        <v>2.4448</v>
       </c>
       <c r="L747" t="n">
-        <v>-2.850554932583334</v>
+        <v>-3.249505101083334</v>
       </c>
     </row>
     <row r="748">
@@ -32912,14 +32912,14 @@
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>mp-554211</t>
+          <t>mp-554270</t>
         </is>
       </c>
       <c r="K753" t="n">
-        <v>0</v>
+        <v>0.3708</v>
       </c>
       <c r="L753" t="n">
-        <v>-3.100258556169541</v>
+        <v>-3.059179707669541</v>
       </c>
     </row>
     <row r="754">
@@ -33796,14 +33796,14 @@
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>mp-7964</t>
+          <t>mp-756214</t>
         </is>
       </c>
       <c r="K775" t="n">
-        <v>3.4965</v>
+        <v>4.958600000000001</v>
       </c>
       <c r="L775" t="n">
-        <v>-3.638135746583333</v>
+        <v>-3.694553927583333</v>
       </c>
     </row>
     <row r="776">
@@ -33842,14 +33842,14 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>mp-7964</t>
+          <t>mp-756214</t>
         </is>
       </c>
       <c r="K776" t="n">
-        <v>3.4965</v>
+        <v>4.958600000000001</v>
       </c>
       <c r="L776" t="n">
-        <v>-3.638135746583333</v>
+        <v>-3.694553927583333</v>
       </c>
     </row>
     <row r="777">
@@ -33888,14 +33888,14 @@
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>mp-758371</t>
+          <t>mp-1188667</t>
         </is>
       </c>
       <c r="K777" t="n">
         <v>0</v>
       </c>
       <c r="L777" t="n">
-        <v>-3.203787335250001</v>
+        <v>-3.20461956025</v>
       </c>
     </row>
     <row r="778">
@@ -33934,14 +33934,14 @@
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>mp-676312</t>
+          <t>mp-937870</t>
         </is>
       </c>
       <c r="K778" t="n">
-        <v>0.3571</v>
+        <v>0</v>
       </c>
       <c r="L778" t="n">
-        <v>-2.332176024</v>
+        <v>1.13368638075</v>
       </c>
     </row>
     <row r="779">
@@ -35334,14 +35334,14 @@
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>mp-1330514</t>
+          <t>mp-22668</t>
         </is>
       </c>
       <c r="K810" t="n">
-        <v>0.007299999999999862</v>
+        <v>0</v>
       </c>
       <c r="L810" t="n">
-        <v>-2.583497029250001</v>
+        <v>-2.605514475083333</v>
       </c>
     </row>
     <row r="811">
@@ -35426,14 +35426,14 @@
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>mp-1333124</t>
+          <t>mp-1340758</t>
         </is>
       </c>
       <c r="K812" t="n">
-        <v>0.005599999999999827</v>
+        <v>0</v>
       </c>
       <c r="L812" t="n">
-        <v>-2.428822087583334</v>
+        <v>-2.417369679583333</v>
       </c>
     </row>
     <row r="813">
@@ -35472,14 +35472,14 @@
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>mp-1275986</t>
+          <t>mp-1376289</t>
         </is>
       </c>
       <c r="K813" t="n">
-        <v>0</v>
+        <v>1.3141</v>
       </c>
       <c r="L813" t="n">
-        <v>-2.831057355583333</v>
+        <v>-2.825985947249999</v>
       </c>
     </row>
     <row r="814">

--- a/output.xlsx
+++ b/output.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>composition_x</t>
+          <t>composition</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>composition_y</t>
+          <t>formation energy per atom</t>
         </is>
       </c>
     </row>
@@ -526,14 +526,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>mp-1343327</t>
+          <t>mp-1418444</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.04809999999999981</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.623722897250001</v>
+        <v>-0.2536764345833333</v>
       </c>
     </row>
     <row r="3">
@@ -618,14 +618,14 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>mp-1273356</t>
+          <t>mp-753992</t>
         </is>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.7498712735833337</v>
+        <v>-0.7389644645833329</v>
       </c>
     </row>
     <row r="5">
@@ -1786,14 +1786,14 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>mp-624691</t>
+          <t>mp-1178815</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>1.6463</v>
+        <v>1.9488</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.734650152083333</v>
+        <v>-1.746094415083333</v>
       </c>
     </row>
     <row r="33">
@@ -2222,14 +2222,14 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>mp-3316</t>
+          <t>mp-5663</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>2.2112</v>
+        <v>2.299</v>
       </c>
       <c r="L42" t="n">
-        <v>-3.590189497249999</v>
+        <v>-3.551038376250001</v>
       </c>
     </row>
     <row r="43">
@@ -2406,14 +2406,14 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>mp-19035</t>
+          <t>mp-1192651</t>
         </is>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-2.14418027325</v>
+        <v>-2.151044506583332</v>
       </c>
     </row>
     <row r="47">
@@ -2804,14 +2804,14 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>mp-675227</t>
+          <t>mp-757501</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>0.8679000000000001</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>-2.468413956836207</v>
+        <v>-2.464671521836207</v>
       </c>
     </row>
     <row r="56">
@@ -3126,14 +3126,14 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>mp-561598</t>
+          <t>mp-20991</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>0.02729999999999988</v>
       </c>
       <c r="L62" t="n">
-        <v>-1.01444146925</v>
+        <v>-2.10677212225</v>
       </c>
     </row>
     <row r="63">
@@ -3402,14 +3402,14 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>mp-5773</t>
+          <t>mp-3597</t>
         </is>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>-2.188982386583334</v>
+        <v>-2.182365054249999</v>
       </c>
     </row>
     <row r="69">
@@ -3532,14 +3532,14 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>mp-3163</t>
+          <t>mp-1178513</t>
         </is>
       </c>
       <c r="K71" t="n">
-        <v>0.3723999999999998</v>
+        <v>0.6650999999999998</v>
       </c>
       <c r="L71" t="n">
-        <v>-2.588231648249999</v>
+        <v>-2.587585625250001</v>
       </c>
     </row>
     <row r="72">
@@ -3578,14 +3578,14 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>mp-3163</t>
+          <t>mp-1178513</t>
         </is>
       </c>
       <c r="K72" t="n">
-        <v>0.3723999999999998</v>
+        <v>0.6650999999999998</v>
       </c>
       <c r="L72" t="n">
-        <v>-2.588231648249999</v>
+        <v>-2.587585625250001</v>
       </c>
     </row>
     <row r="73">
@@ -3670,14 +3670,14 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>mp-5735</t>
+          <t>mp-1182811</t>
         </is>
       </c>
       <c r="K74" t="n">
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>-3.12482015125</v>
+        <v>-3.11040996225</v>
       </c>
     </row>
     <row r="75">
@@ -3854,14 +3854,14 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>mp-5777</t>
+          <t>mp-504715</t>
         </is>
       </c>
       <c r="K78" t="n">
-        <v>2.293</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>-3.492527183916666</v>
+        <v>-0.4155492659166669</v>
       </c>
     </row>
     <row r="79">
@@ -3900,14 +3900,14 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>mp-5777</t>
+          <t>mp-504715</t>
         </is>
       </c>
       <c r="K79" t="n">
-        <v>2.293</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>-3.492527183916666</v>
+        <v>-0.4155492659166669</v>
       </c>
     </row>
     <row r="80">
@@ -3946,14 +3946,14 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>mp-5777</t>
+          <t>mp-504715</t>
         </is>
       </c>
       <c r="K80" t="n">
-        <v>2.293</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>-3.492527183916666</v>
+        <v>-0.4155492659166669</v>
       </c>
     </row>
     <row r="81">
@@ -4550,14 +4550,14 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>mp-1368304</t>
+          <t>mp-1399298</t>
         </is>
       </c>
       <c r="K94" t="n">
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>-1.982080300250001</v>
+        <v>-1.564142794249999</v>
       </c>
     </row>
     <row r="95">
@@ -4688,14 +4688,14 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>mp-1272846</t>
+          <t>mp-1001571</t>
         </is>
       </c>
       <c r="K97" t="n">
-        <v>0.0607000000000002</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>-2.22466198975</v>
+        <v>-2.17713515525</v>
       </c>
     </row>
     <row r="98">
@@ -4910,14 +4910,14 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>mp-19201</t>
+          <t>mp-1017467</t>
         </is>
       </c>
       <c r="K102" t="n">
-        <v>0.4685999999999999</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>-2.501201440336208</v>
+        <v>-2.419726756836208</v>
       </c>
     </row>
     <row r="103">
@@ -5338,14 +5338,14 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>mp-1078659</t>
+          <t>mp-1193602</t>
         </is>
       </c>
       <c r="K112" t="n">
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>-2.09381967325</v>
+        <v>-2.093583765250001</v>
       </c>
     </row>
     <row r="113">
@@ -5476,14 +5476,14 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>mp-17552</t>
+          <t>mp-1181886</t>
         </is>
       </c>
       <c r="K115" t="n">
-        <v>4.7336</v>
+        <v>3.6218</v>
       </c>
       <c r="L115" t="n">
-        <v>-3.428483630583334</v>
+        <v>-3.20506503875</v>
       </c>
     </row>
     <row r="116">
@@ -5652,14 +5652,14 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>mp-1366217</t>
+          <t>mp-1228456</t>
         </is>
       </c>
       <c r="K119" t="n">
-        <v>2.895</v>
+        <v>3.1072</v>
       </c>
       <c r="L119" t="n">
-        <v>-2.411834654183333</v>
+        <v>-2.396340628583333</v>
       </c>
     </row>
     <row r="120">
@@ -5698,14 +5698,14 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>mp-3442</t>
+          <t>mp-5827</t>
         </is>
       </c>
       <c r="K120" t="n">
-        <v>2.2434</v>
+        <v>1.8285</v>
       </c>
       <c r="L120" t="n">
-        <v>-3.538366825916666</v>
+        <v>-3.492382935916667</v>
       </c>
     </row>
     <row r="121">
@@ -5744,14 +5744,14 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>mp-3442</t>
+          <t>mp-5827</t>
         </is>
       </c>
       <c r="K121" t="n">
-        <v>2.2434</v>
+        <v>1.8285</v>
       </c>
       <c r="L121" t="n">
-        <v>-3.538366825916666</v>
+        <v>-3.492382935916667</v>
       </c>
     </row>
     <row r="122">
@@ -6142,14 +6142,14 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>mp-1016903</t>
+          <t>mp-7588</t>
         </is>
       </c>
       <c r="K130" t="n">
-        <v>0.1022000000000007</v>
+        <v>1.301</v>
       </c>
       <c r="L130" t="n">
-        <v>-1.56402776025</v>
+        <v>-1.849625289125</v>
       </c>
     </row>
     <row r="131">
@@ -6944,14 +6944,14 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>mp-13641</t>
+          <t>mp-1179263</t>
         </is>
       </c>
       <c r="K149" t="n">
-        <v>2.9057</v>
+        <v>1.4505</v>
       </c>
       <c r="L149" t="n">
-        <v>-2.679648432916667</v>
+        <v>-2.459582289416667</v>
       </c>
     </row>
     <row r="150">
@@ -7280,14 +7280,14 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>mp-780712</t>
+          <t>mp-20530</t>
         </is>
       </c>
       <c r="K157" t="n">
         <v>0</v>
       </c>
       <c r="L157" t="n">
-        <v>-3.10239603425</v>
+        <v>-2.97195593425</v>
       </c>
     </row>
     <row r="158">
@@ -8212,14 +8212,14 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>mp-22593</t>
+          <t>mp-18769</t>
         </is>
       </c>
       <c r="K179" t="n">
         <v>0</v>
       </c>
       <c r="L179" t="n">
-        <v>-2.965509474250001</v>
+        <v>-3.227333015750001</v>
       </c>
     </row>
     <row r="180">
@@ -8410,14 +8410,14 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>mp-28295</t>
+          <t>mp-613384</t>
         </is>
       </c>
       <c r="K184" t="n">
-        <v>3.0912</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
-        <v>-1.386134045836207</v>
+        <v>0.5802867591637927</v>
       </c>
     </row>
     <row r="185">
@@ -8456,14 +8456,14 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>mp-984723</t>
+          <t>mp-756630</t>
         </is>
       </c>
       <c r="K185" t="n">
-        <v>2.948300000000001</v>
+        <v>5.723000000000001</v>
       </c>
       <c r="L185" t="n">
-        <v>-3.62011074925</v>
+        <v>-3.74903711925</v>
       </c>
     </row>
     <row r="186">
@@ -9838,14 +9838,14 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>mp-754184</t>
+          <t>mp-756458</t>
         </is>
       </c>
       <c r="K218" t="n">
-        <v>3.5604</v>
+        <v>5.803000000000001</v>
       </c>
       <c r="L218" t="n">
-        <v>-3.69631298425</v>
+        <v>-3.76412369675</v>
       </c>
     </row>
     <row r="219">
@@ -10114,14 +10114,14 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>mp-1213088</t>
+          <t>mp-1213082</t>
         </is>
       </c>
       <c r="K224" t="n">
-        <v>2.9001</v>
+        <v>3.6631</v>
       </c>
       <c r="L224" t="n">
-        <v>-3.185553331416667</v>
+        <v>-3.14838917675</v>
       </c>
     </row>
     <row r="225">
@@ -10160,14 +10160,14 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>mp-754208</t>
+          <t>mp-772217</t>
         </is>
       </c>
       <c r="K225" t="n">
-        <v>2.5532</v>
+        <v>1.956</v>
       </c>
       <c r="L225" t="n">
-        <v>-2.94807762825</v>
+        <v>-3.012471627916668</v>
       </c>
     </row>
     <row r="226">
@@ -10962,14 +10962,14 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>mp-1075975</t>
+          <t>mp-1212757</t>
         </is>
       </c>
       <c r="K244" t="n">
         <v>0</v>
       </c>
       <c r="L244" t="n">
-        <v>-2.123302194249999</v>
+        <v>-2.220310743249999</v>
       </c>
     </row>
     <row r="245">
@@ -11192,14 +11192,14 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>mp-1212980</t>
+          <t>mp-1184304</t>
         </is>
       </c>
       <c r="K249" t="n">
         <v>0</v>
       </c>
       <c r="L249" t="n">
-        <v>-2.57955616725</v>
+        <v>-2.22142702325</v>
       </c>
     </row>
     <row r="250">
@@ -11376,14 +11376,14 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>mp-1078341</t>
+          <t>mp-755572</t>
         </is>
       </c>
       <c r="K253" t="n">
         <v>0</v>
       </c>
       <c r="L253" t="n">
-        <v>-3.150548855250001</v>
+        <v>-3.131698579250001</v>
       </c>
     </row>
     <row r="254">
@@ -12088,14 +12088,14 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>mp-22246</t>
+          <t>mp-1079111</t>
         </is>
       </c>
       <c r="K269" t="n">
         <v>0</v>
       </c>
       <c r="L269" t="n">
-        <v>-3.556369161416667</v>
+        <v>-3.565507372916668</v>
       </c>
     </row>
     <row r="270">
@@ -12272,14 +12272,14 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>mp-1178354</t>
+          <t>mp-771055</t>
         </is>
       </c>
       <c r="K273" t="n">
-        <v>0.4662999999999995</v>
+        <v>0.3877000000000006</v>
       </c>
       <c r="L273" t="n">
-        <v>-3.5627833365</v>
+        <v>-3.55385709925</v>
       </c>
     </row>
     <row r="274">
@@ -14014,14 +14014,14 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>mp-1178162</t>
+          <t>mp-770830</t>
         </is>
       </c>
       <c r="K314" t="n">
-        <v>3.1343</v>
+        <v>2.7472</v>
       </c>
       <c r="L314" t="n">
-        <v>-2.81671486025</v>
+        <v>-2.81250972075</v>
       </c>
     </row>
     <row r="315">
@@ -14374,14 +14374,14 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>mp-22081</t>
+          <t>mp-1193069</t>
         </is>
       </c>
       <c r="K322" t="n">
-        <v>0.4351000000000003</v>
+        <v>0.4942000000000002</v>
       </c>
       <c r="L322" t="n">
-        <v>-3.043501464836207</v>
+        <v>-2.756193794836206</v>
       </c>
     </row>
     <row r="323">
@@ -15274,14 +15274,14 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>mp-29799</t>
+          <t>mp-982040</t>
         </is>
       </c>
       <c r="K344" t="n">
-        <v>0.4914000000000001</v>
+        <v>0</v>
       </c>
       <c r="L344" t="n">
-        <v>-1.587451643350001</v>
+        <v>-1.49458295985</v>
       </c>
     </row>
     <row r="345">
@@ -15550,14 +15550,14 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>mp-4342</t>
+          <t>mp-5246</t>
         </is>
       </c>
       <c r="K350" t="n">
-        <v>1.476</v>
+        <v>2.0585</v>
       </c>
       <c r="L350" t="n">
-        <v>-2.85495074585</v>
+        <v>-2.85695064185</v>
       </c>
     </row>
     <row r="351">
@@ -16232,14 +16232,14 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>mp-760376</t>
+          <t>mp-1180658</t>
         </is>
       </c>
       <c r="K365" t="n">
         <v>0</v>
       </c>
       <c r="L365" t="n">
-        <v>-2.667417728516666</v>
+        <v>-2.657498189016667</v>
       </c>
     </row>
     <row r="366">
@@ -16324,14 +16324,14 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>mp-18815</t>
+          <t>mp-1076633</t>
         </is>
       </c>
       <c r="K367" t="n">
-        <v>3.046</v>
+        <v>0.2186000000000003</v>
       </c>
       <c r="L367" t="n">
-        <v>-2.411628778350001</v>
+        <v>-2.194717487850001</v>
       </c>
     </row>
     <row r="368">
@@ -16462,14 +16462,14 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>mp-780422</t>
+          <t>mp-5304</t>
         </is>
       </c>
       <c r="K370" t="n">
-        <v>4.403700000000001</v>
+        <v>3.4924</v>
       </c>
       <c r="L370" t="n">
-        <v>-3.687419682916667</v>
+        <v>-3.71616823825</v>
       </c>
     </row>
     <row r="371">
@@ -16508,14 +16508,14 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>mp-780422</t>
+          <t>mp-5304</t>
         </is>
       </c>
       <c r="K371" t="n">
-        <v>4.403700000000001</v>
+        <v>3.4924</v>
       </c>
       <c r="L371" t="n">
-        <v>-3.687419682916667</v>
+        <v>-3.71616823825</v>
       </c>
     </row>
     <row r="372">
@@ -16600,14 +16600,14 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>mp-1181307</t>
+          <t>mp-1504268</t>
         </is>
       </c>
       <c r="K373" t="n">
-        <v>0</v>
+        <v>0.9398</v>
       </c>
       <c r="L373" t="n">
-        <v>0.3092976117500001</v>
+        <v>-2.55056405325</v>
       </c>
     </row>
     <row r="374">
@@ -16646,14 +16646,14 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>mp-19281</t>
+          <t>mp-19357</t>
         </is>
       </c>
       <c r="K374" t="n">
-        <v>1.913800000000001</v>
+        <v>0</v>
       </c>
       <c r="L374" t="n">
-        <v>-3.197386720750001</v>
+        <v>-3.189960296250001</v>
       </c>
     </row>
     <row r="375">
@@ -16738,14 +16738,14 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>mp-1181002</t>
+          <t>mp-605340</t>
         </is>
       </c>
       <c r="K376" t="n">
-        <v>1.2424</v>
+        <v>1.4672</v>
       </c>
       <c r="L376" t="n">
-        <v>-2.74694155975</v>
+        <v>-2.561796294750001</v>
       </c>
     </row>
     <row r="377">
@@ -17044,14 +17044,14 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>mp-1272373</t>
+          <t>mp-1205375</t>
         </is>
       </c>
       <c r="K383" t="n">
-        <v>0.5803000000000003</v>
+        <v>0</v>
       </c>
       <c r="L383" t="n">
-        <v>-2.963165414836206</v>
+        <v>-2.968812103836207</v>
       </c>
     </row>
     <row r="384">
@@ -17166,14 +17166,14 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>mp-19339</t>
+          <t>mp-1284950</t>
         </is>
       </c>
       <c r="K386" t="n">
-        <v>0</v>
+        <v>0.3559999999999999</v>
       </c>
       <c r="L386" t="n">
-        <v>-2.47246809625</v>
+        <v>-2.45257952275</v>
       </c>
     </row>
     <row r="387">
@@ -17212,14 +17212,14 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>mp-19339</t>
+          <t>mp-1284950</t>
         </is>
       </c>
       <c r="K387" t="n">
-        <v>0</v>
+        <v>0.3559999999999999</v>
       </c>
       <c r="L387" t="n">
-        <v>-2.47246809625</v>
+        <v>-2.45257952275</v>
       </c>
     </row>
     <row r="388">
@@ -17824,14 +17824,14 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>mp-19053</t>
+          <t>mp-19350</t>
         </is>
       </c>
       <c r="K401" t="n">
         <v>0</v>
       </c>
       <c r="L401" t="n">
-        <v>-3.102806440250001</v>
+        <v>-3.28006582725</v>
       </c>
     </row>
     <row r="402">
@@ -18382,14 +18382,14 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>mp-755792</t>
+          <t>mp-768505</t>
         </is>
       </c>
       <c r="K414" t="n">
-        <v>3.6376</v>
+        <v>2.8828</v>
       </c>
       <c r="L414" t="n">
-        <v>-3.16630070125</v>
+        <v>-3.220843054083333</v>
       </c>
     </row>
     <row r="415">
@@ -19634,14 +19634,14 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>mp-1040471</t>
+          <t>mp-998627</t>
         </is>
       </c>
       <c r="K444" t="n">
         <v>0</v>
       </c>
       <c r="L444" t="n">
-        <v>-2.019523498560345</v>
+        <v>-2.027619515560345</v>
       </c>
     </row>
     <row r="445">
@@ -19680,14 +19680,14 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>mp-4748</t>
+          <t>mp-558920</t>
         </is>
       </c>
       <c r="K445" t="n">
-        <v>1.8238</v>
+        <v>2.4364</v>
       </c>
       <c r="L445" t="n">
-        <v>-2.822724499560345</v>
+        <v>-2.831820829310344</v>
       </c>
     </row>
     <row r="446">
@@ -20024,14 +20024,14 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>mp-20011</t>
+          <t>mp-752755</t>
         </is>
       </c>
       <c r="K453" t="n">
-        <v>1.4696</v>
+        <v>1.7037</v>
       </c>
       <c r="L453" t="n">
-        <v>-2.006297753560344</v>
+        <v>-2.009850923060345</v>
       </c>
     </row>
     <row r="454">
@@ -20108,14 +20108,14 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>mp-754818</t>
+          <t>mp-4699</t>
         </is>
       </c>
       <c r="K455" t="n">
-        <v>2.7139</v>
+        <v>2.5313</v>
       </c>
       <c r="L455" t="n">
-        <v>-2.982666945560345</v>
+        <v>-3.068037457560345</v>
       </c>
     </row>
     <row r="456">
@@ -20292,14 +20292,14 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>mp-555665</t>
+          <t>mp-763901</t>
         </is>
       </c>
       <c r="K459" t="n">
-        <v>3.0358</v>
+        <v>2.9798</v>
       </c>
       <c r="L459" t="n">
-        <v>-2.379262736560345</v>
+        <v>-2.337336709560346</v>
       </c>
     </row>
     <row r="460">
@@ -20422,14 +20422,14 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>mp-14254</t>
+          <t>mp-5899</t>
         </is>
       </c>
       <c r="K462" t="n">
-        <v>2.863600000000001</v>
+        <v>4.353999999999999</v>
       </c>
       <c r="L462" t="n">
-        <v>-3.64574264075</v>
+        <v>-3.67323355775</v>
       </c>
     </row>
     <row r="463">
@@ -20790,14 +20790,14 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>mp-755138</t>
+          <t>mp-1186316</t>
         </is>
       </c>
       <c r="K470" t="n">
-        <v>2.6533</v>
+        <v>1.6468</v>
       </c>
       <c r="L470" t="n">
-        <v>-2.87534569925</v>
+        <v>-2.465222510749999</v>
       </c>
     </row>
     <row r="471">
@@ -20874,14 +20874,14 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>mp-20852</t>
+          <t>mp-1182197</t>
         </is>
       </c>
       <c r="K472" t="n">
-        <v>1.898</v>
+        <v>0</v>
       </c>
       <c r="L472" t="n">
-        <v>-2.964242188336206</v>
+        <v>1.006812335163793</v>
       </c>
     </row>
     <row r="473">
@@ -21836,14 +21836,14 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>mp-1178420</t>
+          <t>mp-755569</t>
         </is>
       </c>
       <c r="K495" t="n">
         <v>0</v>
       </c>
       <c r="L495" t="n">
-        <v>-1.28607944075</v>
+        <v>-1.19654879675</v>
       </c>
     </row>
     <row r="496">
@@ -22280,14 +22280,14 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>mp-974108</t>
+          <t>mp-1078668</t>
         </is>
       </c>
       <c r="K505" t="n">
         <v>0</v>
       </c>
       <c r="L505" t="n">
-        <v>-0.9231271032499997</v>
+        <v>-1.29008557325</v>
       </c>
     </row>
     <row r="506">
@@ -22830,14 +22830,14 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>mp-20459</t>
+          <t>mp-1106215</t>
         </is>
       </c>
       <c r="K518" t="n">
-        <v>1.813</v>
+        <v>2.316</v>
       </c>
       <c r="L518" t="n">
-        <v>-2.731353161916667</v>
+        <v>-2.728247650916667</v>
       </c>
     </row>
     <row r="519">
@@ -25284,14 +25284,14 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>mp-3033</t>
+          <t>mp-1076534</t>
         </is>
       </c>
       <c r="K575" t="n">
-        <v>3.5412</v>
+        <v>2.0024</v>
       </c>
       <c r="L575" t="n">
-        <v>-3.034925338249999</v>
+        <v>-2.97826306475</v>
       </c>
     </row>
     <row r="576">
@@ -25902,14 +25902,14 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>mp-7405</t>
+          <t>mp-1187025</t>
         </is>
       </c>
       <c r="K590" t="n">
-        <v>4.861399999999999</v>
+        <v>4.0771</v>
       </c>
       <c r="L590" t="n">
-        <v>-3.69855814675</v>
+        <v>-3.69337370125</v>
       </c>
     </row>
     <row r="591">
@@ -26124,14 +26124,14 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>mp-20243</t>
+          <t>mp-1099588</t>
         </is>
       </c>
       <c r="K595" t="n">
-        <v>1.0882</v>
+        <v>0.7234999999999996</v>
       </c>
       <c r="L595" t="n">
-        <v>-2.804567005750001</v>
+        <v>-2.58219682025</v>
       </c>
     </row>
     <row r="596">
@@ -26300,14 +26300,14 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>mp-22203</t>
+          <t>mp-1075973</t>
         </is>
       </c>
       <c r="K599" t="n">
         <v>0</v>
       </c>
       <c r="L599" t="n">
-        <v>-2.991974613836207</v>
+        <v>-2.792370773836208</v>
       </c>
     </row>
     <row r="600">
@@ -27506,14 +27506,14 @@
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>mp-1272815</t>
+          <t>mp-550781</t>
         </is>
       </c>
       <c r="K628" t="n">
         <v>0</v>
       </c>
       <c r="L628" t="n">
-        <v>-1.966624067083333</v>
+        <v>-1.918679259083333</v>
       </c>
     </row>
     <row r="629">
@@ -27552,14 +27552,14 @@
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>mp-1372100</t>
+          <t>mp-769855</t>
         </is>
       </c>
       <c r="K629" t="n">
-        <v>0</v>
+        <v>0.6795</v>
       </c>
       <c r="L629" t="n">
-        <v>-2.476600042583332</v>
+        <v>-2.575431043083333</v>
       </c>
     </row>
     <row r="630">
@@ -27958,14 +27958,14 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>mp-1016848</t>
+          <t>mp-17097</t>
         </is>
       </c>
       <c r="K638" t="n">
         <v>0</v>
       </c>
       <c r="L638" t="n">
-        <v>-1.893477468583333</v>
+        <v>-2.015930306583333</v>
       </c>
     </row>
     <row r="639">
@@ -28234,14 +28234,14 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>mp-1101421</t>
+          <t>mp-762506</t>
         </is>
       </c>
       <c r="K644" t="n">
         <v>0</v>
       </c>
       <c r="L644" t="n">
-        <v>-1.763291292083333</v>
+        <v>-1.765320186583334</v>
       </c>
     </row>
     <row r="645">
@@ -28640,14 +28640,14 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>mp-1179112</t>
+          <t>mp-22534</t>
         </is>
       </c>
       <c r="K653" t="n">
         <v>0</v>
       </c>
       <c r="L653" t="n">
-        <v>-1.695327625083333</v>
+        <v>-1.681222764583332</v>
       </c>
     </row>
     <row r="654">
@@ -28824,14 +28824,14 @@
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>mp-546973</t>
+          <t>mp-12867</t>
         </is>
       </c>
       <c r="K657" t="n">
-        <v>0.9698000000000002</v>
+        <v>1.5555</v>
       </c>
       <c r="L657" t="n">
-        <v>-2.590974167583334</v>
+        <v>-2.627234576583334</v>
       </c>
     </row>
     <row r="658">
@@ -28870,14 +28870,14 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>mp-546973</t>
+          <t>mp-12867</t>
         </is>
       </c>
       <c r="K658" t="n">
-        <v>0.9698000000000002</v>
+        <v>1.5555</v>
       </c>
       <c r="L658" t="n">
-        <v>-2.590974167583334</v>
+        <v>-2.627234576583334</v>
       </c>
     </row>
     <row r="659">
@@ -29008,14 +29008,14 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>mp-1179320</t>
+          <t>mp-647158</t>
         </is>
       </c>
       <c r="K661" t="n">
-        <v>3.3726</v>
+        <v>3.3579</v>
       </c>
       <c r="L661" t="n">
-        <v>-2.378043284750001</v>
+        <v>-2.376157466666667</v>
       </c>
     </row>
     <row r="662">
@@ -29054,14 +29054,14 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>mp-776018</t>
+          <t>mp-551830</t>
         </is>
       </c>
       <c r="K662" t="n">
-        <v>1.7362</v>
+        <v>1.786999999999999</v>
       </c>
       <c r="L662" t="n">
-        <v>-3.513910123916668</v>
+        <v>-3.552430347250001</v>
       </c>
     </row>
     <row r="663">
@@ -29100,14 +29100,14 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>mp-776018</t>
+          <t>mp-551830</t>
         </is>
       </c>
       <c r="K663" t="n">
-        <v>1.7362</v>
+        <v>1.786999999999999</v>
       </c>
       <c r="L663" t="n">
-        <v>-3.513910123916668</v>
+        <v>-3.552430347250001</v>
       </c>
     </row>
     <row r="664">
@@ -29452,14 +29452,14 @@
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>mp-3323</t>
+          <t>mp-613402</t>
         </is>
       </c>
       <c r="K671" t="n">
-        <v>3.214399999999999</v>
+        <v>0</v>
       </c>
       <c r="L671" t="n">
-        <v>-3.608100220583334</v>
+        <v>-1.145768452583334</v>
       </c>
     </row>
     <row r="672">
@@ -29498,14 +29498,14 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>mp-3323</t>
+          <t>mp-613402</t>
         </is>
       </c>
       <c r="K672" t="n">
-        <v>3.214399999999999</v>
+        <v>0</v>
       </c>
       <c r="L672" t="n">
-        <v>-3.608100220583334</v>
+        <v>-1.145768452583334</v>
       </c>
     </row>
     <row r="673">
@@ -30644,14 +30644,14 @@
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>mp-1187389</t>
+          <t>mp-554811</t>
         </is>
       </c>
       <c r="K699" t="n">
-        <v>0</v>
+        <v>1.4396</v>
       </c>
       <c r="L699" t="n">
-        <v>-2.892921059250001</v>
+        <v>-3.293091636250002</v>
       </c>
     </row>
     <row r="700">
@@ -31360,14 +31360,14 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>mp-756464</t>
+          <t>mp-770614</t>
         </is>
       </c>
       <c r="K717" t="n">
-        <v>0</v>
+        <v>0.1429999999999998</v>
       </c>
       <c r="L717" t="n">
-        <v>-1.082468768416666</v>
+        <v>-1.071227321916666</v>
       </c>
     </row>
     <row r="718">
@@ -31750,14 +31750,14 @@
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>mp-977408</t>
+          <t>mp-1101462</t>
         </is>
       </c>
       <c r="K726" t="n">
-        <v>0.1116000000000001</v>
+        <v>0.9465000000000003</v>
       </c>
       <c r="L726" t="n">
-        <v>-2.365000675916666</v>
+        <v>-2.455577255916666</v>
       </c>
     </row>
     <row r="727">
@@ -31796,14 +31796,14 @@
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>mp-998845</t>
+          <t>mp-18001</t>
         </is>
       </c>
       <c r="K727" t="n">
         <v>0</v>
       </c>
       <c r="L727" t="n">
-        <v>-0.9388427869166662</v>
+        <v>-0.9671292884166661</v>
       </c>
     </row>
     <row r="728">
@@ -32514,14 +32514,14 @@
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>mp-1101265</t>
+          <t>mp-756281</t>
         </is>
       </c>
       <c r="K744" t="n">
-        <v>3.5534</v>
+        <v>5.7744</v>
       </c>
       <c r="L744" t="n">
-        <v>-3.720819362583334</v>
+        <v>-3.778040946083333</v>
       </c>
     </row>
     <row r="745">
@@ -32652,14 +32652,14 @@
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>mp-777295</t>
+          <t>mp-1187577</t>
         </is>
       </c>
       <c r="K747" t="n">
-        <v>2.4448</v>
+        <v>1.9289</v>
       </c>
       <c r="L747" t="n">
-        <v>-3.249505101083334</v>
+        <v>-2.850554932583334</v>
       </c>
     </row>
     <row r="748">
@@ -32912,14 +32912,14 @@
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>mp-554270</t>
+          <t>mp-554211</t>
         </is>
       </c>
       <c r="K753" t="n">
-        <v>0.3708</v>
+        <v>0</v>
       </c>
       <c r="L753" t="n">
-        <v>-3.059179707669541</v>
+        <v>-3.100258556169541</v>
       </c>
     </row>
     <row r="754">
@@ -33796,14 +33796,14 @@
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>mp-756214</t>
+          <t>mp-7964</t>
         </is>
       </c>
       <c r="K775" t="n">
-        <v>4.958600000000001</v>
+        <v>3.4965</v>
       </c>
       <c r="L775" t="n">
-        <v>-3.694553927583333</v>
+        <v>-3.638135746583333</v>
       </c>
     </row>
     <row r="776">
@@ -33842,14 +33842,14 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>mp-756214</t>
+          <t>mp-7964</t>
         </is>
       </c>
       <c r="K776" t="n">
-        <v>4.958600000000001</v>
+        <v>3.4965</v>
       </c>
       <c r="L776" t="n">
-        <v>-3.694553927583333</v>
+        <v>-3.638135746583333</v>
       </c>
     </row>
     <row r="777">
@@ -33888,14 +33888,14 @@
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>mp-1188667</t>
+          <t>mp-758371</t>
         </is>
       </c>
       <c r="K777" t="n">
         <v>0</v>
       </c>
       <c r="L777" t="n">
-        <v>-3.20461956025</v>
+        <v>-3.203787335250001</v>
       </c>
     </row>
     <row r="778">
@@ -33934,14 +33934,14 @@
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>mp-937870</t>
+          <t>mp-676312</t>
         </is>
       </c>
       <c r="K778" t="n">
-        <v>0</v>
+        <v>0.3571</v>
       </c>
       <c r="L778" t="n">
-        <v>1.13368638075</v>
+        <v>-2.332176024</v>
       </c>
     </row>
     <row r="779">
@@ -35334,14 +35334,14 @@
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>mp-22668</t>
+          <t>mp-1330514</t>
         </is>
       </c>
       <c r="K810" t="n">
-        <v>0</v>
+        <v>0.007299999999999862</v>
       </c>
       <c r="L810" t="n">
-        <v>-2.605514475083333</v>
+        <v>-2.583497029250001</v>
       </c>
     </row>
     <row r="811">
@@ -35426,14 +35426,14 @@
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>mp-1340758</t>
+          <t>mp-1333124</t>
         </is>
       </c>
       <c r="K812" t="n">
-        <v>0</v>
+        <v>0.005599999999999827</v>
       </c>
       <c r="L812" t="n">
-        <v>-2.417369679583333</v>
+        <v>-2.428822087583334</v>
       </c>
     </row>
     <row r="813">
@@ -35472,14 +35472,14 @@
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>mp-1376289</t>
+          <t>mp-1275986</t>
         </is>
       </c>
       <c r="K813" t="n">
-        <v>1.3141</v>
+        <v>0</v>
       </c>
       <c r="L813" t="n">
-        <v>-2.825985947249999</v>
+        <v>-2.831057355583333</v>
       </c>
     </row>
     <row r="814">
